--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -82,38 +82,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="179">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
@@ -135,258 +135,258 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>普通部位</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>精力耗尽恢复延迟时间（s）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>地面精力恢复速度（/s）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRunOutRecoverDelay</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverRate_Ground</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -399,63 +399,63 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Animation</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ActionATK_Factor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -477,99 +477,99 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>状态要求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>招式打断优先级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ActionInterruptPriority</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>InputOrder</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>招式指令</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -585,11 +585,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -605,23 +605,23 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -637,15 +637,15 @@
       </rPr>
       <t>Ani</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -661,15 +661,15 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>勾刃命中伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>勾刃收回伤害</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -685,71 +685,71 @@
       </rPr>
       <t>adeHookedATK</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawATK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画序列</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -765,19 +765,19 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -793,7 +793,7 @@
       </rPr>
       <t>taggerAniGroup</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -809,43 +809,43 @@
       </rPr>
       <t>tatusRequired</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。比如：收回勾刃。增加一次空中跳跃次数，1次远程、进程蓄力空中攻击，3次远程、近程普通空中攻击。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -861,7 +861,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -877,15 +877,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -901,24 +901,51 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ancelRange</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1032,33 +1059,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1067,31 +1103,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1100,22 +1148,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1482,13 +1521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65:C65"/>
+      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1523,13 +1562,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1538,8 +1577,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1553,8 +1592,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1566,8 +1605,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1579,8 +1618,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
@@ -1592,12 +1631,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1611,8 +1650,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1624,8 +1663,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1637,12 +1676,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1656,8 +1695,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1669,23 +1708,23 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24" t="s">
         <v>141</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -1699,8 +1738,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="11" t="s">
         <v>144</v>
       </c>
@@ -1713,8 +1752,8 @@
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="11" t="s">
         <v>142</v>
       </c>
@@ -1727,8 +1766,8 @@
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="11" t="s">
         <v>145</v>
       </c>
@@ -1741,20 +1780,20 @@
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1763,8 +1802,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1778,12 +1817,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1797,8 +1836,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1810,8 +1849,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1823,8 +1862,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="1" t="s">
         <v>99</v>
       </c>
@@ -1836,8 +1875,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="1" t="s">
         <v>100</v>
       </c>
@@ -1849,12 +1888,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -1866,8 +1905,8 @@
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="14" t="s">
         <v>153</v>
       </c>
@@ -1878,8 +1917,8 @@
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="14" t="s">
         <v>154</v>
       </c>
@@ -1890,8 +1929,8 @@
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="14" t="s">
         <v>155</v>
       </c>
@@ -1902,16 +1941,16 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="6"/>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1925,8 +1964,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="1" t="s">
         <v>96</v>
       </c>
@@ -1936,8 +1975,8 @@
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="1" t="s">
         <v>97</v>
       </c>
@@ -1949,8 +1988,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="1" t="s">
         <v>98</v>
       </c>
@@ -1960,8 +1999,8 @@
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="1" t="s">
         <v>108</v>
       </c>
@@ -1973,8 +2012,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="8" t="s">
         <v>134</v>
       </c>
@@ -1986,16 +2025,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2009,8 +2048,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="1" t="s">
         <v>118</v>
       </c>
@@ -2022,8 +2061,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="1" t="s">
         <v>122</v>
       </c>
@@ -2035,8 +2074,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="8" t="s">
         <v>125</v>
       </c>
@@ -2048,17 +2087,17 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="23"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2072,8 +2111,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="1" t="s">
         <v>110</v>
       </c>
@@ -2085,8 +2124,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="1" t="s">
         <v>23</v>
       </c>
@@ -2096,8 +2135,8 @@
       <c r="E52"/>
     </row>
     <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="21" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2111,8 +2150,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="1" t="s">
         <v>92</v>
       </c>
@@ -2124,11 +2163,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="21" t="s">
+      <c r="A55" s="25"/>
+      <c r="B55" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="21"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="1" t="s">
         <v>61</v>
       </c>
@@ -2137,8 +2176,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="21" t="s">
+      <c r="A56" s="25"/>
+      <c r="B56" s="23" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2150,8 +2189,8 @@
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="1" t="s">
         <v>111</v>
       </c>
@@ -2161,8 +2200,8 @@
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:6" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="16" t="s">
         <v>162</v>
       </c>
@@ -2175,22 +2214,22 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="23"/>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
       <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="23"/>
     </row>
     <row r="61" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="26" t="s">
+      <c r="A61" s="25"/>
+      <c r="B61" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="26"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="9" t="s">
         <v>114</v>
       </c>
@@ -2199,11 +2238,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24" t="s">
+      <c r="A62" s="25"/>
+      <c r="B62" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="24"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="8" t="s">
         <v>128</v>
       </c>
@@ -2213,11 +2252,11 @@
       <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24" t="s">
+      <c r="A63" s="25"/>
+      <c r="B63" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="8" t="s">
         <v>131</v>
       </c>
@@ -2227,11 +2266,11 @@
       <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24" t="s">
+      <c r="A64" s="25"/>
+      <c r="B64" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="8" t="s">
         <v>133</v>
       </c>
@@ -2239,11 +2278,11 @@
       <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="28" t="s">
+      <c r="A65" s="25"/>
+      <c r="B65" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="16" t="s">
         <v>171</v>
       </c>
@@ -2253,35 +2292,35 @@
       <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
+      <c r="A66" s="25"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
+      <c r="A67" s="25"/>
       <c r="C67" s="15"/>
       <c r="D67" s="14"/>
       <c r="E67" s="18"/>
       <c r="F67" s="17"/>
     </row>
     <row r="68" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
+      <c r="A68" s="25"/>
       <c r="C68" s="15"/>
       <c r="D68" s="14"/>
       <c r="E68" s="18"/>
       <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+      <c r="A69" s="25"/>
       <c r="C69" s="15"/>
       <c r="D69" s="14"/>
       <c r="E69" s="18"/>
       <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
       <c r="D70" s="14"/>
@@ -2289,36 +2328,36 @@
       <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+      <c r="A71" s="25"/>
       <c r="C71" s="15"/>
       <c r="D71" s="14"/>
       <c r="E71" s="18"/>
       <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="10"/>
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>170</v>
+      <c r="C73" s="31" t="s">
+        <v>176</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="20" t="s">
-        <v>172</v>
+      <c r="E73" s="32" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="21"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="16" t="s">
         <v>174</v>
       </c>
@@ -2329,129 +2368,154 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="22" t="s">
+    <row r="75" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="23"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="B78" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D78" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E78" s="20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="16" t="s">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="22" t="s">
+    <row r="80" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="22"/>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="23"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="B83" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D83" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="23"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="23"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E79" s="20" t="s">
+      <c r="E86" s="20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="21"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="21"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14" t="s">
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D87" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="21"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
+    <row r="88" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="22"/>
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="22"/>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="23"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A73:A90"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B65:C65"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A22:A49"/>
     <mergeCell ref="A50:A72"/>
@@ -2465,8 +2529,24 @@
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A73:A96"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B65:C65"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2511,13 +2591,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2526,8 +2606,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2541,8 +2621,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2554,8 +2634,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
         <v>121</v>
       </c>
@@ -2567,12 +2647,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="23"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2586,8 +2666,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,30 +2679,30 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
     </row>
     <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2636,8 +2716,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2649,8 +2729,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2662,8 +2742,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2675,8 +2755,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2688,16 +2768,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="23"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="23"/>
     </row>
     <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2711,8 +2791,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2724,8 +2804,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2737,8 +2817,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2750,8 +2830,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2763,8 +2843,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
@@ -2776,8 +2856,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="8" t="s">
         <v>137</v>
       </c>
@@ -2789,8 +2869,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="8" t="s">
         <v>138</v>
       </c>
@@ -2802,24 +2882,24 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="23"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="8" t="s">
         <v>130</v>
       </c>
@@ -2828,11 +2908,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
@@ -2841,11 +2921,11 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2854,22 +2934,22 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="9" t="s">
         <v>114</v>
       </c>
@@ -2878,11 +2958,11 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="13" t="s">
         <v>128</v>
       </c>
@@ -2891,25 +2971,25 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
     </row>
     <row r="38" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
     </row>
     <row r="39" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
     </row>
     <row r="40" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="25"/>
     </row>
     <row r="41" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
     </row>
     <row r="42" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="25"/>
     </row>
     <row r="44" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2940,7 +3020,7 @@
     <mergeCell ref="B20:B29"/>
     <mergeCell ref="B9:C9"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2957,7 +3037,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2970,7 +3050,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2985,7 +3065,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3000,7 +3080,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3015,7 +3095,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -82,38 +82,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="175">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
@@ -135,258 +135,258 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>普通部位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>精力耗尽恢复延迟时间（s）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>地面精力恢复速度（/s）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRunOutRecoverDelay</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverRate_Ground</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -399,63 +399,59 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Animation</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ActionATK_Factor</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -477,99 +473,79 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态要求</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>招式打断优先级</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionInterruptPriority</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InputOrder</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>招式指令</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -585,11 +561,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -605,47 +581,31 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SoftSpotTrigger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ani</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -661,15 +621,15 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>勾刃命中伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>勾刃收回伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -685,71 +645,67 @@
       </rPr>
       <t>adeHookedATK</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawATK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬直动画序列</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -765,87 +721,51 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>taggerAniGroup</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tatusRequired</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。比如：收回勾刃。增加一次空中跳跃次数，1次远程、进程蓄力空中攻击，3次远程、近程普通空中攻击。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -861,7 +781,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -877,15 +797,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -901,11 +821,11 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -921,11 +841,36 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>0-0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式位移</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionMovement</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。比如：收回勾刃。增加一次空中跳跃次数，1次远程、进程蓄力空中攻击，3次远程、近程普通空中攻击。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬直动画集合</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoftSpotTriggerAnim</t>
+  </si>
+  <si>
+    <t>StaggerAnimmGroup</t>
+  </si>
+  <si>
+    <t>Animmation</t>
   </si>
 </sst>
 </file>
@@ -939,6 +884,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1019,13 +971,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1059,102 +1004,105 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1524,10 +1472,10 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1485,7 @@
     <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="126.77734375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="126.77734375" style="16" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1558,17 +1506,17 @@
         <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1526,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1593,7 +1541,7 @@
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
-      <c r="B4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1606,7 +1554,7 @@
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1619,7 +1567,7 @@
     </row>
     <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
@@ -1632,11 +1580,11 @@
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1651,7 +1599,7 @@
     </row>
     <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1664,7 +1612,7 @@
     </row>
     <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1677,18 +1625,18 @@
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1696,12 +1644,12 @@
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1709,14 +1657,14 @@
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
@@ -1724,14 +1672,14 @@
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
-      <c r="B16" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>146</v>
+      <c r="B16" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="E16" s="1">
         <v>6</v>
@@ -1739,49 +1687,49 @@
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>148</v>
+      <c r="B17" s="28"/>
+      <c r="C17" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="E17" s="7">
         <v>5</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>147</v>
+      <c r="B18" s="28"/>
+      <c r="C18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>149</v>
+      <c r="B19" s="28"/>
+      <c r="C19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
@@ -1790,10 +1738,10 @@
       <c r="A22" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1803,7 +1751,7 @@
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1818,11 +1766,11 @@
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1837,7 +1785,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +1798,7 @@
     </row>
     <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1863,9 +1811,9 @@
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>66</v>
@@ -1876,12 +1824,12 @@
     </row>
     <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="1">
         <v>0.6</v>
@@ -1889,75 +1837,75 @@
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>156</v>
+      <c r="C31" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>158</v>
+      <c r="B32" s="26"/>
+      <c r="C32" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>157</v>
+      <c r="B33" s="26"/>
+      <c r="C33" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="E33" s="6"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>159</v>
+      <c r="B34" s="26"/>
+      <c r="C34" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
-      <c r="B36" s="23" t="s">
-        <v>106</v>
+      <c r="B36" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E36" s="1">
         <v>8</v>
@@ -1965,23 +1913,23 @@
     </row>
     <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="1">
         <v>8</v>
@@ -1989,23 +1937,23 @@
     </row>
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E40" s="1">
         <v>8</v>
@@ -2013,12 +1961,12 @@
     </row>
     <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E41" s="1">
         <v>8</v>
@@ -2026,22 +1974,22 @@
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="26"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
-      <c r="B44" s="23" t="s">
-        <v>117</v>
+      <c r="B44" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E44" s="1">
         <v>20</v>
@@ -2049,12 +1997,12 @@
     </row>
     <row r="45" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
-      <c r="B45" s="23"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E45" s="1">
         <v>10</v>
@@ -2062,12 +2010,12 @@
     </row>
     <row r="46" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
-      <c r="B46" s="23"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E46" s="1">
         <v>10</v>
@@ -2075,12 +2023,12 @@
     </row>
     <row r="47" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
-      <c r="B47" s="23"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1">
         <v>1.5</v>
@@ -2088,7 +2036,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
-      <c r="B48" s="23"/>
+      <c r="B48" s="26"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
@@ -2097,11 +2045,11 @@
       <c r="A50" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>67</v>
@@ -2112,9 +2060,9 @@
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
-      <c r="B51" s="23"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>68</v>
@@ -2125,7 +2073,7 @@
     </row>
     <row r="52" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
-      <c r="B52" s="23"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="1" t="s">
         <v>23</v>
       </c>
@@ -2136,14 +2084,14 @@
     </row>
     <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="26" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -2151,12 +2099,12 @@
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
-      <c r="B54" s="23"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -2164,10 +2112,10 @@
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="23"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="1" t="s">
         <v>61</v>
       </c>
@@ -2177,319 +2125,305 @@
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
-      <c r="B56" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="6"/>
+      <c r="B56" s="26" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>161</v>
-      </c>
+      <c r="B57" s="26"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:6" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>163</v>
+      <c r="B58" s="26"/>
+      <c r="C58" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F58" s="32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
-      <c r="B59" s="23"/>
-      <c r="D59" s="13"/>
+      <c r="B59" s="26"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="17"/>
+      <c r="F59" s="16"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
-      <c r="B60" s="23"/>
+      <c r="B60" s="26"/>
     </row>
     <row r="61" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="27" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="C61" s="27"/>
-      <c r="D61" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" s="9">
-        <v>1</v>
-      </c>
+      <c r="D61" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
-      <c r="B62" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="28"/>
+      <c r="B62" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="27"/>
       <c r="D62" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2">
         <v>0.5</v>
       </c>
-      <c r="F62" s="17"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
-      <c r="B63" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="23"/>
+      <c r="B63" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="26"/>
       <c r="D63" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
       </c>
-      <c r="F63" s="17"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
-      <c r="B64" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="23"/>
+      <c r="B64" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="26"/>
       <c r="D64" s="8" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="E64" s="6"/>
-      <c r="F64" s="17"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
-      <c r="B65" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="26"/>
+      <c r="D65" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="17"/>
-    </row>
-    <row r="68" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="14"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="17"/>
-    </row>
-    <row r="69" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="14"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="14"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="17"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="16"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
-      <c r="B72" s="10"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>178</v>
+      <c r="D73" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>175</v>
+      <c r="B74" s="26"/>
+      <c r="C74" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="E74" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="F75" s="17"/>
-    </row>
-    <row r="76" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B75" s="26"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="F76" s="17"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
-      <c r="B77" s="23"/>
+      <c r="B77" s="26"/>
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
-      <c r="B78" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>172</v>
+      <c r="B78" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B79" s="26"/>
+      <c r="C79" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="F80" s="17"/>
-    </row>
-    <row r="81" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B80" s="26"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="F80" s="16"/>
+    </row>
+    <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="22"/>
-      <c r="F81" s="17"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="20"/>
+      <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
-      <c r="B82" s="23"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
-      <c r="B83" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>172</v>
+      <c r="B83" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
-      <c r="B84" s="23"/>
+      <c r="B84" s="26"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
-      <c r="B85" s="23"/>
+      <c r="B85" s="26"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
-      <c r="B86" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>172</v>
+      <c r="B86" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B87" s="26"/>
+      <c r="C87" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="22"/>
-      <c r="F88" s="17"/>
-    </row>
-    <row r="89" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B88" s="26"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="20"/>
+      <c r="F88" s="16"/>
+    </row>
+    <row r="89" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="22"/>
-      <c r="F89" s="17"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="20"/>
+      <c r="F89" s="16"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
-      <c r="B90" s="23"/>
+      <c r="B90" s="26"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
@@ -2516,6 +2450,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A73:A96"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B44:B48"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A22:A49"/>
     <mergeCell ref="A50:A72"/>
@@ -2532,21 +2479,8 @@
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A73:A96"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B65:C65"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2558,10 +2492,10 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -2594,10 +2528,10 @@
       <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2607,7 +2541,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2622,7 +2556,7 @@
     </row>
     <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
-      <c r="B4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2635,9 +2569,9 @@
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
@@ -2648,11 +2582,11 @@
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2667,7 +2601,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
@@ -2680,12 +2614,12 @@
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -2702,7 +2636,7 @@
       <c r="A13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2717,7 +2651,7 @@
     </row>
     <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2730,7 +2664,7 @@
     </row>
     <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2743,7 +2677,7 @@
     </row>
     <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2756,7 +2690,7 @@
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2769,15 +2703,15 @@
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2792,7 +2726,7 @@
     </row>
     <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2805,7 +2739,7 @@
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2818,7 +2752,7 @@
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2831,7 +2765,7 @@
     </row>
     <row r="24" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2844,7 +2778,7 @@
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
@@ -2857,12 +2791,12 @@
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E26" s="2">
         <v>80</v>
@@ -2870,12 +2804,12 @@
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2">
         <v>80</v>
@@ -2883,11 +2817,11 @@
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
@@ -2896,12 +2830,12 @@
       <c r="A31" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>20</v>
@@ -2909,10 +2843,10 @@
     </row>
     <row r="32" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
@@ -2922,12 +2856,12 @@
     </row>
     <row r="33" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2935,38 +2869,32 @@
     </row>
     <row r="34" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="30"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="9">
-        <v>1</v>
-      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
-      <c r="B36" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="12">
+      <c r="B36" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="11">
         <v>0.5</v>
       </c>
     </row>
@@ -3003,8 +2931,7 @@
     <row r="53" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B35:C35"/>
+  <mergeCells count="14">
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B36:C36"/>
@@ -3020,7 +2947,7 @@
     <mergeCell ref="B20:B29"/>
     <mergeCell ref="B9:C9"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3037,7 +2964,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3050,7 +2977,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3065,7 +2992,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3080,7 +3007,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3095,7 +3022,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,38 +82,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="173">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力伤害</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
@@ -135,417 +135,409 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>普通部位</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性相关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>削刃</t>
+  </si>
+  <si>
+    <t>基础削刃</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>削刃</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否霸体</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToughnessCut</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToughnessRefreshDelay</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicATK</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击相关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力相关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性刷新滞后时长（s）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力耗尽恢复延迟时间（s）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性恢复速度（/s）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面精力恢复速度（/s）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力上限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina_Max</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaminaRunOutRecoverDelay</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器削刃</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToughnessCut_Weapon</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaminaRecoverRate_Ground</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaminaRecoverFactor_BladeWithdraw</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回勾刃提供的精力恢复</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回勾刃恢复精力系数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeleeATK</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistantATK</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战蓄力最大伤害倍数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力消耗/恢复</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina_CostRecover</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器伤害</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正系数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargedMeleeATKMultiplier_Max</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargedDistantATK_Max</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingBladeATK</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeTime_Min</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeTime_Max</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeATK_Multiplier_Curve</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器招式组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeleeATK_Factor_Normal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargedMeleeATK_Factor_Normal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistantATK_Factor_Normal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargedDistantATK_Factor_Normal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingBladeATK_Factor_Normal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistantATK_Factor_Vulnerability</t>
+  </si>
+  <si>
+    <t>ChargedDistantATK_Factor_Vulnerability</t>
+  </si>
+  <si>
+    <t>FloatingBladeATK_Factor_Vulnerability</t>
+  </si>
+  <si>
+    <t>ChargedMeleeATK_Factor_Vulnerability</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeleeATK_Factor_Vulnerability</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaminaRecover_BladeWithdraw</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsStoic</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式动画</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为树文件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BehaviorTree</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicATK</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicToughnessCut</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧性相关</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>削刃</t>
-  </si>
-  <si>
-    <t>基础削刃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>削刃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否霸体</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToughnessCut</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础伤害</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicATK</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击相关</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>精力相关</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式削刃修正系数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionToughnessCutFactor</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionAKTFactor</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发出飞刀速度曲线</t>
+  </si>
+  <si>
+    <t>收回飞刀最大速度</t>
+  </si>
+  <si>
+    <t>收回飞刀速度曲线</t>
+  </si>
+  <si>
+    <t>飞刀悬浮伤害</t>
+  </si>
+  <si>
+    <t>飞刀悬浮攻击频率</t>
+  </si>
+  <si>
+    <t>发出飞刀最大速度</t>
+  </si>
+  <si>
+    <t>BladeProjectSpeed_Max</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BladeProjectSpeed_Curve</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BladeWithdrawSpeed_Max</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BladeWithdrawSpeed_Curve</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingBladeATK_Rate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀最大悬浮时间（s）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小蓄力时长（s）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大蓄力时长（s）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式状态转换</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击额外伤害累增量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboExtraAccumulativeDMG</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大连击次数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboInterval_Max</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboDuration_Max</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>精力耗尽恢复延迟时间（s）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面精力恢复速度（/s）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>精力上限</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stamina_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaminaRunOutRecoverDelay</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器削刃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaminaRecoverRate_Ground</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeleeATK</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistantATK</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>精力消耗/恢复</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器伤害</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>修正系数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargedDistantATK_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FloatingBladeATK</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeTime_Min</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeTime_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器招式组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistantATK_Factor_Vulnerability</t>
-  </si>
-  <si>
-    <t>ChargedDistantATK_Factor_Vulnerability</t>
-  </si>
-  <si>
-    <t>FloatingBladeATK_Factor_Vulnerability</t>
-  </si>
-  <si>
-    <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsStoic</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>招式动画</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为树文件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BehaviorTree</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicATK</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicToughnessCut</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionATK_Factor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>招式伤害修正系数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>招式削刃修正系数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionAKTFactor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>发出飞刀速度曲线</t>
-  </si>
-  <si>
-    <t>收回飞刀最大速度</t>
-  </si>
-  <si>
-    <t>收回飞刀速度曲线</t>
-  </si>
-  <si>
-    <t>飞刀悬浮伤害</t>
-  </si>
-  <si>
-    <t>飞刀悬浮攻击频率</t>
-  </si>
-  <si>
-    <t>发出飞刀最大速度</t>
-  </si>
-  <si>
-    <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞刀</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>招式状态转换</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>连击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大连击次数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboInterval_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboDuration_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -561,11 +553,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -581,31 +573,31 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -621,91 +613,63 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾刃命中伤害</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾刃收回伤害</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Bl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>adeHookedATK</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BladeWithdrawATK</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -721,51 +685,51 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -781,7 +745,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -797,15 +761,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -821,11 +785,11 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -841,27 +805,23 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>0-0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>招式位移</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ActionMovement</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。比如：收回勾刃。增加一次空中跳跃次数，1次远程、进程蓄力空中攻击，3次远程、近程普通空中攻击。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画集合</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SoftSpotTriggerAnim</t>
@@ -870,20 +830,77 @@
     <t>StaggerAnimmGroup</t>
   </si>
   <si>
-    <t>Animmation</t>
+    <r>
+      <t>Ac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Animmation</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制主角进入击飞、击倒等</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式强制主角播放的动画</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InforcedAnimation</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。无论任何时刻，对于远程普攻没有次数限制，因为它已经被飞刀数量限制。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1004,106 +1021,115 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,10 +1498,10 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1506,17 +1532,17 @@
         <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,67 +1551,67 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
-        <v>43</v>
+      <c r="A3" s="33"/>
+      <c r="B3" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
-        <v>33</v>
+      <c r="A8" s="33"/>
+      <c r="B8" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1598,10 +1624,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -1611,88 +1637,88 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
-        <v>42</v>
+      <c r="A12" s="33"/>
+      <c r="B12" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28" t="s">
-        <v>134</v>
+      <c r="A16" s="33"/>
+      <c r="B16" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E17" s="7">
         <v>5</v>
@@ -1700,13 +1726,13 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
@@ -1714,13 +1740,13 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
@@ -1728,457 +1754,457 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26" t="s">
-        <v>34</v>
+      <c r="A23" s="33"/>
+      <c r="B23" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E23" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26" t="s">
-        <v>62</v>
+      <c r="A25" s="33"/>
+      <c r="B25" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" s="1">
         <v>0.6</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26" t="s">
-        <v>70</v>
+      <c r="A31" s="33"/>
+      <c r="B31" s="28" t="s">
+        <v>69</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="6"/>
       <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26" t="s">
-        <v>105</v>
+      <c r="A36" s="33"/>
+      <c r="B36" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E36" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E38" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E40" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="E41" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="28"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26" t="s">
-        <v>113</v>
+      <c r="A44" s="33"/>
+      <c r="B44" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E44" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E45" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E47" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="28"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+      <c r="A49" s="33"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E50" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E52"/>
     </row>
     <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26" t="s">
-        <v>63</v>
+      <c r="A53" s="33"/>
+      <c r="B53" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26" t="s">
+      <c r="A55" s="33"/>
+      <c r="B55" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26" t="s">
-        <v>110</v>
+      <c r="A56" s="33"/>
+      <c r="B56" s="28" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="28"/>
       <c r="D57" s="15"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="32" t="s">
-        <v>170</v>
+      <c r="F58" s="36" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="28"/>
       <c r="D59" s="12"/>
       <c r="E59" s="6"/>
       <c r="F59" s="16"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="28"/>
     </row>
     <row r="61" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="22" t="s">
-        <v>169</v>
+      <c r="A61" s="33"/>
+      <c r="B61" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="27"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="29"/>
       <c r="D62" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2">
         <v>0.5</v>
@@ -2186,13 +2212,13 @@
       <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="27" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -2200,61 +2226,61 @@
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="26"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="28"/>
       <c r="D64" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65" s="26"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="28"/>
       <c r="D65" s="15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
+      <c r="A66" s="33"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
     </row>
     <row r="67" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
+      <c r="A67" s="33"/>
       <c r="C67" s="14"/>
       <c r="D67" s="13"/>
       <c r="E67" s="17"/>
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
+      <c r="A68" s="33"/>
       <c r="C68" s="14"/>
       <c r="D68" s="13"/>
       <c r="E68" s="17"/>
       <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
+      <c r="A69" s="33"/>
       <c r="C69" s="14"/>
       <c r="D69" s="13"/>
       <c r="E69" s="17"/>
       <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
       <c r="D70" s="13"/>
@@ -2262,195 +2288,197 @@
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
+      <c r="A71" s="33"/>
       <c r="C71" s="14"/>
       <c r="D71" s="13"/>
       <c r="E71" s="17"/>
       <c r="F71" s="16"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>167</v>
+      <c r="E73" s="23" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E74" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
       <c r="F75" s="16"/>
     </row>
     <row r="76" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
       <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="28"/>
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
-      <c r="B78" s="29" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="33"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="15" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
-      <c r="B81" s="26"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="20"/>
       <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="26"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="28"/>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
-      <c r="B83" s="29" t="s">
-        <v>157</v>
+      <c r="A83" s="33"/>
+      <c r="B83" s="31" t="s">
+        <v>151</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D83" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="33"/>
+      <c r="B84" s="28"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="33"/>
+      <c r="B85" s="28"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="33"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="E83" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
-      <c r="B84" s="26"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
-      <c r="B85" s="26"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="D87" s="33" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="88" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="26"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="13"/>
       <c r="D88" s="20"/>
       <c r="F88" s="16"/>
     </row>
     <row r="89" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
-      <c r="B89" s="26"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="13"/>
       <c r="D89" s="20"/>
       <c r="F89" s="16"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" s="26"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="28"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
+      <c r="A93" s="33"/>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
+      <c r="A94" s="33"/>
       <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
+      <c r="A96" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A49"/>
+    <mergeCell ref="A50:A72"/>
     <mergeCell ref="B86:B90"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B31:B35"/>
@@ -2463,9 +2491,12 @@
     <mergeCell ref="B73:B77"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A22:A49"/>
-    <mergeCell ref="A50:A72"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B16:B20"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B30"/>
@@ -2473,14 +2504,9 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2489,13 +2515,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -2504,10 +2530,11 @@
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
     <col min="4" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="110.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2523,15 +2550,18 @@
       <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="F1" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2539,10 +2569,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
-        <v>33</v>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -2554,9 +2584,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
+    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2567,387 +2597,387 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26" t="s">
-        <v>42</v>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
+    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
+    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="28"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="28"/>
     </row>
     <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-    </row>
-    <row r="31" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+    </row>
+    <row r="29" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="C29" s="28"/>
+      <c r="D29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="1" t="s">
+    <row r="30" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="1" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="1">
+      <c r="D34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-    </row>
-    <row r="41" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-    </row>
-    <row r="43" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-    </row>
-    <row r="44" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A31:A43"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+  <mergeCells count="16">
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A30"/>
+    <mergeCell ref="A13:A28"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="B20:B27"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2964,7 +2994,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2977,7 +3007,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2992,7 +3022,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3007,7 +3037,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3022,7 +3052,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -82,38 +82,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="176">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力伤害</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
@@ -135,254 +135,234 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄力招式</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>普通部位</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>精力耗尽恢复延迟时间（s）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面精力恢复速度（/s）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaminaRunOutRecoverDelay</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaminaRecoverRate_Ground</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -395,55 +375,55 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -465,79 +445,79 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -553,11 +533,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -573,31 +553,31 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -613,63 +593,63 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -685,51 +665,51 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -745,7 +725,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -761,15 +741,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -785,11 +765,11 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -805,23 +785,23 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>0-0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>招式位移</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ActionMovement</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画集合</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>SoftSpotTriggerAnim</t>
@@ -853,40 +833,79 @@
       </rPr>
       <t>Animmation</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>强制主角进入击飞、击倒等</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>招式强制主角播放的动画</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>InforcedAnimation</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。无论任何时刻，对于远程普攻没有次数限制，因为它已经被飞刀数量限制。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力招式</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个值决定，长按的总时长达到这个时长，就进入蓄力这个动画状态；</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小蓄力技释放时刻（s）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeReleaseTime_Min</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个值决定了进入蓄力状态后，至少要经过这么多时间才能释放蓄力技能；</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定单次招式对精力的消耗值；</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何合法的状态转换都可以在本动画的取消区间内取消部分动作，立即转入下一个动画；</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>在进入蓄力状态后，经过这么多时长后会被迫释放蓄力；</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1021,112 +1040,127 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1154,13 +1188,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1495,13 +1529,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1529,20 +1563,20 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1551,962 +1585,964 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="28" t="s">
-        <v>42</v>
+      <c r="A3" s="30"/>
+      <c r="B3" s="32" t="s">
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="32"/>
+    </row>
+    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="28"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="28"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="28" t="s">
+      <c r="E24" s="1">
         <v>70</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="10" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="32"/>
+    </row>
+    <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="D29" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="7">
-        <v>5</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="7">
-        <v>3</v>
-      </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="D31" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="7">
-        <v>3</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="28"/>
-    </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="28"/>
-    </row>
-    <row r="31" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="D32" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>143</v>
-      </c>
+    <row r="33" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="28" t="s">
-        <v>103</v>
-      </c>
+      <c r="A36" s="30"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E36" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>101</v>
+      <c r="D38" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E38" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="32"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="32"/>
+    </row>
+    <row r="42" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="32"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="28"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="28"/>
-    </row>
-    <row r="44" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="28"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="28" t="s">
+      <c r="D50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="C52" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="28" t="s">
-        <v>62</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="1" t="s">
-        <v>89</v>
-      </c>
+    <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="32"/>
       <c r="D54" s="1" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="1">
         <v>0</v>
       </c>
+      <c r="F54" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="32" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="28"/>
-      <c r="D57" s="15"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="32"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>147</v>
-      </c>
+      <c r="F57" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+      <c r="B58" s="32"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="28"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="28"/>
-    </row>
-    <row r="61" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E61" s="6"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="30"/>
+      <c r="B59" s="32"/>
+    </row>
+    <row r="60" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
+      <c r="B60" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="34"/>
+      <c r="D60" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="29" t="s">
+      <c r="A62" s="30"/>
+      <c r="B62" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="32"/>
+      <c r="D62" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30"/>
+      <c r="B63" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="28"/>
+      <c r="C63" s="32"/>
       <c r="D63" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E63" s="6"/>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="15" t="s">
+      <c r="A64" s="30"/>
+      <c r="B64" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="18" t="s">
-        <v>155</v>
-      </c>
+      <c r="C64" s="32"/>
+      <c r="D64" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="17"/>
       <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="C66" s="13"/>
+      <c r="A66" s="30"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="13"/>
       <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
+      <c r="A67" s="30"/>
       <c r="C67" s="14"/>
       <c r="D67" s="13"/>
       <c r="E67" s="17"/>
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
+      <c r="A68" s="30"/>
       <c r="C68" s="14"/>
       <c r="D68" s="13"/>
       <c r="E68" s="17"/>
       <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="14"/>
       <c r="D69" s="13"/>
       <c r="E69" s="17"/>
       <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="30"/>
       <c r="C70" s="14"/>
       <c r="D70" s="13"/>
       <c r="E70" s="17"/>
       <c r="F70" s="16"/>
     </row>
-    <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="16"/>
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="30"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="9"/>
+      <c r="A72" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="30"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="30"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="30"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="30"/>
+      <c r="B76" s="32"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="30"/>
+      <c r="B77" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="D77" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="E77" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="30"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="30"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="F79" s="16"/>
+    </row>
+    <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="20"/>
+      <c r="F80" s="16"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
+      <c r="B81" s="32"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
+      <c r="B83" s="32"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="30"/>
+      <c r="B84" s="32"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="30"/>
+      <c r="B85" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="23" t="s">
+      <c r="D86" s="26" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E74" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
-      <c r="B77" s="28"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="F80" s="16"/>
-    </row>
-    <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="20"/>
-      <c r="F81" s="16"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="28"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
-      <c r="B83" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="28"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="28"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>166</v>
-      </c>
+    <row r="87" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="20"/>
+      <c r="F87" s="16"/>
     </row>
     <row r="88" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="28"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="13"/>
       <c r="D88" s="20"/>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="20"/>
-      <c r="F89" s="16"/>
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="30"/>
+      <c r="B89" s="32"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="28"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
+      <c r="A95" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A22:A49"/>
-    <mergeCell ref="A50:A72"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A73:A96"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B85"/>
     <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A47"/>
+    <mergeCell ref="A48:A71"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A72:A95"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B55:B59"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2518,10 +2554,10 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -2548,20 +2584,20 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2570,382 +2606,382 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="28" t="s">
-        <v>32</v>
+      <c r="A3" s="30"/>
+      <c r="B3" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="28" t="s">
-        <v>41</v>
+      <c r="A7" s="30"/>
+      <c r="B7" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="32"/>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="32"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="32"/>
     </row>
     <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="28" t="s">
-        <v>24</v>
+      <c r="A20" s="30"/>
+      <c r="B20" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="32"/>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="A28" s="30"/>
     </row>
     <row r="29" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="28"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="32"/>
       <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="35"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="37"/>
       <c r="D31" s="27" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="29"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="34"/>
       <c r="D32" s="25" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="29"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="34"/>
       <c r="D33" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E33" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="28" t="s">
-        <v>62</v>
+      <c r="A34" s="30"/>
+      <c r="B34" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E34" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E35" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="28"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="32"/>
       <c r="D36" s="27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="27" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
+      <c r="A37" s="30"/>
     </row>
     <row r="38" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
+      <c r="A38" s="30"/>
     </row>
     <row r="39" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="30"/>
     </row>
     <row r="40" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="30"/>
     </row>
     <row r="41" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2977,7 +3013,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B33:C33"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2994,7 +3030,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3007,7 +3043,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3022,7 +3058,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3037,7 +3073,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3052,7 +3088,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主角属性" sheetId="1" r:id="rId1"/>
     <sheet name="怪物属性" sheetId="2" r:id="rId2"/>
     <sheet name="Buff状态列表" sheetId="8" r:id="rId3"/>
     <sheet name="伤害公式" sheetId="4" r:id="rId4"/>
-    <sheet name="怪物列表" sheetId="5" r:id="rId5"/>
-    <sheet name="武器列表" sheetId="6" r:id="rId6"/>
-    <sheet name="战斗模拟" sheetId="7" r:id="rId7"/>
+    <sheet name="弱点连击" sheetId="10" r:id="rId5"/>
+    <sheet name="怪物列表" sheetId="5" r:id="rId6"/>
+    <sheet name="武器列表" sheetId="6" r:id="rId7"/>
+    <sheet name="战斗模拟" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,39 +82,101 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+基础伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+累增步长</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="186">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力伤害</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
@@ -135,234 +198,234 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>普通部位</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -375,55 +438,55 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -445,79 +508,79 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -533,11 +596,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -553,31 +616,31 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -593,63 +656,63 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -665,51 +728,51 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -725,7 +788,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -741,15 +804,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -765,11 +828,11 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -785,23 +848,23 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>0-0</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>招式位移</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ActionMovement</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画集合</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>SoftSpotTriggerAnim</t>
@@ -833,72 +896,126 @@
       </rPr>
       <t>Animmation</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>强制主角进入击飞、击倒等</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>招式强制主角播放的动画</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>InforcedAnimation</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。无论任何时刻，对于远程普攻没有次数限制，因为它已经被飞刀数量限制。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定，长按的总时长达到这个时长，就进入蓄力这个动画状态；</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力技释放时刻（s）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ChargeReleaseTime_Min</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定了进入蓄力状态后，至少要经过这么多时间才能释放蓄力技能；</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>决定单次招式对精力的消耗值；</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>任何合法的状态转换都可以在本动画的取消区间内取消部分动作，立即转入下一个动画；</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>在进入蓄力状态后，经过这么多时长后会被迫释放蓄力；</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中次数(n)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>An</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次额外伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积额外伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外伤害占单次总伤害占比</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外伤害/基础伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设BossHP</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前此伤害/基础伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1007,8 +1124,37 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,8 +1173,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1036,98 +1192,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1135,39 +1318,90 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输出" xfId="3" builtinId="21"/>
+    <cellStyle name="输入" xfId="2" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1180,6 +1414,2832 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>额外伤害占单次伤害占比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>弱点连击!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1042742896"/>
+        <c:axId val="1042743440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1042742896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042743440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1042743440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042742896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>额外伤害</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>基础伤害</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>弱点连击!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1042741808"/>
+        <c:axId val="1042744528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1042741808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042744528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1042744528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042741808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>累积伤害</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3527777777777778"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>弱点连击!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累积伤害</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>弱点连击!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>弱点连击!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>弱点连击!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累积额外伤害</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>弱点连击!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>弱点连击!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1042739632"/>
+        <c:axId val="1042737456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1042739632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042737456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1042737456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042739632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1237,6 +4297,107 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1531,11 +4692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1570,13 +4731,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1585,8 +4746,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1600,8 +4761,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="8" t="s">
         <v>50</v>
       </c>
@@ -1613,12 +4774,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1632,8 +4793,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1645,8 +4806,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1658,12 +4819,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1677,8 +4838,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1690,23 +4851,23 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="41"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="44" t="s">
         <v>123</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1720,8 +4881,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="10" t="s">
         <v>126</v>
       </c>
@@ -1734,8 +4895,8 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="10" t="s">
         <v>124</v>
       </c>
@@ -1748,8 +4909,8 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10" t="s">
         <v>127</v>
       </c>
@@ -1762,20 +4923,20 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="39"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
@@ -1784,8 +4945,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="41" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1799,12 +4960,12 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="41"/>
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1818,8 +4979,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1831,8 +4992,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1844,8 +5005,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="1" t="s">
         <v>91</v>
       </c>
@@ -1857,8 +5018,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
@@ -1870,12 +5031,12 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="41"/>
     </row>
     <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="41" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -1887,8 +5048,8 @@
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="13" t="s">
         <v>134</v>
       </c>
@@ -1899,8 +5060,8 @@
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="13" t="s">
         <v>135</v>
       </c>
@@ -1911,8 +5072,8 @@
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="13" t="s">
         <v>136</v>
       </c>
@@ -1923,16 +5084,16 @@
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="6"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="32" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="41" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1946,8 +5107,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="1" t="s">
         <v>88</v>
       </c>
@@ -1957,8 +5118,8 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="1" t="s">
         <v>89</v>
       </c>
@@ -1970,8 +5131,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="1" t="s">
         <v>90</v>
       </c>
@@ -1981,8 +5142,8 @@
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
@@ -1994,8 +5155,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="8" t="s">
         <v>120</v>
       </c>
@@ -2007,79 +5168,36 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="41"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="41"/>
     </row>
     <row r="42" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="1">
-        <v>20</v>
-      </c>
+      <c r="A42" s="39"/>
     </row>
     <row r="43" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="1">
-        <v>10</v>
-      </c>
+      <c r="A43" s="39"/>
     </row>
     <row r="44" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="1">
-        <v>10</v>
-      </c>
+      <c r="A44" s="39"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="A45" s="39"/>
     </row>
     <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="39"/>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="39"/>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="45" t="s">
         <v>168</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2091,29 +5209,29 @@
       <c r="E48" s="1">
         <v>0.2</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="31" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="38" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="30" t="s">
         <v>171</v>
       </c>
       <c r="E49" s="28">
         <v>0.5</v>
       </c>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="31" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="1" t="s">
         <v>102</v>
       </c>
@@ -2123,13 +5241,13 @@
       <c r="E50" s="1">
         <v>2</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="1" t="s">
         <v>22</v>
       </c>
@@ -2140,8 +5258,8 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="32" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="41" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2155,8 +5273,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="32"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="1" t="s">
         <v>84</v>
       </c>
@@ -2168,36 +5286,36 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="32" t="s">
+      <c r="A54" s="39"/>
+      <c r="B54" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="32"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
       </c>
-      <c r="F54" s="41" t="s">
+      <c r="F54" s="32" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="32" t="s">
+      <c r="A55" s="39"/>
+      <c r="B55" s="41" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="32"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="41"/>
       <c r="D56" s="15"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="15" t="s">
         <v>141</v>
       </c>
@@ -2210,33 +5328,33 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="41"/>
       <c r="D58" s="12"/>
       <c r="E58" s="6"/>
       <c r="F58" s="16"/>
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="32"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="41"/>
     </row>
     <row r="60" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="39"/>
+      <c r="B60" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="21" t="s">
         <v>158</v>
       </c>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="34" t="s">
+      <c r="A61" s="39"/>
+      <c r="B61" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="8" t="s">
         <v>115</v>
       </c>
@@ -2246,11 +5364,11 @@
       <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="34" t="s">
+      <c r="A62" s="39"/>
+      <c r="B62" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="32"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="8" t="s">
         <v>118</v>
       </c>
@@ -2260,11 +5378,11 @@
       <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="34" t="s">
+      <c r="A63" s="39"/>
+      <c r="B63" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="32"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="8" t="s">
         <v>160</v>
       </c>
@@ -2272,51 +5390,51 @@
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="33" t="s">
+      <c r="A64" s="39"/>
+      <c r="B64" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="32"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="15" t="s">
         <v>149</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F64" s="41" t="s">
+      <c r="F64" s="32" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
+      <c r="A65" s="39"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
+      <c r="A66" s="39"/>
       <c r="C66" s="14"/>
       <c r="D66" s="13"/>
       <c r="E66" s="17"/>
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
+      <c r="A67" s="39"/>
       <c r="C67" s="14"/>
       <c r="D67" s="13"/>
       <c r="E67" s="17"/>
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
+      <c r="A68" s="39"/>
       <c r="C68" s="14"/>
       <c r="D68" s="13"/>
       <c r="E68" s="17"/>
       <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
       <c r="D69" s="13"/>
@@ -2324,21 +5442,21 @@
       <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
+      <c r="A70" s="39"/>
       <c r="C70" s="14"/>
       <c r="D70" s="13"/>
       <c r="E70" s="17"/>
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="9"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="40" t="s">
         <v>144</v>
       </c>
       <c r="C72" s="22" t="s">
@@ -2352,8 +5470,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="32"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="15" t="s">
         <v>152</v>
       </c>
@@ -2365,26 +5483,26 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="F74" s="16"/>
     </row>
     <row r="75" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
       <c r="F75" s="16"/>
     </row>
     <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="41"/>
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="31" t="s">
+      <c r="A77" s="39"/>
+      <c r="B77" s="40" t="s">
         <v>145</v>
       </c>
       <c r="C77" s="15" t="s">
@@ -2398,32 +5516,32 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
       <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="20"/>
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="32"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="41"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="31" t="s">
+      <c r="A82" s="39"/>
+      <c r="B82" s="40" t="s">
         <v>146</v>
       </c>
       <c r="C82" s="15" t="s">
@@ -2437,16 +5555,16 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="41"/>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
-      <c r="B84" s="32"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="41"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="31" t="s">
+      <c r="A85" s="39"/>
+      <c r="B85" s="40" t="s">
         <v>147</v>
       </c>
       <c r="C85" s="15" t="s">
@@ -2460,8 +5578,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="32"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="41"/>
       <c r="C86" s="26" t="s">
         <v>159</v>
       </c>
@@ -2470,48 +5588,48 @@
       </c>
     </row>
     <row r="87" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="41"/>
       <c r="C87" s="13"/>
       <c r="D87" s="20"/>
       <c r="F87" s="16"/>
     </row>
     <row r="88" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="13"/>
       <c r="D88" s="20"/>
       <c r="F88" s="16"/>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="41"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
+      <c r="A95" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B5"/>
@@ -2539,10 +5657,9 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B72:B76"/>
     <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B42:B46"/>
     <mergeCell ref="B55:B59"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2551,13 +5668,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -2591,13 +5708,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2606,8 +5723,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2621,8 +5738,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2634,8 +5751,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2647,12 +5764,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2666,8 +5783,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
@@ -2679,30 +5796,30 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="39"/>
     </row>
     <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2716,8 +5833,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2729,8 +5846,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2742,8 +5859,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2755,8 +5872,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2768,16 +5885,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="41"/>
     </row>
     <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="41" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2791,8 +5908,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2804,8 +5921,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2817,8 +5934,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2830,8 +5947,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2843,8 +5960,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
@@ -2855,165 +5972,255 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="32"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-    </row>
-    <row r="29" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+    <row r="26" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="41"/>
+    </row>
+    <row r="27" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+    </row>
+    <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B41" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="8" t="s">
+      <c r="C41" s="41"/>
+      <c r="D41" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="32" t="s">
+    <row r="42" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="1" t="s">
+      <c r="C42" s="41"/>
+      <c r="D42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="37" t="s">
+    <row r="43" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="27" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="34" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="25" t="s">
+      <c r="C44" s="43"/>
+      <c r="D44" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="34" t="s">
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="12" t="s">
+      <c r="C45" s="43"/>
+      <c r="D45" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E45" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="32" t="s">
+    <row r="46" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C46" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D46" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E46" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="24" t="s">
+    <row r="47" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D47" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E47" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="36" t="s">
+    <row r="48" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="27" t="s">
+      <c r="C48" s="41"/>
+      <c r="D48" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="27" t="s">
+      <c r="E48" s="6"/>
+      <c r="F48" s="27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-    </row>
-    <row r="40" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+    </row>
+    <row r="50" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+    </row>
+    <row r="51" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+    </row>
+    <row r="52" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+    </row>
+    <row r="53" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+  <mergeCells count="17">
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A28"/>
+    <mergeCell ref="A13:A40"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B20:B27"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3030,7 +6237,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3043,12 +6250,433 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
+        <v>30</v>
+      </c>
+      <c r="C2" s="48">
+        <v>5</v>
+      </c>
+      <c r="D2" s="37">
+        <f>(A2-1)*$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="37">
+        <f>$C$2/2*(A2*A2-A2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="37">
+        <f>B2</f>
+        <v>30</v>
+      </c>
+      <c r="G2" s="38">
+        <f>D2/B2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="38">
+        <f>D2/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="38">
+        <f>B2/$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37">
+        <f>$B$2+A2*$C$2</f>
+        <v>35</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="37">
+        <f t="shared" ref="D3:D11" si="0">(A3-1)*$C$2</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="37">
+        <f>$C$2/2*(A3*A3-A3)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="37">
+        <f>F2+B3</f>
+        <v>65</v>
+      </c>
+      <c r="G3" s="38">
+        <f t="shared" ref="G3:G11" si="1">D3/B3</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H3" s="38">
+        <f t="shared" ref="H3:H11" si="2">D3/$B$2</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I3" s="38">
+        <f t="shared" ref="I3:I11" si="3">B3/$B$2</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37">
+        <f t="shared" ref="B4:B11" si="4">$B$2+A3*$C$2</f>
+        <v>40</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="37">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="37">
+        <f t="shared" ref="E4:E11" si="5">$C$2/2*(A4*A4-A4)</f>
+        <v>15</v>
+      </c>
+      <c r="F4" s="37">
+        <f t="shared" ref="F4:F11" si="6">F3+B4</f>
+        <v>105</v>
+      </c>
+      <c r="G4" s="38">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="38">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I4" s="38">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="37">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="37">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="G5" s="38">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="38">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="38">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="37">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E6" s="37">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G6" s="38">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="38">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="37">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="37">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="G7" s="38">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="H7" s="38">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I7" s="38">
+        <f t="shared" si="3"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="37">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E8" s="37">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="G8" s="38">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="38">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E9" s="37">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" si="6"/>
+        <v>380</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" si="1"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="H9" s="38">
+        <f t="shared" si="2"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="I9" s="38">
+        <f t="shared" si="3"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10" s="37">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="37">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="37">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="G10" s="38">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H10" s="38">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="I10" s="38">
+        <f t="shared" si="3"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <v>10</v>
+      </c>
+      <c r="B11" s="37">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="37">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E11" s="37">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="38">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3058,12 +6686,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3073,12 +6701,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3088,7 +6716,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="537" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主角属性" sheetId="1" r:id="rId1"/>
-    <sheet name="怪物属性" sheetId="2" r:id="rId2"/>
-    <sheet name="Buff状态列表" sheetId="8" r:id="rId3"/>
-    <sheet name="伤害公式" sheetId="4" r:id="rId4"/>
+    <sheet name="伤害公式" sheetId="4" r:id="rId2"/>
+    <sheet name="怪物属性" sheetId="2" r:id="rId3"/>
+    <sheet name="Buff状态列表" sheetId="8" r:id="rId4"/>
     <sheet name="弱点连击" sheetId="10" r:id="rId5"/>
     <sheet name="怪物列表" sheetId="5" r:id="rId6"/>
     <sheet name="武器列表" sheetId="6" r:id="rId7"/>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="216">
   <si>
     <t>类别1</t>
     <phoneticPr fontId="15" type="noConversion"/>
@@ -179,12 +179,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>近战普攻伤害</t>
-  </si>
-  <si>
-    <t>远程普攻伤害</t>
-  </si>
-  <si>
     <t>近战普攻修正系数</t>
   </si>
   <si>
@@ -233,18 +227,10 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>弱点</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物受击修正</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>普通部位</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>韧性</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -276,10 +262,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>削刃</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>是否霸体</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -292,10 +274,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>基础伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>BasicATK</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -344,10 +322,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>MeleeATK</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>DistantATK</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -380,10 +354,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>FloatingBladeATK</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>ChargeTime_Min</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -434,9 +404,6 @@
     <t>ChargedDistantATK_Factor_Vulnerability</t>
   </si>
   <si>
-    <t>FloatingBladeATK_Factor_Vulnerability</t>
-  </si>
-  <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -465,26 +432,10 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>BasicATK</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicToughnessCut</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>招式伤害修正系数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>招式削刃修正系数</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionAKTFactor</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -498,12 +449,6 @@
     <t>收回飞刀速度曲线</t>
   </si>
   <si>
-    <t>飞刀悬浮伤害</t>
-  </si>
-  <si>
-    <t>飞刀悬浮攻击频率</t>
-  </si>
-  <si>
     <t>发出飞刀最大速度</t>
   </si>
   <si>
@@ -544,14 +489,6 @@
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboExtraAccumulativeDMG</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -988,6 +925,221 @@
   </si>
   <si>
     <t>当前此伤害/基础伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物对主角造成伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物对主角造成削刃</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物对主角</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角对怪物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战普攻伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeleeATK</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式伤害修正系数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通部位受击招式修正系数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点部位受击招式修正系数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击额外伤害累增量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboExtraAccumulativeDMG</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>可触发弱点连击的招式</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀悬浮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀悬浮攻击频率</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀悬浮伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀刃悬浮修正系数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角_飞刀悬浮伤害FloatingBladeATK  *  怪物_弱点刀刃悬浮修正系数FloatingBladeATK_Factor_Vulnerability</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicToughnessCut</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式削刃修正系数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionToughnessCutFactor</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>(主角_基础削刃BasicToughnessCut+主角_武器削刃)  *  主角_招式削刃修正系数ActionToughnessCutFactor</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀悬浮削刃</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规招式</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀悬浮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingBlade_ToughnessCut</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角_飞刀悬浮削刃FloatingBlade_ToughnessCut</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingBladeATK_Factor_Vulnerability</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程普攻伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingBladeATK</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>（主角_基础伤害BasicATK+主角_近战普攻伤害MeleeATK）*  招式伤害修正系数ActionAKTFactor  *  怪物_受击部位招式修正系数Factor
++弱点连击累计次数n  *  连击额外伤害累增量ComboExtraAccumulativeDMG</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀刃插中、拔出弱点修正系数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingBladeATK_Factor_StabOrExtractOut</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角_远程普攻伤害FloatingBladeATK  *  刀刃插中、拔出弱点修正系数FloatingBladeATK_Factor_StabOrExtractOut</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀插中、拔出弱点</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主角对怪物造成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主角对怪物造成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>削刃</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别①</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别②</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicATK</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionAKTFactor</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物_基础伤害BasicATK  *  怪物_招式伤害修正系数ActionAKTFactor</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionToughnessCutFactor</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物_基础削刃ToughnessCut  *  怪物_招式削刃修正系数ActionToughnessCutFactor</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1184,7 +1336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1237,6 +1389,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1250,7 +1428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1366,25 +1544,28 @@
     <xf numFmtId="9" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1394,6 +1575,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1456,7 +1664,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1557,11 +1764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1042742896"/>
-        <c:axId val="1042743440"/>
+        <c:axId val="2118891296"/>
+        <c:axId val="2118892384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1042742896"/>
+        <c:axId val="2118891296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1811,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042743440"/>
+        <c:crossAx val="2118892384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1612,7 +1819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1042743440"/>
+        <c:axId val="2118892384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1870,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042742896"/>
+        <c:crossAx val="2118891296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1760,7 +1967,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1872,11 +2078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1042741808"/>
-        <c:axId val="1042744528"/>
+        <c:axId val="2118884224"/>
+        <c:axId val="2118894016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1042741808"/>
+        <c:axId val="2118884224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,12 +2138,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042744528"/>
+        <c:crossAx val="2118894016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1042744528"/>
+        <c:axId val="2118894016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +2200,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042741808"/>
+        <c:crossAx val="2118884224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2370,11 +2576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1042739632"/>
-        <c:axId val="1042737456"/>
+        <c:axId val="2118886944"/>
+        <c:axId val="2118895648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1042739632"/>
+        <c:axId val="2118886944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,12 +2637,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042737456"/>
+        <c:crossAx val="2118895648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1042737456"/>
+        <c:axId val="2118895648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,7 +2699,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042739632"/>
+        <c:crossAx val="2118886944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2507,7 +2713,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4248,13 +4453,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4690,13 +4895,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42:E46"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -4710,7 +4915,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4724,170 +4929,170 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="41" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="41"/>
       <c r="C4" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="41"/>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="41"/>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>34</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>189</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="41"/>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>82</v>
+      <c r="C11" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="41"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="44" t="s">
-        <v>123</v>
+      <c r="A14" s="44"/>
+      <c r="B14" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="10" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E15" s="7">
         <v>5</v>
@@ -4895,13 +5100,13 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="10" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E16" s="7">
         <v>3</v>
@@ -4909,13 +5114,13 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="10" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
@@ -4923,741 +5128,755 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="44"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>8</v>
+      <c r="B20" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="C20" s="41"/>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
+      <c r="D20" s="50" t="s">
+        <v>176</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="E21" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="41"/>
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="41" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
+      <c r="C24" s="50" t="s">
+        <v>199</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="41"/>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
+      <c r="C26" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>200</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:6" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
       <c r="B27" s="41"/>
-      <c r="C27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C27" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="39">
+        <v>10</v>
+      </c>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="41"/>
-    </row>
-    <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="41"/>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="41"/>
+    </row>
+    <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="C30" s="13" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="41"/>
       <c r="C31" s="13" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="41"/>
       <c r="C32" s="13" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+    <row r="33" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
       <c r="B33" s="41"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="E33" s="6"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="41"/>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="1">
-        <v>8</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="41"/>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="41"/>
       <c r="C38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="1">
-        <v>8</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="41"/>
-      <c r="C39" s="8" t="s">
-        <v>120</v>
+      <c r="C39" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E39" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+    <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
       <c r="B40" s="41"/>
+      <c r="C40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="41"/>
     </row>
-    <row r="42" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="41"/>
     </row>
     <row r="43" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="44"/>
     </row>
     <row r="44" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="44"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A45" s="44"/>
+    </row>
+    <row r="46" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="44"/>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="A48" s="44"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="1">
         <v>0.2</v>
       </c>
-      <c r="F48" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E49" s="28">
+      <c r="F49" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="28">
         <v>0.5</v>
       </c>
-      <c r="F49" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2</v>
-      </c>
       <c r="F50" s="31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
       <c r="B51" s="41"/>
       <c r="C51" s="1" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="41" t="s">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>191</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="1" t="s">
-        <v>55</v>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="E54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+      <c r="B55" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="41"/>
+      <c r="D55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="1">
         <v>0</v>
       </c>
-      <c r="F54" s="32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="41" t="s">
-        <v>103</v>
+      <c r="F55" s="32" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="41"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
       <c r="B57" s="41"/>
-      <c r="C57" s="15" t="s">
+      <c r="D57" s="15"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
+      <c r="B59" s="41"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
+      <c r="B60" s="41"/>
+    </row>
+    <row r="61" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="41"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="41"/>
-    </row>
-    <row r="60" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="B61" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
+      <c r="B62" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="40"/>
+      <c r="D62" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="2">
         <v>0.5</v>
       </c>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
       <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-      <c r="B63" s="43" t="s">
-        <v>119</v>
+      <c r="A63" s="44"/>
+      <c r="B63" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="C63" s="41"/>
       <c r="D63" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="42" t="s">
-        <v>154</v>
+      <c r="A64" s="44"/>
+      <c r="B64" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="C64" s="41"/>
-      <c r="D64" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F64" s="32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
+      <c r="D64" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
+      <c r="B65" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="41"/>
+      <c r="D65" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="66" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="C66" s="14"/>
+      <c r="A66" s="44"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="17"/>
-      <c r="F66" s="16"/>
+      <c r="F66" s="17"/>
     </row>
     <row r="67" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+      <c r="A67" s="44"/>
       <c r="C67" s="14"/>
       <c r="D67" s="13"/>
       <c r="E67" s="17"/>
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="44"/>
       <c r="C68" s="14"/>
       <c r="D68" s="13"/>
       <c r="E68" s="17"/>
       <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="44"/>
       <c r="C69" s="14"/>
       <c r="D69" s="13"/>
       <c r="E69" s="17"/>
       <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="14"/>
       <c r="D70" s="13"/>
       <c r="E70" s="17"/>
       <c r="F70" s="16"/>
     </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
-      <c r="B71" s="9"/>
+    <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="16"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="40" t="s">
+      <c r="A72" s="44"/>
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="44"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
+      <c r="B77" s="41"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="44"/>
+      <c r="B78" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="44"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="44"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="F80" s="16"/>
+    </row>
+    <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="44"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="20"/>
+      <c r="F81" s="16"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="44"/>
+      <c r="B82" s="41"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="44"/>
+      <c r="B83" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="44"/>
+      <c r="B84" s="41"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="44"/>
+      <c r="B85" s="41"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="44"/>
+      <c r="B86" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="44"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="F74" s="16"/>
-    </row>
-    <row r="75" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="41"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
-      <c r="B77" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="F79" s="16"/>
-    </row>
-    <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="20"/>
-      <c r="F80" s="16"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
-      <c r="B81" s="41"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
-      <c r="B82" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
-      <c r="B83" s="41"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
-      <c r="B84" s="41"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
-      <c r="B85" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="20"/>
-      <c r="F87" s="16"/>
     </row>
     <row r="88" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
+      <c r="A88" s="44"/>
       <c r="B88" s="41"/>
       <c r="C88" s="13"/>
       <c r="D88" s="20"/>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
+    <row r="89" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="44"/>
       <c r="B89" s="41"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="20"/>
+      <c r="F89" s="16"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
-      <c r="B90" s="4"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="41"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
+      <c r="A91" s="44"/>
       <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
+      <c r="A92" s="44"/>
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
+      <c r="A93" s="44"/>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
+      <c r="A94" s="44"/>
       <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A48"/>
+    <mergeCell ref="A49:A72"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="A73:A96"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B85"/>
     <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B49:B52"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B23:B29"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B35:B42"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A47"/>
-    <mergeCell ref="A48:A71"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A72:A95"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B55:B59"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5667,14 +5886,143 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="50" customWidth="1"/>
+    <col min="2" max="3" width="26.77734375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="124" style="52" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -5701,524 +6049,549 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="41"/>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="41"/>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
+      <c r="C7" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="41"/>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
+      <c r="C8" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>211</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="41" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="44"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="44"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="44"/>
     </row>
     <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>25</v>
+      <c r="A13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>178</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="41"/>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="41"/>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="41"/>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="41"/>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="41"/>
     </row>
     <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="41" t="s">
-        <v>23</v>
+      <c r="A20" s="44"/>
+      <c r="B20" s="51" t="s">
+        <v>179</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="41"/>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="41"/>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="41"/>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>74</v>
+      <c r="C24" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>198</v>
       </c>
       <c r="E24" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="41"/>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
       <c r="B26" s="41"/>
-    </row>
-    <row r="27" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C26" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="41"/>
+    </row>
+    <row r="28" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="41"/>
+    </row>
+    <row r="29" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="41"/>
+    </row>
+    <row r="31" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="1">
+    <row r="32" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="1">
+    <row r="33" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="1">
+    <row r="34" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+    <row r="35" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:6" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+    <row r="37" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+    <row r="38" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+    <row r="39" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-    </row>
-    <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="1">
+    <row r="40" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+    </row>
+    <row r="45" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="11">
+    <row r="47" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+      <c r="B49" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="24">
+    <row r="50" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="24">
+    <row r="51" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-    </row>
-    <row r="50" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-    </row>
-    <row r="51" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-    </row>
-    <row r="52" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-    </row>
-    <row r="53" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="41"/>
+      <c r="D52" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+    </row>
+    <row r="54" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+    </row>
+    <row r="55" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A40"/>
+    <mergeCell ref="A13:A44"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6227,26 +6600,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -6270,34 +6630,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="K1" s="35">
         <v>1000</v>
@@ -6310,7 +6670,7 @@
       <c r="B2" s="35">
         <v>30</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="49">
         <v>5</v>
       </c>
       <c r="D2" s="37">
@@ -6348,7 +6708,7 @@
         <f>$B$2+A2*$C$2</f>
         <v>35</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="37">
         <f t="shared" ref="D3:D11" si="0">(A3-1)*$C$2</f>
         <v>5</v>
@@ -6384,7 +6744,7 @@
         <f t="shared" ref="B4:B11" si="4">$B$2+A3*$C$2</f>
         <v>40</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6420,7 +6780,7 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="37">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6456,7 +6816,7 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="37">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6492,7 +6852,7 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="37">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6528,7 +6888,7 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="37">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6564,7 +6924,7 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6600,7 +6960,7 @@
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="37">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6636,7 +6996,7 @@
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="37">
         <f t="shared" si="0"/>
         <v>45</v>

--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="537" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="537"/>
   </bookViews>
   <sheets>
     <sheet name="主角属性" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,38 +145,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="227">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻修正系数</t>
@@ -192,210 +192,206 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistantATK</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -405,39 +401,39 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -453,71 +449,71 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -533,11 +529,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -553,31 +549,31 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -593,63 +589,63 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -665,51 +661,51 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -725,7 +721,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -741,15 +737,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -765,11 +761,11 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -785,23 +781,23 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0-0</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>招式位移</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ActionMovement</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画集合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>SoftSpotTriggerAnim</t>
@@ -833,248 +829,244 @@
       </rPr>
       <t>Animmation</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>强制主角进入击飞、击倒等</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>招式强制主角播放的动画</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>InforcedAnimation</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。无论任何时刻，对于远程普攻没有次数限制，因为它已经被飞刀数量限制。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定，长按的总时长达到这个时长，就进入蓄力这个动画状态；</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力技释放时刻（s）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ChargeReleaseTime_Min</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定了进入蓄力状态后，至少要经过这么多时间才能释放蓄力技能；</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>决定单次招式对精力的消耗值；</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>任何合法的状态转换都可以在本动画的取消区间内取消部分动作，立即转入下一个动画；</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>在进入蓄力状态后，经过这么多时长后会被迫释放蓄力；</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>命中次数(n)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>An</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>单次额外伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>累积额外伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>累积伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害占单次总伤害占比</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害/基础伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>预设BossHP</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当前此伤害/基础伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>公式</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成削刃</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>主角对怪物</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>普通部位受击招式修正系数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>弱点部位受击招式修正系数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>子类</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>可触发弱点连击的招式</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮攻击频率</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮伤害FloatingBladeATK  *  怪物_弱点刀刃悬浮修正系数FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>(主角_基础削刃BasicToughnessCut+主角_武器削刃)  *  主角_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮削刃</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>常规招式</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮削刃FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>远程普攻伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>（主角_基础伤害BasicATK+主角_近战普攻伤害MeleeATK）*  招式伤害修正系数ActionAKTFactor  *  怪物_受击部位招式修正系数Factor
 +弱点连击累计次数n  *  连击额外伤害累增量ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>刀刃插中、拔出弱点修正系数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_StabOrExtractOut</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角_远程普攻伤害FloatingBladeATK  *  刀刃插中、拔出弱点修正系数FloatingBladeATK_Factor_StabOrExtractOut</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>飞刀插中、拔出弱点</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1091,7 +1083,7 @@
       </rPr>
       <t>伤害</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1108,52 +1100,145 @@
       </rPr>
       <t>削刃</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>类别①</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>类别②</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础伤害BasicATK  *  怪物_招式伤害修正系数ActionAKTFactor</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础削刃ToughnessCut  *  怪物_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistantATK</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主角_远程普攻伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DistantATK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  *  刀刃插中、拔出弱点修正系数FloatingBladeATK_Factor_StabOrExtractOut</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性相关</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性恢复滞后(s)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToughnessRefreshDelay</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToughnessRecoverDelay</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toughness</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性安全值</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toughness_Safe</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应硬直动画</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>taggerAnimation_Player</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果本招式触发硬直，则会造成受击放播放哪一种硬直动画，这是指定值</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaggerAnimation_Monster</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1306,7 +1391,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1333,6 +1418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1418,19 +1509,37 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1439,13 +1548,124 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1454,154 +1674,46 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1764,11 +1876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2118891296"/>
-        <c:axId val="2118892384"/>
+        <c:axId val="-1249068336"/>
+        <c:axId val="-1249067792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2118891296"/>
+        <c:axId val="-1249068336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1923,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118892384"/>
+        <c:crossAx val="-1249067792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1819,7 +1931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118892384"/>
+        <c:axId val="-1249067792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +1982,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118891296"/>
+        <c:crossAx val="-1249068336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2078,11 +2190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2118884224"/>
-        <c:axId val="2118894016"/>
+        <c:axId val="-1249067248"/>
+        <c:axId val="-1249066704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2118884224"/>
+        <c:axId val="-1249067248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,12 +2250,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118894016"/>
+        <c:crossAx val="-1249066704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118894016"/>
+        <c:axId val="-1249066704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2312,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118884224"/>
+        <c:crossAx val="-1249067248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2576,11 +2688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2118886944"/>
-        <c:axId val="2118895648"/>
+        <c:axId val="-1249065072"/>
+        <c:axId val="-1249063984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2118886944"/>
+        <c:axId val="-1249065072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,12 +2749,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118895648"/>
+        <c:crossAx val="-1249063984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118895648"/>
+        <c:axId val="-1249063984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2699,7 +2811,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118886944"/>
+        <c:crossAx val="-1249065072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4453,13 +4565,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4895,13 +5007,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -4932,17 +5044,17 @@
         <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4951,8 +5063,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4966,8 +5078,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
@@ -4979,12 +5091,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4998,8 +5110,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
@@ -5010,875 +5122,918 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:6" s="40" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="41"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="41" t="s">
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="48"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D12" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="50" t="s">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="41"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="41" t="s">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="48"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="7">
-        <v>5</v>
-      </c>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="42"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="C16" s="10" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="7">
         <v>3</v>
       </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="41"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B22" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="E22" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="41" t="s">
+    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C23" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D23" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E23" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="41"/>
-    </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1" t="s">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="48"/>
+    </row>
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="50" t="s">
+      <c r="E27" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="E28" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="39">
+    <row r="29" spans="1:6" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="39">
         <v>10</v>
       </c>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="41"/>
-    </row>
-    <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="13" t="s">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" s="48"/>
+    </row>
+    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E37" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E39" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="8" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="41"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="41"/>
-    </row>
-    <row r="43" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-    </row>
-    <row r="44" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+    <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
+      <c r="B43" s="48"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="48"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="46"/>
     </row>
     <row r="46" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A46" s="46"/>
+    </row>
+    <row r="47" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+    </row>
+    <row r="48" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="46"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B51" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F51" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="52" spans="1:6" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="46"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="28">
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
+      <c r="B55" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="46"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="46"/>
+      <c r="B57" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="46"/>
+      <c r="B58" s="48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="46"/>
+      <c r="B59" s="48"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="46"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="46"/>
+      <c r="B61" s="48"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="B62" s="48"/>
+    </row>
+    <row r="63" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="46"/>
+      <c r="B63" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="50"/>
+      <c r="D63" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
+      <c r="B64" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="50"/>
+      <c r="D64" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="2">
         <v>0.5</v>
       </c>
-      <c r="F50" s="31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="46"/>
+      <c r="B65" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="48"/>
+      <c r="D65" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="46"/>
+      <c r="B66" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="48"/>
+      <c r="D66" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="46"/>
+      <c r="B67" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="D67" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="40" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="46"/>
+      <c r="B68" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="64"/>
+      <c r="D68" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="41"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="41"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="41"/>
-    </row>
-    <row r="61" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="41"/>
-      <c r="D64" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="41"/>
-      <c r="D65" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="16"/>
+      <c r="F68" s="60" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="69" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="C69" s="14"/>
+      <c r="A69" s="46"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="16"/>
+      <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="46"/>
       <c r="C70" s="14"/>
       <c r="D70" s="13"/>
       <c r="E70" s="17"/>
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
+      <c r="A71" s="46"/>
       <c r="C71" s="14"/>
       <c r="D71" s="13"/>
       <c r="E71" s="17"/>
       <c r="F71" s="16"/>
     </row>
-    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
-      <c r="B72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="44" t="s">
+    <row r="72" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="46"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="46"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="16"/>
+    </row>
+    <row r="74" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="46"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="46"/>
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="C76" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="46"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="46"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="F78" s="16"/>
+    </row>
+    <row r="79" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="46"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="F79" s="16"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="46"/>
+      <c r="B80" s="48"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="46"/>
+      <c r="B81" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C81" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="46"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="46"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="F83" s="16"/>
+    </row>
+    <row r="84" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="46"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="20"/>
+      <c r="F84" s="16"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="46"/>
+      <c r="B85" s="48"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="46"/>
+      <c r="B86" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="E86" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E74" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
-      <c r="B77" s="41"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="15" t="s">
+    </row>
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="46"/>
+      <c r="B87" s="48"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="46"/>
+      <c r="B88" s="48"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="46"/>
+      <c r="B89" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="E89" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E78" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="F80" s="16"/>
-    </row>
-    <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="20"/>
-      <c r="F81" s="16"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
-      <c r="B82" s="41"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
-      <c r="B84" s="41"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
-      <c r="B85" s="41"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
-      <c r="B86" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="20"/>
-      <c r="F88" s="16"/>
-    </row>
-    <row r="89" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="20"/>
-      <c r="F89" s="16"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
-      <c r="B90" s="41"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="44"/>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
-      <c r="B92" s="4"/>
+    </row>
+    <row r="90" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="46"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="46"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="20"/>
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="46"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="20"/>
+      <c r="F92" s="16"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
-      <c r="B93" s="4"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="48"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="44"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="44"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="46"/>
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A98" s="46"/>
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A48"/>
-    <mergeCell ref="A49:A72"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A73:A96"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B62:C62"/>
+  <mergeCells count="29">
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A50"/>
+    <mergeCell ref="A51:A75"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A76:A99"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B64:C64"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5889,115 +6044,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="50" customWidth="1"/>
-    <col min="2" max="3" width="26.77734375" style="52" customWidth="1"/>
-    <col min="4" max="4" width="124" style="52" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="52"/>
+    <col min="1" max="1" width="10.5546875" style="41" customWidth="1"/>
+    <col min="2" max="3" width="26.77734375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="124" style="42" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>169</v>
+      <c r="A1" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="55" t="s">
-        <v>213</v>
+        <v>172</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="44" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="55" t="s">
-        <v>215</v>
+      <c r="B3" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="44" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
       <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>204</v>
+      <c r="C5" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
-      <c r="C6" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>188</v>
+      <c r="C6" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
       <c r="B7" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>192</v>
+        <v>205</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
-      <c r="C8" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>197</v>
+      <c r="C8" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6008,7 +6163,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6016,13 +6171,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -6052,17 +6207,17 @@
         <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
@@ -6071,23 +6226,23 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="41" t="s">
-        <v>27</v>
+      <c r="A3" s="46"/>
+      <c r="B3" s="62" t="s">
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
+      <c r="D3" s="60" t="s">
+        <v>220</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
@@ -6099,167 +6254,176 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
+      <c r="A5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>219</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="41"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="1">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="41" t="s">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="46"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-    </row>
-    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="41"/>
+    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="41"/>
-    </row>
-    <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="48"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
+    </row>
+    <row r="21" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>66</v>
@@ -6269,267 +6433,267 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="41"/>
+    <row r="23" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>198</v>
+    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E24" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="1" t="s">
+    <row r="25" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="50" t="s">
+    <row r="27" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" s="39">
+      <c r="E27" s="39">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="41"/>
-    </row>
     <row r="28" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="48"/>
     </row>
     <row r="29" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="41"/>
-    </row>
-    <row r="30" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="41"/>
-    </row>
-    <row r="31" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="41" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="48"/>
+    </row>
+    <row r="30" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="48"/>
+    </row>
+    <row r="31" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" s="48"/>
+    </row>
+    <row r="32" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>92</v>
+      <c r="D33" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="8" t="s">
-        <v>95</v>
+    <row r="34" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
     <row r="36" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+    <row r="42" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-    </row>
-    <row r="45" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+    </row>
+    <row r="46" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B46" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="C46" s="48"/>
+      <c r="D46" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="41" t="s">
+    <row r="47" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="1" t="s">
+      <c r="C47" s="48"/>
+      <c r="D47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="40" t="s">
+      <c r="C48" s="58"/>
+      <c r="D48" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
+      <c r="B49" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="40" t="s">
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
+      <c r="B50" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="50"/>
+      <c r="D50" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="E50" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="50" t="s">
+    <row r="51" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="46"/>
+      <c r="B51" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="41" t="s">
         <v>212</v>
       </c>
       <c r="E51" s="24">
@@ -6537,32 +6701,57 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="47" t="s">
+      <c r="A52" s="46"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
+      <c r="B53" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="48"/>
+      <c r="D53" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-    </row>
-    <row r="54" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
+      <c r="B54" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="64"/>
+      <c r="D54" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="60" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+      <c r="A55" s="46"/>
     </row>
     <row r="56" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-    </row>
-    <row r="57" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A56" s="46"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="46"/>
+    </row>
     <row r="58" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6573,27 +6762,29 @@
     <row r="65" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A44"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="B45:C45"/>
+  <mergeCells count="18">
+    <mergeCell ref="A46:A57"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A45"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B21:B31"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6610,7 +6801,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6630,34 +6821,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>166</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>167</v>
       </c>
       <c r="K1" s="35">
         <v>1000</v>
@@ -6670,7 +6861,7 @@
       <c r="B2" s="35">
         <v>30</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="59">
         <v>5</v>
       </c>
       <c r="D2" s="37">
@@ -6708,7 +6899,7 @@
         <f>$B$2+A2*$C$2</f>
         <v>35</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="37">
         <f t="shared" ref="D3:D11" si="0">(A3-1)*$C$2</f>
         <v>5</v>
@@ -6744,7 +6935,7 @@
         <f t="shared" ref="B4:B11" si="4">$B$2+A3*$C$2</f>
         <v>40</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6780,7 +6971,7 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="37">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6816,7 +7007,7 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="37">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6852,7 +7043,7 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="37">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6888,7 +7079,7 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="37">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6924,7 +7115,7 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6960,7 +7151,7 @@
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="37">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6996,7 +7187,7 @@
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="37">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7028,7 +7219,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:C11"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7046,7 +7237,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7061,7 +7252,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7076,7 +7267,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -145,38 +145,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="231">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻修正系数</t>
@@ -192,206 +192,206 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -401,39 +401,39 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -449,71 +449,71 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -529,11 +529,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -549,31 +549,31 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -589,63 +589,63 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -661,51 +661,51 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -721,7 +721,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -737,15 +737,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -761,11 +761,11 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -781,23 +781,23 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>0-0</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>招式位移</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ActionMovement</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画集合</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>SoftSpotTriggerAnim</t>
@@ -829,244 +829,244 @@
       </rPr>
       <t>Animmation</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>强制主角进入击飞、击倒等</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>招式强制主角播放的动画</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>InforcedAnimation</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。无论任何时刻，对于远程普攻没有次数限制，因为它已经被飞刀数量限制。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定，长按的总时长达到这个时长，就进入蓄力这个动画状态；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力技释放时刻（s）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ChargeReleaseTime_Min</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定了进入蓄力状态后，至少要经过这么多时间才能释放蓄力技能；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>决定单次招式对精力的消耗值；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>任何合法的状态转换都可以在本动画的取消区间内取消部分动作，立即转入下一个动画；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>在进入蓄力状态后，经过这么多时长后会被迫释放蓄力；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>命中次数(n)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>An</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单次额外伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>累积额外伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>累积伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害占单次总伤害占比</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害/基础伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>预设BossHP</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>当前此伤害/基础伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>公式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成削刃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>主角对怪物</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>普通部位受击招式修正系数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>弱点部位受击招式修正系数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>子类</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>可触发弱点连击的招式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮攻击频率</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮伤害FloatingBladeATK  *  怪物_弱点刀刃悬浮修正系数FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>(主角_基础削刃BasicToughnessCut+主角_武器削刃)  *  主角_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮削刃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>常规招式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮削刃FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>远程普攻伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>（主角_基础伤害BasicATK+主角_近战普攻伤害MeleeATK）*  招式伤害修正系数ActionAKTFactor  *  怪物_受击部位招式修正系数Factor
 +弱点连击累计次数n  *  连击额外伤害累增量ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>刀刃插中、拔出弱点修正系数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_StabOrExtractOut</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>飞刀插中、拔出弱点</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1083,7 +1083,7 @@
       </rPr>
       <t>伤害</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1100,43 +1100,43 @@
       </rPr>
       <t>削刃</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>类别①</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>类别②</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础伤害BasicATK  *  怪物_招式伤害修正系数ActionAKTFactor</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础削刃ToughnessCut  *  怪物_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1162,39 +1162,39 @@
       </rPr>
       <t xml:space="preserve">  *  刀刃插中、拔出弱点修正系数FloatingBladeATK_Factor_StabOrExtractOut</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复滞后(s)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverDelay</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>韧性安全值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Toughness_Safe</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>对应硬直动画</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1210,28 +1210,85 @@
       </rPr>
       <t>taggerAnimation_Player</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>如果本招式触发硬直，则会造成受击放播放哪一种硬直动画，这是指定值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>StaggerAnimation_Monster</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复生命精力消耗</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Healing_St</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ami</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>naConsume</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次恢复生命百分比</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>He</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aling_HP_Ratio</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1509,19 +1566,37 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1530,19 +1605,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1551,112 +1617,136 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1665,52 +1755,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1876,11 +1939,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1249068336"/>
-        <c:axId val="-1249067792"/>
+        <c:axId val="-1248918320"/>
+        <c:axId val="-1248933008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1249068336"/>
+        <c:axId val="-1248918320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1986,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249067792"/>
+        <c:crossAx val="-1248933008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1931,7 +1994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1249067792"/>
+        <c:axId val="-1248933008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1982,7 +2045,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249068336"/>
+        <c:crossAx val="-1248918320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2190,11 +2253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1249067248"/>
-        <c:axId val="-1249066704"/>
+        <c:axId val="-1248925936"/>
+        <c:axId val="-1248931920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1249067248"/>
+        <c:axId val="-1248925936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,12 +2313,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249066704"/>
+        <c:crossAx val="-1248931920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1249066704"/>
+        <c:axId val="-1248931920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +2375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249067248"/>
+        <c:crossAx val="-1248925936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2688,11 +2751,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1249065072"/>
-        <c:axId val="-1249063984"/>
+        <c:axId val="-1248931376"/>
+        <c:axId val="-1242555184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1249065072"/>
+        <c:axId val="-1248931376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,12 +2812,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249063984"/>
+        <c:crossAx val="-1242555184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1249063984"/>
+        <c:axId val="-1242555184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,7 +2874,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249065072"/>
+        <c:crossAx val="-1248931376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4565,13 +4628,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5007,13 +5070,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -5048,13 +5111,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -5063,8 +5126,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="52" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5078,8 +5141,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
@@ -5090,950 +5153,978 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="48"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="48" t="s">
+    <row r="5" spans="1:6" s="46" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="46">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="56"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="B7" s="52"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="56"/>
+      <c r="B8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E8" s="46">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="1" t="s">
+    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E9" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="40" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="63" t="s">
+    <row r="10" spans="1:6" s="40" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="56"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D10" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E10" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="63" t="s">
+    <row r="11" spans="1:6" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D11" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E11" s="40">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="1" t="s">
+    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E12" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="48"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="48" t="s">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="52"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D14" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="41" t="s">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D15" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="48"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="48" t="s">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="52"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="1" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="51" t="s">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E18" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="10" t="s">
+    <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E19" s="7">
         <v>5</v>
       </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="10" t="s">
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E20" s="7">
         <v>3</v>
       </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="10" t="s">
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E21" s="7">
         <v>3</v>
       </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="48"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="52"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B24" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="41" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E24" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="48" t="s">
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C25" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D25" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E25" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="48"/>
-    </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="48" t="s">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="52"/>
+    </row>
+    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E27" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="41" t="s">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D28" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E28" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="1" t="s">
+    <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E29" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="41" t="s">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D30" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E30" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="41" t="s">
+    <row r="31" spans="1:6" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D31" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E31" s="39">
         <v>10</v>
       </c>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="41" t="s">
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E32" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="48"/>
-    </row>
-    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="48" t="s">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D34" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="13" t="s">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+    <row r="36" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="E36" s="6"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="48" t="s">
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="56"/>
+      <c r="B39" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E37" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E39" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>103</v>
+        <v>75</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E41" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="8" t="s">
+      <c r="A42" s="56"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E44" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="48"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="48"/>
-    </row>
-    <row r="45" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-    </row>
-    <row r="46" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="56"/>
+      <c r="B45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="56"/>
+      <c r="B46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
+      <c r="A47" s="56"/>
     </row>
     <row r="48" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
+      <c r="A48" s="56"/>
+    </row>
+    <row r="49" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
+    </row>
+    <row r="50" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="56"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B53" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E53" s="1">
         <v>0.2</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F53" s="31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="30" t="s">
+    <row r="54" spans="1:6" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="56"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D54" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E54" s="28">
         <v>0.5</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F54" s="31" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="1" t="s">
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="56"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E55" s="1">
         <v>2</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F55" s="31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="1" t="s">
+    <row r="56" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="56"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E54"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="48" t="s">
+      <c r="E56"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56"/>
+      <c r="B57" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C57" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D57" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="41" t="s">
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="56"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D58" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
-      <c r="B57" s="48" t="s">
+    <row r="59" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="56"/>
+      <c r="B59" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="1" t="s">
+      <c r="C59" s="52"/>
+      <c r="D59" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E59" s="1">
         <v>0</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F59" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
-      <c r="B58" s="48" t="s">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="56"/>
+      <c r="B60" s="52" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="48"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="15" t="s">
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="56"/>
+      <c r="B61" s="52"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="56"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D62" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="29" t="s">
+      <c r="E62" s="6"/>
+      <c r="F62" s="29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="48"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="48"/>
-    </row>
-    <row r="63" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="50" t="s">
+    <row r="63" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
+      <c r="B63" s="52"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="16"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="56"/>
+      <c r="B64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="56"/>
+      <c r="B65" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="21" t="s">
+      <c r="C65" s="59"/>
+      <c r="D65" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="50" t="s">
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="56"/>
+      <c r="B66" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="8" t="s">
+      <c r="C66" s="59"/>
+      <c r="D66" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E66" s="2">
         <v>0.5</v>
       </c>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
-      <c r="B65" s="50" t="s">
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="56"/>
+      <c r="B67" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="8" t="s">
+      <c r="C67" s="52"/>
+      <c r="D67" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E67" s="2">
         <v>0</v>
       </c>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="50" t="s">
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="56"/>
+      <c r="B68" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="8" t="s">
+      <c r="C68" s="52"/>
+      <c r="D68" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="49" t="s">
+      <c r="E68" s="6"/>
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="56"/>
+      <c r="B69" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="15" t="s">
+      <c r="C69" s="52"/>
+      <c r="D69" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E69" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="F69" s="32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="40" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="46"/>
-      <c r="B68" s="65" t="s">
+    <row r="70" spans="1:6" s="40" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="56"/>
+      <c r="B70" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="63" t="s">
+      <c r="C70" s="51"/>
+      <c r="D70" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="60">
+      <c r="E70" s="47">
         <v>1</v>
       </c>
-      <c r="F68" s="60" t="s">
+      <c r="F70" s="47" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="16"/>
-    </row>
     <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
-      <c r="C71" s="14"/>
+      <c r="A71" s="56"/>
+      <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="16"/>
+      <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
+      <c r="A72" s="56"/>
       <c r="C72" s="14"/>
       <c r="D72" s="13"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="56"/>
       <c r="C73" s="14"/>
       <c r="D73" s="13"/>
       <c r="E73" s="17"/>
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
+      <c r="A74" s="56"/>
       <c r="C74" s="14"/>
       <c r="D74" s="13"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16"/>
     </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="9"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="46" t="s">
+    <row r="75" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="56"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="56"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="56"/>
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="47" t="s">
+      <c r="B78" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C78" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D78" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="E78" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="15" t="s">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="56"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D79" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E79" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="F78" s="16"/>
-    </row>
-    <row r="79" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="F79" s="16"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
-      <c r="B80" s="48"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="46"/>
-      <c r="B81" s="47" t="s">
+    <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="56"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="F80" s="16"/>
+    </row>
+    <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="56"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="F81" s="16"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="56"/>
+      <c r="B82" s="52"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="56"/>
+      <c r="B83" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D83" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E83" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="46"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="15" t="s">
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="56"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="46"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="F83" s="16"/>
-    </row>
-    <row r="84" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="46"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="20"/>
-      <c r="F84" s="16"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
-      <c r="B85" s="48"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
-      <c r="B86" s="47" t="s">
+    <row r="85" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="56"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="F85" s="16"/>
+    </row>
+    <row r="86" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="56"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="20"/>
+      <c r="F86" s="16"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="56"/>
+      <c r="B87" s="52"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="56"/>
+      <c r="B88" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D88" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E88" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="46"/>
-      <c r="B87" s="48"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="46"/>
-      <c r="B88" s="48"/>
-    </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
-      <c r="B89" s="47" t="s">
+      <c r="A89" s="56"/>
+      <c r="B89" s="52"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="56"/>
+      <c r="B90" s="52"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="56"/>
+      <c r="B91" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D91" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E91" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="46"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="26" t="s">
+    <row r="92" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="56"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D92" s="26" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="46"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="20"/>
-      <c r="F91" s="16"/>
-    </row>
-    <row r="92" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="46"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="20"/>
-      <c r="F92" s="16"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="46"/>
-      <c r="B93" s="48"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="46"/>
-      <c r="B94" s="4"/>
+    <row r="93" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="56"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="20"/>
+      <c r="F93" s="16"/>
+    </row>
+    <row r="94" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A94" s="56"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="20"/>
+      <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
-      <c r="B95" s="4"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="52"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="46"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="46"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A100" s="56"/>
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A101" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A52"/>
+    <mergeCell ref="A53:A77"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A78:A101"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A22:A50"/>
-    <mergeCell ref="A51:A75"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A76:A99"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6071,32 +6162,32 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="44" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="44" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="60" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="44" t="s">
@@ -6107,18 +6198,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="48" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="44" t="s">
         <v>183</v>
       </c>
@@ -6127,8 +6218,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60" t="s">
         <v>205</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -6139,8 +6230,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="45" t="s">
         <v>194</v>
       </c>
@@ -6149,7 +6240,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -6163,7 +6254,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6211,13 +6302,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
@@ -6226,14 +6317,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="65" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="47" t="s">
         <v>220</v>
       </c>
       <c r="E3" s="1">
@@ -6241,8 +6332,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
@@ -6254,12 +6345,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="63" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="49" t="s">
         <v>219</v>
       </c>
       <c r="E5" s="1">
@@ -6267,12 +6358,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="49" t="s">
         <v>222</v>
       </c>
       <c r="E6" s="40">
@@ -6280,12 +6371,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="47" t="s">
         <v>218</v>
       </c>
       <c r="E7" s="1">
@@ -6293,8 +6384,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -6308,8 +6399,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="41" t="s">
         <v>208</v>
       </c>
@@ -6321,30 +6412,30 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="56"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="56"/>
     </row>
     <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="55" t="s">
         <v>177</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -6358,8 +6449,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -6371,8 +6462,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -6384,8 +6475,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -6397,8 +6488,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -6410,16 +6501,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="56"/>
+      <c r="B21" s="55" t="s">
         <v>178</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -6433,8 +6524,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
@@ -6446,8 +6537,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
@@ -6459,8 +6550,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
@@ -6472,8 +6563,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="41" t="s">
         <v>186</v>
       </c>
@@ -6485,8 +6576,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
@@ -6498,8 +6589,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="41" t="s">
         <v>201</v>
       </c>
@@ -6511,24 +6602,24 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="52"/>
     </row>
     <row r="29" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="52"/>
     </row>
     <row r="30" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="52"/>
     </row>
     <row r="31" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="52"/>
     </row>
     <row r="32" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="48" t="s">
+      <c r="A32" s="56"/>
+      <c r="B32" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C32" s="41" t="s">
@@ -6542,8 +6633,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="1" t="s">
         <v>89</v>
       </c>
@@ -6555,8 +6646,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="48"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="1" t="s">
         <v>93</v>
       </c>
@@ -6568,8 +6659,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="8" t="s">
         <v>94</v>
       </c>
@@ -6581,55 +6672,55 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
+      <c r="A45" s="56"/>
     </row>
     <row r="46" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="48"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="8" t="s">
         <v>99</v>
       </c>
@@ -6638,11 +6729,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="48" t="s">
+      <c r="A47" s="56"/>
+      <c r="B47" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="48"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="1" t="s">
         <v>68</v>
       </c>
@@ -6651,33 +6742,33 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="58" t="s">
+      <c r="A48" s="56"/>
+      <c r="B48" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="58"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="27" t="s">
         <v>144</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="50" t="s">
+      <c r="A49" s="56"/>
+      <c r="B49" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="50"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="25" t="s">
         <v>140</v>
       </c>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="50" t="s">
+      <c r="A50" s="56"/>
+      <c r="B50" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="50"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="12" t="s">
         <v>97</v>
       </c>
@@ -6686,8 +6777,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="48" t="s">
+      <c r="A51" s="56"/>
+      <c r="B51" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="24" t="s">
@@ -6701,8 +6792,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="48"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="41" t="s">
         <v>176</v>
       </c>
@@ -6714,11 +6805,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="57" t="s">
+      <c r="A53" s="56"/>
+      <c r="B53" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="48"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="27" t="s">
         <v>148</v>
       </c>
@@ -6728,29 +6819,29 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="65" t="s">
+      <c r="A54" s="56"/>
+      <c r="B54" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="63" t="s">
+      <c r="C54" s="51"/>
+      <c r="D54" s="49" t="s">
         <v>224</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="F54" s="60" t="s">
+      <c r="F54" s="47" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
+      <c r="A55" s="56"/>
     </row>
     <row r="56" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
+      <c r="A56" s="56"/>
     </row>
     <row r="57" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
+      <c r="A57" s="56"/>
     </row>
     <row r="58" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6765,6 +6856,15 @@
     <row r="68" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A45"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B21:B31"/>
     <mergeCell ref="A46:A57"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
@@ -6774,17 +6874,8 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A45"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B21:B31"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6801,7 +6892,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6861,7 +6952,7 @@
       <c r="B2" s="35">
         <v>30</v>
       </c>
-      <c r="C2" s="59">
+      <c r="C2" s="66">
         <v>5</v>
       </c>
       <c r="D2" s="37">
@@ -6899,7 +6990,7 @@
         <f>$B$2+A2*$C$2</f>
         <v>35</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="37">
         <f t="shared" ref="D3:D11" si="0">(A3-1)*$C$2</f>
         <v>5</v>
@@ -6935,7 +7026,7 @@
         <f t="shared" ref="B4:B11" si="4">$B$2+A3*$C$2</f>
         <v>40</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6971,7 +7062,7 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="37">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7007,7 +7098,7 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="37">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7043,7 +7134,7 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="37">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7079,7 +7170,7 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="37">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7115,7 +7206,7 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7151,7 +7242,7 @@
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="37">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7187,7 +7278,7 @@
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="37">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7219,7 +7310,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:C11"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7237,7 +7328,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7252,7 +7343,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7267,7 +7358,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="537"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="537" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="主角属性" sheetId="1" r:id="rId1"/>
-    <sheet name="伤害公式" sheetId="4" r:id="rId2"/>
-    <sheet name="怪物属性" sheetId="2" r:id="rId3"/>
-    <sheet name="Buff状态列表" sheetId="8" r:id="rId4"/>
-    <sheet name="弱点连击" sheetId="10" r:id="rId5"/>
+    <sheet name="怪物属性" sheetId="2" r:id="rId2"/>
+    <sheet name="伤害公式" sheetId="4" r:id="rId3"/>
+    <sheet name="数值模拟" sheetId="10" r:id="rId4"/>
+    <sheet name="Buff状态列表" sheetId="8" r:id="rId5"/>
     <sheet name="怪物列表" sheetId="5" r:id="rId6"/>
     <sheet name="武器列表" sheetId="6" r:id="rId7"/>
-    <sheet name="战斗模拟" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -88,7 +87,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,11 +109,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-基础伤害</t>
+基础伤害  a1</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,43 +139,266 @@
         </r>
       </text>
     </comment>
+    <comment ref="E37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+也就是弱点部位受击招式修正</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+MeleeATK</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+近战蓄力最大伤害倍数
+ChargedMeleeATKMultiplier_Max</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+远程蓄力最大伤害倍数
+ChargedDistantATKMultiplier_Max</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">WQQ:主角：飞刀悬浮伤害  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>FloatingBladeATK</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+主角  远程普攻伤害 
+DistantATK</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+刀刃插中、拔出弱点修正系数
+FloatingBladeATK_Factor_StabOrExtractOut</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+所有这些占比都是只占角色总生命值的壁纸</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A51" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每次使用精力恢复的时候</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="280">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程蓄力伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻修正系数</t>
@@ -192,206 +414,190 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargedDistantATK_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -401,39 +607,39 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -449,71 +655,71 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -529,11 +735,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -549,31 +755,31 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -589,63 +795,63 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -661,51 +867,51 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -721,7 +927,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -737,15 +943,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -761,11 +967,11 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -781,23 +987,23 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0-0</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>招式位移</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ActionMovement</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画集合</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>SoftSpotTriggerAnim</t>
@@ -829,244 +1035,228 @@
       </rPr>
       <t>Animmation</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>强制主角进入击飞、击倒等</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>招式强制主角播放的动画</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>InforcedAnimation</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。无论任何时刻，对于远程普攻没有次数限制，因为它已经被飞刀数量限制。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定，长按的总时长达到这个时长，就进入蓄力这个动画状态；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力技释放时刻（s）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ChargeReleaseTime_Min</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定了进入蓄力状态后，至少要经过这么多时间才能释放蓄力技能；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>决定单次招式对精力的消耗值；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任何合法的状态转换都可以在本动画的取消区间内取消部分动作，立即转入下一个动画；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>在进入蓄力状态后，经过这么多时长后会被迫释放蓄力；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>命中次数(n)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>An</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>单次额外伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>累积额外伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>累积伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害占单次总伤害占比</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害/基础伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>预设BossHP</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当前此伤害/基础伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>公式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成削刃</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主角对怪物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>普通部位受击招式修正系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>弱点部位受击招式修正系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>子类</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可触发弱点连击的招式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮攻击频率</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮伤害FloatingBladeATK  *  怪物_弱点刀刃悬浮修正系数FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(主角_基础削刃BasicToughnessCut+主角_武器削刃)  *  主角_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮削刃</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>常规招式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮削刃FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>远程普攻伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>FloatingBladeATK</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>（主角_基础伤害BasicATK+主角_近战普攻伤害MeleeATK）*  招式伤害修正系数ActionAKTFactor  *  怪物_受击部位招式修正系数Factor
 +弱点连击累计次数n  *  连击额外伤害累增量ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀刃插中、拔出弱点修正系数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>FloatingBladeATK_Factor_StabOrExtractOut</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>飞刀插中、拔出弱点</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1083,7 +1273,7 @@
       </rPr>
       <t>伤害</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1100,43 +1290,39 @@
       </rPr>
       <t>削刃</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>类别①</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>类别②</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础伤害BasicATK  *  怪物_招式伤害修正系数ActionAKTFactor</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础削刃ToughnessCut  *  怪物_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistantATK</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1162,39 +1348,39 @@
       </rPr>
       <t xml:space="preserve">  *  刀刃插中、拔出弱点修正系数FloatingBladeATK_Factor_StabOrExtractOut</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复滞后(s)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverDelay</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>韧性安全值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Toughness_Safe</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对应硬直动画</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1210,19 +1396,19 @@
       </rPr>
       <t>taggerAnimation_Player</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如果本招式触发硬直，则会造成受击放播放哪一种硬直动画，这是指定值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>StaggerAnimation_Monster</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>恢复生命精力消耗</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1248,11 +1434,11 @@
       </rPr>
       <t>naConsume</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>单次恢复生命百分比</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1268,20 +1454,274 @@
       </rPr>
       <t>aling_HP_Ratio</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>总所需最大连击轮数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第n次连击伤害：An</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次伤害占总比</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定值</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战普攻</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战蓄力</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程普攻</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程蓄力</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀刃悬浮</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀刃插中</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器近战普攻伤害</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式伤害修正系数（主角）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击部位招式修正系数（怪物弱点）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 非连击伤害（a1）模拟</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 弱点连击伤害模拟</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>单轮伤害次数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1占比</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角对Boss</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物对主角</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次攻击伤害占比</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色单次恢复占比</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>单轮总伤害占比</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0 基准设定表</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性削减</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingBladeATK</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistantATK</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战蓄力最大伤害倍数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargedMeleeATKMultiplier_Max</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargedDistantATKMultiplier_Max</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程蓄力最大伤害倍数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀刃插中、拔出弱点修正系数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingBladeATK_Factor_StabOrExtractOut</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0 削刃基准设定</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小削刃百分比</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大削刃百分比</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性恢复速度</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在区域</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础削刃</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶尸人（铃铛）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶尸人（近战）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝女</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1448,7 +1888,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,8 +1923,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1563,220 +2009,655 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1839,6 +2720,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1891,7 +2773,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>弱点连击!$G$2:$G$11</c:f>
+              <c:f>数值模拟!$H$5:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1899,31 +2781,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45454545454545453</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53846153846153844</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1939,11 +2821,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1248918320"/>
-        <c:axId val="-1248933008"/>
+        <c:axId val="-777966704"/>
+        <c:axId val="-777967792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1248918320"/>
+        <c:axId val="-777966704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +2868,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1248933008"/>
+        <c:crossAx val="-777967792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1994,7 +2876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1248933008"/>
+        <c:axId val="-777967792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2927,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1248918320"/>
+        <c:crossAx val="-777966704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2142,6 +3024,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2206,7 +3089,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>弱点连击!$H$2:$H$11</c:f>
+              <c:f>数值模拟!$I$5:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2214,31 +3097,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1666666666666667</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2253,11 +3136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1248925936"/>
-        <c:axId val="-1248931920"/>
+        <c:axId val="-777973232"/>
+        <c:axId val="-777963440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1248925936"/>
+        <c:axId val="-777973232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,12 +3196,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1248931920"/>
+        <c:crossAx val="-777963440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1248931920"/>
+        <c:axId val="-777963440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +3258,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1248925936"/>
+        <c:crossAx val="-777973232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2512,7 +3395,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>弱点连击!$F$1</c:f>
+              <c:f>数值模拟!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2547,7 +3430,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>弱点连击!$A$2:$A$11</c:f>
+              <c:f>数值模拟!$A$5:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2586,7 +3469,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>弱点连击!$F$2:$F$11</c:f>
+              <c:f>数值模拟!$G$5:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2594,31 +3477,31 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>315</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>380</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>450</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>525</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2630,7 +3513,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>弱点连击!$E$1</c:f>
+              <c:f>数值模拟!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2665,7 +3548,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>弱点连击!$A$2:$A$11</c:f>
+              <c:f>数值模拟!$A$5:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2704,7 +3587,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>弱点连击!$E$2:$E$11</c:f>
+              <c:f>数值模拟!$F$5:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2712,31 +3595,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>225</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,11 +3634,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1248931376"/>
-        <c:axId val="-1242555184"/>
+        <c:axId val="-777977040"/>
+        <c:axId val="-777968880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1248931376"/>
+        <c:axId val="-777977040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,12 +3695,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1242555184"/>
+        <c:crossAx val="-777968880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1242555184"/>
+        <c:axId val="-777968880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,7 +3757,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1248931376"/>
+        <c:crossAx val="-777977040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2888,6 +3771,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4688,14 +5572,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4718,15 +5602,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4750,15 +5634,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5072,11 +5956,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -5101,66 +5985,66 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="52"/>
+      <c r="B2" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="87"/>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
+        <v>14</v>
+      </c>
+      <c r="E2" s="52">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="52" t="s">
-        <v>35</v>
+      <c r="A3" s="91"/>
+      <c r="B3" s="87" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="E3" s="52">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="46" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>228</v>
+      <c r="A5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>218</v>
       </c>
       <c r="E5" s="46">
         <v>1</v>
@@ -5168,13 +6052,13 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="67" t="s">
-        <v>229</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>230</v>
+      <c r="A6" s="91"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>220</v>
       </c>
       <c r="E6" s="46">
         <v>0.4</v>
@@ -5182,146 +6066,146 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="87"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="52" t="s">
-        <v>27</v>
+      <c r="A8" s="91"/>
+      <c r="B8" s="87" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="46">
+      <c r="E8" s="52">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="40" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="49" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E10" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="49" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E11" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="91"/>
+      <c r="B13" s="87"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="91"/>
+      <c r="B14" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1">
+      <c r="C14" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="91"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="91"/>
+      <c r="B16" s="87"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="91"/>
+      <c r="B17" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="87"/>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="91"/>
+      <c r="B18" s="88" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="52"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="52"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="53" t="s">
+      <c r="C18" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E18" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E19" s="7">
         <v>5</v>
@@ -5329,13 +6213,13 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="E20" s="7">
         <v>3</v>
@@ -5343,13 +6227,13 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
@@ -5357,108 +6241,109 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="87"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="91"/>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="52"/>
+      <c r="B24" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="87"/>
       <c r="D24" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="1">
-        <v>100</v>
+        <v>169</v>
+      </c>
+      <c r="E24" s="52">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="52" t="s">
-        <v>28</v>
+      <c r="A25" s="91"/>
+      <c r="B25" s="87" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="1">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="E25" s="52">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="87"/>
     </row>
     <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C27" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="52">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="1">
-        <v>150</v>
+    <row r="28" spans="1:6" s="50" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="91"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="91"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="55">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E30" s="1">
-        <v>50</v>
+        <v>179</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="52">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>195</v>
+        <v>186</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>189</v>
       </c>
       <c r="E31" s="39">
         <v>10</v>
@@ -5466,345 +6351,345 @@
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="41" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E32" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="87"/>
     </row>
     <row r="34" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="52" t="s">
-        <v>55</v>
+      <c r="A34" s="91"/>
+      <c r="B34" s="87" t="s">
+        <v>50</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="52"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="6"/>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="52" t="s">
-        <v>82</v>
+      <c r="A39" s="91"/>
+      <c r="B39" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E39" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="87"/>
       <c r="C40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="87"/>
       <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E41" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="52"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="1">
-        <v>8</v>
+        <v>98</v>
+      </c>
+      <c r="E43" s="55">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="87"/>
       <c r="C44" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E44" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="87"/>
     </row>
     <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="87"/>
     </row>
     <row r="47" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="91"/>
     </row>
     <row r="48" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="91"/>
     </row>
     <row r="49" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="91"/>
     </row>
     <row r="50" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="91"/>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="91"/>
     </row>
     <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="91"/>
     </row>
     <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="54" t="s">
-        <v>150</v>
+      <c r="A53" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="89" t="s">
+        <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E53" s="1">
         <v>0.2</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="87"/>
       <c r="C54" s="30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E54" s="28">
         <v>0.5</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="52" t="s">
-        <v>49</v>
+      <c r="A57" s="91"/>
+      <c r="B57" s="87" t="s">
+        <v>46</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="87"/>
       <c r="C58" s="41" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
-      <c r="B59" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="52"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="87"/>
       <c r="D59" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
-      <c r="B60" s="52" t="s">
-        <v>87</v>
+      <c r="A60" s="91"/>
+      <c r="B60" s="87" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="87"/>
       <c r="D61" s="15"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="52"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="29" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="91"/>
+      <c r="B63" s="87"/>
       <c r="D63" s="12"/>
       <c r="E63" s="6"/>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
-      <c r="B64" s="52"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="87"/>
     </row>
     <row r="65" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
-      <c r="B65" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="59"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="94"/>
       <c r="D65" s="21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="59"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="94"/>
       <c r="D66" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2">
         <v>0.5</v>
@@ -5812,13 +6697,13 @@
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="52"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="87"/>
       <c r="D67" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
@@ -5826,79 +6711,79 @@
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
-      <c r="B68" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="52"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="87"/>
       <c r="D68" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
-      <c r="B69" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="52"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="87"/>
       <c r="D69" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="40" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
-      <c r="B70" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C70" s="51"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="86"/>
       <c r="D70" s="49" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E70" s="47">
         <v>1</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="A71" s="91"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="91"/>
       <c r="C72" s="14"/>
       <c r="D72" s="13"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="91"/>
       <c r="C73" s="14"/>
       <c r="D73" s="13"/>
       <c r="E73" s="17"/>
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="91"/>
       <c r="C74" s="14"/>
       <c r="D74" s="13"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16"/>
     </row>
     <row r="75" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="A75" s="91"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
       <c r="D75" s="13"/>
@@ -5906,191 +6791,191 @@
       <c r="F75" s="16"/>
     </row>
     <row r="76" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
+      <c r="A76" s="91"/>
       <c r="C76" s="14"/>
       <c r="D76" s="13"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="A77" s="91"/>
       <c r="B77" s="9"/>
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="57" t="s">
+      <c r="A78" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="E78" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
-      <c r="B79" s="52"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="87"/>
       <c r="C79" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E79" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
-      <c r="B80" s="52"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="87"/>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
-      <c r="B81" s="52"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="87"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
-      <c r="B82" s="52"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="87"/>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
-      <c r="B83" s="57" t="s">
+      <c r="A83" s="91"/>
+      <c r="B83" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
-      <c r="B84" s="52"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="87"/>
       <c r="C84" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
-      <c r="B85" s="52"/>
+      <c r="A85" s="91"/>
+      <c r="B85" s="87"/>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
-      <c r="B86" s="52"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="87"/>
       <c r="C86" s="20"/>
       <c r="F86" s="16"/>
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
-      <c r="B87" s="52"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="87"/>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
-      <c r="B88" s="57" t="s">
-        <v>128</v>
+      <c r="A88" s="91"/>
+      <c r="B88" s="92" t="s">
+        <v>123</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
-      <c r="B89" s="52"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="87"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
-      <c r="B90" s="52"/>
+      <c r="A90" s="91"/>
+      <c r="B90" s="87"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
-      <c r="B91" s="57" t="s">
-        <v>129</v>
+      <c r="A91" s="91"/>
+      <c r="B91" s="92" t="s">
+        <v>124</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
-      <c r="B92" s="52"/>
+      <c r="A92" s="91"/>
+      <c r="B92" s="87"/>
       <c r="C92" s="26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
-      <c r="B93" s="52"/>
+      <c r="A93" s="91"/>
+      <c r="B93" s="87"/>
       <c r="C93" s="13"/>
       <c r="D93" s="20"/>
       <c r="F93" s="16"/>
     </row>
     <row r="94" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
-      <c r="B94" s="52"/>
+      <c r="A94" s="91"/>
+      <c r="B94" s="87"/>
       <c r="C94" s="13"/>
       <c r="D94" s="20"/>
       <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
-      <c r="B95" s="52"/>
+      <c r="A95" s="91"/>
+      <c r="B95" s="87"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="91"/>
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="91"/>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
+      <c r="A98" s="91"/>
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
+      <c r="A99" s="91"/>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="91"/>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
+      <c r="A101" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -6124,7 +7009,7 @@
     <mergeCell ref="B39:B46"/>
     <mergeCell ref="B14:B16"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6132,143 +7017,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" style="41" customWidth="1"/>
-    <col min="2" max="3" width="26.77734375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="124" style="42" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="44" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -6292,556 +7048,556 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="52"/>
+      <c r="B2" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="87"/>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
         <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="65" t="s">
-        <v>216</v>
+      <c r="A3" s="91"/>
+      <c r="B3" s="97" t="s">
+        <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="1">
+        <v>210</v>
+      </c>
+      <c r="E3" s="55">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="E4" s="55">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="49" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="49" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E6" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="52" t="s">
-        <v>34</v>
+      <c r="A8" s="91"/>
+      <c r="B8" s="87" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="E8" s="55">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="91"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="91"/>
+      <c r="B10" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="91"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="91"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="91"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="91" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="40"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-    </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>177</v>
+      <c r="B14" s="90" t="s">
+        <v>171</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="87"/>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="87"/>
     </row>
     <row r="21" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="55" t="s">
-        <v>178</v>
+      <c r="A21" s="91"/>
+      <c r="B21" s="90" t="s">
+        <v>172</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="55">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="91"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="91"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="55">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="91"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="55">
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="1" t="s">
+    <row r="25" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="91"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="91"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="91"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="111" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="91"/>
+      <c r="B28" s="87"/>
+    </row>
+    <row r="29" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="91"/>
+      <c r="B29" s="87"/>
+    </row>
+    <row r="30" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="91"/>
+      <c r="B30" s="87"/>
+    </row>
+    <row r="31" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="91"/>
+      <c r="B31" s="87"/>
+    </row>
+    <row r="32" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="91"/>
+      <c r="B32" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="55">
         <v>10</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" s="39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="52"/>
-    </row>
-    <row r="29" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="52"/>
-    </row>
-    <row r="30" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="52"/>
-    </row>
-    <row r="31" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="52"/>
-    </row>
-    <row r="32" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="52" t="s">
+    </row>
+    <row r="33" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="91"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="91"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="91"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="91"/>
     </row>
     <row r="46" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="52" t="s">
+      <c r="A46" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="87"/>
+      <c r="D46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="47" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="52"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="87"/>
       <c r="D47" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="64"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="96"/>
       <c r="D48" s="27" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="59"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="94"/>
       <c r="D49" s="25" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="59"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="94"/>
       <c r="D50" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E50" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="B51" s="52" t="s">
-        <v>49</v>
+      <c r="A51" s="91"/>
+      <c r="B51" s="87" t="s">
+        <v>46</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E51" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="52"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="87"/>
       <c r="C52" s="41" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E52" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
-      <c r="B53" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="52"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="87"/>
       <c r="D53" s="27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
-      <c r="B54" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" s="51"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="86"/>
       <c r="D54" s="49" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="91"/>
     </row>
     <row r="56" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="91"/>
     </row>
     <row r="57" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="91"/>
     </row>
     <row r="58" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6875,14 +7631,1126 @@
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B54:C54"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="41" customWidth="1"/>
+    <col min="2" max="3" width="26.77734375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="124" style="42" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="98"/>
+      <c r="B3" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="98"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="11" width="8.88671875" style="36"/>
+    <col min="12" max="12" width="14.77734375" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="51" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="104"/>
+    </row>
+    <row r="4" spans="1:30" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <v>1</v>
+      </c>
+      <c r="B5" s="35">
+        <v>30</v>
+      </c>
+      <c r="C5" s="66">
+        <f>B5/$K$5</f>
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="107">
+        <v>10</v>
+      </c>
+      <c r="E5" s="37">
+        <f>(A5-1)*$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="37">
+        <f>$D$5/2*(A5*A5-A5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="37">
+        <f>B5</f>
+        <v>30</v>
+      </c>
+      <c r="H5" s="38">
+        <f t="shared" ref="H5:H14" si="0">E5/B5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="38">
+        <f t="shared" ref="I5:I14" si="1">E5/$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="38">
+        <f t="shared" ref="J5:J14" si="2">B5/$B$5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="107">
+        <v>3000</v>
+      </c>
+      <c r="L5" s="109">
+        <f>$K$5/$G$14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
+        <v>2</v>
+      </c>
+      <c r="B6" s="37">
+        <f>$B$5+A5*$D$5</f>
+        <v>40</v>
+      </c>
+      <c r="C6" s="66">
+        <f t="shared" ref="C6:C14" si="3">B6/$K$5</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="37">
+        <f t="shared" ref="E6:E14" si="4">(A6-1)*$D$5</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="37">
+        <f>$D$5/2*(A6*A6-A6)</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" ref="G6:G14" si="5">G5+B6</f>
+        <v>70</v>
+      </c>
+      <c r="H6" s="38">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6" s="38">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K6" s="107"/>
+      <c r="L6" s="109"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
+        <v>3</v>
+      </c>
+      <c r="B7" s="37">
+        <f t="shared" ref="B7:B14" si="6">$B$5+A6*$D$5</f>
+        <v>50</v>
+      </c>
+      <c r="C7" s="66">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D7" s="107"/>
+      <c r="E7" s="37">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" ref="F7:F14" si="7">$D$5/2*(A7*A7-A7)</f>
+        <v>30</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="H7" s="38">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="38">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J7" s="38">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K7" s="107"/>
+      <c r="L7" s="109"/>
+    </row>
+    <row r="8" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
+        <v>4</v>
+      </c>
+      <c r="B8" s="37">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="66">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="107"/>
+      <c r="E8" s="37">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="H8" s="38">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="38">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="107"/>
+      <c r="L8" s="109"/>
+    </row>
+    <row r="9" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
+        <v>5</v>
+      </c>
+      <c r="B9" s="37">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="C9" s="66">
+        <f t="shared" si="3"/>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="D9" s="107"/>
+      <c r="E9" s="37">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="H9" s="38">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I9" s="38">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J9" s="38">
+        <f t="shared" si="2"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="K9" s="107"/>
+      <c r="L9" s="109"/>
+    </row>
+    <row r="10" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
+        <v>6</v>
+      </c>
+      <c r="B10" s="37">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="C10" s="66">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="D10" s="107"/>
+      <c r="E10" s="37">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="H10" s="38">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="I10" s="38">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J10" s="38">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="K10" s="107"/>
+      <c r="L10" s="109"/>
+    </row>
+    <row r="11" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
+        <v>7</v>
+      </c>
+      <c r="B11" s="37">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="C11" s="66">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="107"/>
+      <c r="E11" s="37">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="G11" s="37">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I11" s="38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="38">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="107"/>
+      <c r="L11" s="109"/>
+    </row>
+    <row r="12" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
+        <v>8</v>
+      </c>
+      <c r="B12" s="37">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C12" s="66">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="D12" s="107"/>
+      <c r="E12" s="37">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="F12" s="37">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="G12" s="37">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="H12" s="38">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="38">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J12" s="38">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K12" s="107"/>
+      <c r="L12" s="109"/>
+    </row>
+    <row r="13" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
+        <v>9</v>
+      </c>
+      <c r="B13" s="37">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="C13" s="66">
+        <f t="shared" si="3"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="D13" s="107"/>
+      <c r="E13" s="37">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F13" s="37">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="G13" s="37">
+        <f t="shared" si="5"/>
+        <v>630</v>
+      </c>
+      <c r="H13" s="38">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="I13" s="38">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J13" s="38">
+        <f t="shared" si="2"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="K13" s="107"/>
+      <c r="L13" s="109"/>
+    </row>
+    <row r="14" spans="1:30" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58">
+        <v>10</v>
+      </c>
+      <c r="B14" s="59">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="C14" s="67">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="59">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F14" s="59">
+        <f t="shared" si="7"/>
+        <v>450</v>
+      </c>
+      <c r="G14" s="59">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+      <c r="H14" s="60">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="60">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="60">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K14" s="108"/>
+      <c r="L14" s="110"/>
+    </row>
+    <row r="34" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="104"/>
+      <c r="N35" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" s="117"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+    </row>
+    <row r="36" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="62"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="64"/>
+      <c r="N36" s="119" t="s">
+        <v>245</v>
+      </c>
+      <c r="O36" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="P36" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+    </row>
+    <row r="37" spans="1:30" s="51" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="70"/>
+      <c r="N37" s="119" t="s">
+        <v>262</v>
+      </c>
+      <c r="O37" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+    </row>
+    <row r="38" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="105">
+        <v>0</v>
+      </c>
+      <c r="C38" s="112">
+        <v>20</v>
+      </c>
+      <c r="D38" s="113">
+        <v>1</v>
+      </c>
+      <c r="E38" s="72">
+        <v>1.5</v>
+      </c>
+      <c r="F38" s="73">
+        <f>($B$38+$C$38)*$D38*$E38</f>
+        <v>30</v>
+      </c>
+      <c r="G38" s="80">
+        <f>F38/$K$5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H38" s="68">
+        <v>3</v>
+      </c>
+      <c r="I38" s="79">
+        <f>G38*H38</f>
+        <v>0.03</v>
+      </c>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="57"/>
+      <c r="N38" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="O38" s="79">
+        <v>0.34</v>
+      </c>
+      <c r="P38" s="120">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+    </row>
+    <row r="39" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="105"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113">
+        <v>3</v>
+      </c>
+      <c r="E39" s="72">
+        <v>2</v>
+      </c>
+      <c r="F39" s="73">
+        <f>($B$38+$C$38)*$D39*$E39</f>
+        <v>120</v>
+      </c>
+      <c r="G39" s="80">
+        <f t="shared" ref="G39:G43" si="8">F39/$K$5</f>
+        <v>0.04</v>
+      </c>
+      <c r="H39" s="68">
+        <v>1</v>
+      </c>
+      <c r="I39" s="79">
+        <f t="shared" ref="I39:I43" si="9">G39*H39</f>
+        <v>0.04</v>
+      </c>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="57"/>
+      <c r="N39" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="O39" s="79">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="P39" s="120">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="115"/>
+      <c r="S39" s="54"/>
+    </row>
+    <row r="40" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="105"/>
+      <c r="C40" s="112">
+        <v>20</v>
+      </c>
+      <c r="D40" s="113">
+        <v>0.6</v>
+      </c>
+      <c r="E40" s="72">
+        <v>1.2</v>
+      </c>
+      <c r="F40" s="73">
+        <f>($B$38+$C$40)*$D40*$E40</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G40" s="80">
+        <f t="shared" si="8"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="H40" s="68">
+        <v>3</v>
+      </c>
+      <c r="I40" s="79">
+        <f t="shared" si="9"/>
+        <v>1.44E-2</v>
+      </c>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="57"/>
+      <c r="N40" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="O40" s="79">
+        <v>0.15</v>
+      </c>
+      <c r="P40" s="120">
+        <v>0.34</v>
+      </c>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+    </row>
+    <row r="41" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="105"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="72">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="73">
+        <f>($B$38+$C$40)*$D41*$E41</f>
+        <v>24</v>
+      </c>
+      <c r="G41" s="80">
+        <f t="shared" si="8"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H41" s="68">
+        <v>3</v>
+      </c>
+      <c r="I41" s="79">
+        <f t="shared" si="9"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="57"/>
+      <c r="N41" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="O41" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="P41" s="120">
+        <v>0.34</v>
+      </c>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+    </row>
+    <row r="42" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="105"/>
+      <c r="C42" s="114">
+        <v>8</v>
+      </c>
+      <c r="D42" s="74">
+        <v>1</v>
+      </c>
+      <c r="E42" s="72">
+        <v>1.5</v>
+      </c>
+      <c r="F42" s="73">
+        <v>18</v>
+      </c>
+      <c r="G42" s="80">
+        <f t="shared" si="8"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H42" s="68">
+        <v>6</v>
+      </c>
+      <c r="I42" s="79">
+        <f t="shared" si="9"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="57"/>
+      <c r="N42" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="O42" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="P42" s="120">
+        <v>0.25</v>
+      </c>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+    </row>
+    <row r="43" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="106"/>
+      <c r="C43" s="76">
+        <v>20</v>
+      </c>
+      <c r="D43" s="76">
+        <v>1</v>
+      </c>
+      <c r="E43" s="76">
+        <v>1.5</v>
+      </c>
+      <c r="F43" s="77">
+        <f>($B$38+$C43)*$D43*$E43</f>
+        <v>30</v>
+      </c>
+      <c r="G43" s="81">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="76">
+        <v>2</v>
+      </c>
+      <c r="I43" s="81">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="61"/>
+      <c r="N43" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="O43" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="P43" s="121">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+    </row>
+    <row r="46" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="101"/>
+      <c r="N46" s="101"/>
+      <c r="O46" s="101"/>
+      <c r="P46" s="101"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="101"/>
+      <c r="S46" s="101"/>
+      <c r="T46" s="101"/>
+      <c r="U46" s="101"/>
+      <c r="V46" s="101"/>
+      <c r="W46" s="101"/>
+      <c r="X46" s="101"/>
+      <c r="Y46" s="101"/>
+      <c r="Z46" s="101"/>
+      <c r="AA46" s="101"/>
+      <c r="AB46" s="101"/>
+      <c r="AC46" s="101"/>
+      <c r="AD46" s="101"/>
+    </row>
+    <row r="47" spans="1:30" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="51"/>
+    </row>
+    <row r="48" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" s="103"/>
+      <c r="C48" s="104"/>
+    </row>
+    <row r="49" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="83">
+        <v>0.1</v>
+      </c>
+      <c r="C50" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="C51" s="83">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="84">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A46:AD46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="D5:D14"/>
+    <mergeCell ref="K5:K14"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="N35:P35"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6892,443 +8760,165 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" s="35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35">
-        <v>30</v>
-      </c>
-      <c r="C2" s="66">
-        <v>5</v>
-      </c>
-      <c r="D2" s="37">
-        <f>(A2-1)*$C$2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="37">
-        <f>$C$2/2*(A2*A2-A2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="37">
-        <f>B2</f>
-        <v>30</v>
-      </c>
-      <c r="G2" s="38">
-        <f>D2/B2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="38">
-        <f>D2/$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="38">
-        <f>B2/$B$2</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
-        <v>2</v>
-      </c>
-      <c r="B3" s="37">
-        <f>$B$2+A2*$C$2</f>
-        <v>35</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="37">
-        <f t="shared" ref="D3:D11" si="0">(A3-1)*$C$2</f>
-        <v>5</v>
-      </c>
-      <c r="E3" s="37">
-        <f>$C$2/2*(A3*A3-A3)</f>
-        <v>5</v>
-      </c>
-      <c r="F3" s="37">
-        <f>F2+B3</f>
-        <v>65</v>
-      </c>
-      <c r="G3" s="38">
-        <f t="shared" ref="G3:G11" si="1">D3/B3</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="H3" s="38">
-        <f t="shared" ref="H3:H11" si="2">D3/$B$2</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I3" s="38">
-        <f t="shared" ref="I3:I11" si="3">B3/$B$2</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37">
-        <f t="shared" ref="B4:B11" si="4">$B$2+A3*$C$2</f>
-        <v>40</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="37">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E4" s="37">
-        <f t="shared" ref="E4:E11" si="5">$C$2/2*(A4*A4-A4)</f>
-        <v>15</v>
-      </c>
-      <c r="F4" s="37">
-        <f t="shared" ref="F4:F11" si="6">F3+B4</f>
-        <v>105</v>
-      </c>
-      <c r="G4" s="38">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="H4" s="38">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I4" s="38">
-        <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="37">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E5" s="37">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="F5" s="37">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="G5" s="38">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H5" s="38">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="38">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
-        <v>5</v>
-      </c>
-      <c r="B6" s="37">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="37">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E6" s="37">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="F6" s="37">
-        <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-      <c r="G6" s="38">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="H6" s="38">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I6" s="38">
-        <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
-        <v>6</v>
-      </c>
-      <c r="B7" s="37">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="37">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E7" s="37">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="F7" s="37">
-        <f t="shared" si="6"/>
-        <v>255</v>
-      </c>
-      <c r="G7" s="38">
-        <f t="shared" si="1"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="H7" s="38">
-        <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I7" s="38">
-        <f t="shared" si="3"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>7</v>
-      </c>
-      <c r="B8" s="37">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="37">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E8" s="37">
-        <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="F8" s="37">
-        <f t="shared" si="6"/>
-        <v>315</v>
-      </c>
-      <c r="G8" s="38">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="38">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="38">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
-        <v>8</v>
-      </c>
-      <c r="B9" s="37">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="37">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E9" s="37">
-        <f t="shared" si="5"/>
-        <v>140</v>
-      </c>
-      <c r="F9" s="37">
-        <f t="shared" si="6"/>
-        <v>380</v>
-      </c>
-      <c r="G9" s="38">
-        <f t="shared" si="1"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="H9" s="38">
-        <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="I9" s="38">
-        <f t="shared" si="3"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
-        <v>9</v>
-      </c>
-      <c r="B10" s="37">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="37">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E10" s="37">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="F10" s="37">
-        <f t="shared" si="6"/>
-        <v>450</v>
-      </c>
-      <c r="G10" s="38">
-        <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H10" s="38">
-        <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="I10" s="38">
-        <f t="shared" si="3"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
-        <v>10</v>
-      </c>
-      <c r="B11" s="37">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="37">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E11" s="37">
-        <f t="shared" si="5"/>
-        <v>225</v>
-      </c>
-      <c r="F11" s="37">
-        <f t="shared" si="6"/>
-        <v>525</v>
-      </c>
-      <c r="G11" s="38">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="H11" s="38">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="38">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:C11"/>
-  </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="123"/>
+    <col min="2" max="5" width="8.88671875" style="111"/>
+    <col min="6" max="6" width="10" style="111" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="111"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="54" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="123" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="111">
+        <v>2</v>
+      </c>
+      <c r="F2" s="111">
+        <v>100</v>
+      </c>
+      <c r="G2" s="111">
+        <v>100</v>
+      </c>
+      <c r="H2" s="111">
+        <v>33</v>
+      </c>
+      <c r="I2" s="111">
+        <v>20</v>
+      </c>
+      <c r="J2" s="111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="123" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="111" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="111">
+        <v>1</v>
+      </c>
+      <c r="F3" s="111">
+        <v>150</v>
+      </c>
+      <c r="G3" s="111">
+        <v>100</v>
+      </c>
+      <c r="H3" s="111">
+        <v>33</v>
+      </c>
+      <c r="I3" s="111">
+        <v>40</v>
+      </c>
+      <c r="J3" s="111">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="123" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="122" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="111">
+        <v>10</v>
+      </c>
+      <c r="F4" s="111">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="111">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="111">
+        <v>100000</v>
+      </c>
+      <c r="I4" s="111">
+        <v>100</v>
+      </c>
+      <c r="J4" s="111">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="122"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="122"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="122"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7343,22 +8933,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="537" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="537"/>
   </bookViews>
   <sheets>
-    <sheet name="主角属性" sheetId="1" r:id="rId1"/>
-    <sheet name="怪物属性" sheetId="2" r:id="rId2"/>
-    <sheet name="伤害公式" sheetId="4" r:id="rId3"/>
-    <sheet name="数值模拟" sheetId="10" r:id="rId4"/>
-    <sheet name="Buff状态列表" sheetId="8" r:id="rId5"/>
-    <sheet name="怪物列表" sheetId="5" r:id="rId6"/>
-    <sheet name="武器列表" sheetId="6" r:id="rId7"/>
+    <sheet name="全局参数" sheetId="11" r:id="rId1"/>
+    <sheet name="主角属性" sheetId="1" r:id="rId2"/>
+    <sheet name="怪物属性" sheetId="2" r:id="rId3"/>
+    <sheet name="伤害公式" sheetId="4" r:id="rId4"/>
+    <sheet name="数值模拟" sheetId="10" r:id="rId5"/>
+    <sheet name="Buff状态列表" sheetId="8" r:id="rId6"/>
+    <sheet name="怪物列表" sheetId="5" r:id="rId7"/>
+    <sheet name="武器列表" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -371,34 +372,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="292">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻修正系数</t>
@@ -414,190 +415,190 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -607,39 +608,39 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -655,71 +656,71 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -735,11 +736,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -755,31 +756,31 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -795,63 +796,63 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -867,51 +868,51 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -927,7 +928,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -943,15 +944,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -967,11 +968,11 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -987,23 +988,23 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0-0</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式位移</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ActionMovement</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画集合</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SoftSpotTriggerAnim</t>
@@ -1035,228 +1036,228 @@
       </rPr>
       <t>Animmation</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>强制主角进入击飞、击倒等</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式强制主角播放的动画</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>InforcedAnimation</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。无论任何时刻，对于远程普攻没有次数限制，因为它已经被飞刀数量限制。</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定，长按的总时长达到这个时长，就进入蓄力这个动画状态；</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力技释放时刻（s）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ChargeReleaseTime_Min</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定了进入蓄力状态后，至少要经过这么多时间才能释放蓄力技能；</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>决定单次招式对精力的消耗值；</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>任何合法的状态转换都可以在本动画的取消区间内取消部分动作，立即转入下一个动画；</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>在进入蓄力状态后，经过这么多时长后会被迫释放蓄力；</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>命中次数(n)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>单次额外伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>累积额外伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>累积伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害占单次总伤害占比</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害/基础伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>预设BossHP</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>当前此伤害/基础伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>公式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成削刃</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>主角对怪物</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>普通部位受击招式修正系数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>弱点部位受击招式修正系数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>子类</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>可触发弱点连击的招式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮攻击频率</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮伤害FloatingBladeATK  *  怪物_弱点刀刃悬浮修正系数FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>(主角_基础削刃BasicToughnessCut+主角_武器削刃)  *  主角_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮削刃</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>常规招式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮削刃FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>远程普攻伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>（主角_基础伤害BasicATK+主角_近战普攻伤害MeleeATK）*  招式伤害修正系数ActionAKTFactor  *  怪物_受击部位招式修正系数Factor
 +弱点连击累计次数n  *  连击额外伤害累增量ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>飞刀插中、拔出弱点</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1273,7 +1274,7 @@
       </rPr>
       <t>伤害</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1290,39 +1291,39 @@
       </rPr>
       <t>削刃</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>类别①</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>类别②</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础伤害BasicATK  *  怪物_招式伤害修正系数ActionAKTFactor</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础削刃ToughnessCut  *  怪物_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1348,39 +1349,39 @@
       </rPr>
       <t xml:space="preserve">  *  刀刃插中、拔出弱点修正系数FloatingBladeATK_Factor_StabOrExtractOut</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复滞后(s)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverDelay</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性安全值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Toughness_Safe</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>对应硬直动画</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1396,19 +1397,19 @@
       </rPr>
       <t>taggerAnimation_Player</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>如果本招式触发硬直，则会造成受击放播放哪一种硬直动画，这是指定值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>StaggerAnimation_Monster</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>恢复生命精力消耗</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1434,11 +1435,11 @@
       </rPr>
       <t>naConsume</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>单次恢复生命百分比</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1454,243 +1455,285 @@
       </rPr>
       <t>aling_HP_Ratio</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>总所需最大连击轮数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>第n次连击伤害：An</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>单次伤害占总比</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>设定值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>远程普攻</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>刀刃悬浮</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>刀刃插中</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>武器近战普攻伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数（主角）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>受击部位招式修正系数（怪物弱点）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>B 非连击伤害（a1）模拟</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>a1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>A 弱点连击伤害模拟</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>单轮伤害次数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>a1占比</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>主角对Boss</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>单次攻击伤害占比</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>角色单次恢复占比</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Name </t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Min</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>单轮总伤害占比</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>A0 基准设定表</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性削减</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATKMultiplier_Max</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力最大伤害倍数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>刀刃插中、拔出弱点修正系数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_StabOrExtractOut</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>C0 削刃基准设定</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>最小削刃百分比</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>最大削刃百分比</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>生命</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>所在区域</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>难度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>赶尸人（铃铛）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>赶尸人（近战）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>帝女</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>小怪</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Boss</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>02-1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>01-1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>01-2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">子类 </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>残影扣减延迟时间</t>
+  </si>
+  <si>
+    <t>HPCutShadow_Delay</t>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>血条</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>残影缩短速度</t>
+  </si>
+  <si>
+    <t>HPCutShadow_Speed</t>
+  </si>
+  <si>
+    <t>死亡时残影缩短速度</t>
+  </si>
+  <si>
+    <t>HPCutShadow_Death_Speed</t>
+  </si>
+  <si>
+    <t>子弹时间</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1701,13 +1744,20 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1886,6 +1936,25 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="KaiTi"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="KaiTi"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="KaiTi"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2279,387 +2348,399 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2720,7 +2801,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2821,11 +2901,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-777966704"/>
-        <c:axId val="-777967792"/>
+        <c:axId val="-1259937776"/>
+        <c:axId val="-1259942672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-777966704"/>
+        <c:axId val="-1259937776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +2948,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777967792"/>
+        <c:crossAx val="-1259942672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2876,7 +2956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-777967792"/>
+        <c:axId val="-1259942672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,7 +3007,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777966704"/>
+        <c:crossAx val="-1259937776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3024,7 +3104,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3136,11 +3215,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-777973232"/>
-        <c:axId val="-777963440"/>
+        <c:axId val="-1259929616"/>
+        <c:axId val="-1259934512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-777973232"/>
+        <c:axId val="-1259929616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,12 +3275,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777963440"/>
+        <c:crossAx val="-1259934512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-777963440"/>
+        <c:axId val="-1259934512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3258,7 +3337,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777973232"/>
+        <c:crossAx val="-1259929616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3634,11 +3713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-777977040"/>
-        <c:axId val="-777968880"/>
+        <c:axId val="-1259929072"/>
+        <c:axId val="-1259927984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-777977040"/>
+        <c:axId val="-1259929072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3695,12 +3774,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777968880"/>
+        <c:crossAx val="-1259927984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-777968880"/>
+        <c:axId val="-1259927984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3757,7 +3836,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777977040"/>
+        <c:crossAx val="-1259929072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3771,7 +3850,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5954,6 +6032,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" style="125" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="125"/>
+    <col min="3" max="3" width="21.21875" style="125" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="125" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="85" customFormat="1" ht="16.2">
+      <c r="A1" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="127" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="126" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="128" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="128" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="127"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="127"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="127"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="127"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="127"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="127"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="127" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="127"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="127"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="127"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="127"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="127"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="127"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A12:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5963,7 +6163,7 @@
       <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
@@ -5974,7 +6174,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="19.2" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5994,14 +6194,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:6" ht="15.6">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="87"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
@@ -6009,9 +6209,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="87" t="s">
+    <row r="3" spans="1:6" ht="15.6">
+      <c r="A3" s="94"/>
+      <c r="B3" s="96" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6024,9 +6224,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="87"/>
+    <row r="4" spans="1:6" ht="31.2">
+      <c r="A4" s="94"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
@@ -6037,9 +6237,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="46" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="87"/>
+    <row r="5" spans="1:6" s="46" customFormat="1" ht="31.2">
+      <c r="A5" s="94"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="53" t="s">
         <v>217</v>
       </c>
@@ -6051,9 +6251,9 @@
       </c>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="87"/>
+    <row r="6" spans="1:6" s="46" customFormat="1" ht="15.6">
+      <c r="A6" s="94"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="53" t="s">
         <v>219</v>
       </c>
@@ -6065,13 +6265,13 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="87"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="87" t="s">
+    <row r="7" spans="1:6" ht="15.6">
+      <c r="A7" s="94"/>
+      <c r="B7" s="96"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -6084,9 +6284,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
-      <c r="B9" s="87"/>
+    <row r="9" spans="1:6" ht="31.2">
+      <c r="A9" s="94"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
@@ -6097,9 +6297,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="40" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="87"/>
+    <row r="10" spans="1:6" s="40" customFormat="1" ht="31.2">
+      <c r="A10" s="94"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="49" t="s">
         <v>207</v>
       </c>
@@ -6110,9 +6310,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
-      <c r="B11" s="87"/>
+    <row r="11" spans="1:6" s="40" customFormat="1" ht="15.6">
+      <c r="A11" s="94"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="49" t="s">
         <v>211</v>
       </c>
@@ -6123,9 +6323,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-      <c r="B12" s="87"/>
+    <row r="12" spans="1:6" ht="31.2">
+      <c r="A12" s="94"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
@@ -6136,13 +6336,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="87"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
-      <c r="B14" s="87" t="s">
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="94"/>
+      <c r="B13" s="96"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="94"/>
+      <c r="B14" s="96" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -6155,9 +6355,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="87"/>
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="94"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="41" t="s">
         <v>163</v>
       </c>
@@ -6168,24 +6368,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="87"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="87" t="s">
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="94"/>
+      <c r="B16" s="96"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="94"/>
+      <c r="B17" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="87"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="88" t="s">
+    <row r="18" spans="1:6" ht="31.2">
+      <c r="A18" s="94"/>
+      <c r="B18" s="101" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -6198,9 +6398,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="88"/>
+    <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2">
+      <c r="A19" s="94"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="10" t="s">
         <v>103</v>
       </c>
@@ -6212,9 +6412,9 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="88"/>
+    <row r="20" spans="1:6" s="7" customFormat="1" ht="31.2">
+      <c r="A20" s="94"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="10" t="s">
         <v>101</v>
       </c>
@@ -6226,9 +6426,9 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="88"/>
+    <row r="21" spans="1:6" s="7" customFormat="1" ht="31.2">
+      <c r="A21" s="94"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="10" t="s">
         <v>104</v>
       </c>
@@ -6240,21 +6440,21 @@
       </c>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="87"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
+    <row r="22" spans="1:6" ht="15.6">
+      <c r="A22" s="94"/>
+      <c r="B22" s="96"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6">
+      <c r="A23" s="94"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
+      <c r="A24" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="87"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="41" t="s">
         <v>169</v>
       </c>
@@ -6262,9 +6462,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="87" t="s">
+    <row r="25" spans="1:6" ht="31.2">
+      <c r="A25" s="94"/>
+      <c r="B25" s="96" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="41" t="s">
@@ -6277,13 +6477,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="87"/>
-    </row>
-    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="87" t="s">
+    <row r="26" spans="1:6" ht="15.6">
+      <c r="A26" s="94"/>
+      <c r="B26" s="96"/>
+    </row>
+    <row r="27" spans="1:6" ht="31.2">
+      <c r="A27" s="94"/>
+      <c r="B27" s="96" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="82" t="s">
@@ -6296,9 +6496,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="50" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="87"/>
+    <row r="28" spans="1:6" s="50" customFormat="1" ht="31.2">
+      <c r="A28" s="94"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="82" t="s">
         <v>256</v>
       </c>
@@ -6310,9 +6510,9 @@
       </c>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
-      <c r="B29" s="87"/>
+    <row r="29" spans="1:6" ht="15.6">
+      <c r="A29" s="94"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="41" t="s">
         <v>192</v>
       </c>
@@ -6323,9 +6523,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
-      <c r="B30" s="87"/>
+    <row r="30" spans="1:6" ht="15.6">
+      <c r="A30" s="94"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="41" t="s">
         <v>179</v>
       </c>
@@ -6336,9 +6536,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
-      <c r="B31" s="87"/>
+    <row r="31" spans="1:6" s="39" customFormat="1" ht="31.2">
+      <c r="A31" s="94"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="41" t="s">
         <v>186</v>
       </c>
@@ -6350,9 +6550,9 @@
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="87"/>
+    <row r="32" spans="1:6" ht="31.2">
+      <c r="A32" s="94"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="41" t="s">
         <v>178</v>
       </c>
@@ -6363,13 +6563,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
-      <c r="B33" s="87"/>
-    </row>
-    <row r="34" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="87" t="s">
+    <row r="33" spans="1:6" ht="15.6">
+      <c r="A33" s="94"/>
+      <c r="B33" s="96"/>
+    </row>
+    <row r="34" spans="1:6" ht="31.2">
+      <c r="A34" s="94"/>
+      <c r="B34" s="96" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -6380,9 +6580,9 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
-      <c r="B35" s="87"/>
+    <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2">
+      <c r="A35" s="94"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="13" t="s">
         <v>111</v>
       </c>
@@ -6392,9 +6592,9 @@
       <c r="E35" s="6"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="91"/>
-      <c r="B36" s="87"/>
+    <row r="36" spans="1:6" s="9" customFormat="1" ht="31.2">
+      <c r="A36" s="94"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="13" t="s">
         <v>112</v>
       </c>
@@ -6404,9 +6604,9 @@
       <c r="E36" s="6"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
-      <c r="B37" s="87"/>
+    <row r="37" spans="1:6" s="9" customFormat="1" ht="31.2">
+      <c r="A37" s="94"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="13" t="s">
         <v>113</v>
       </c>
@@ -6416,17 +6616,17 @@
       <c r="E37" s="6"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="87"/>
+    <row r="38" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A38" s="94"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="6"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
-      <c r="B39" s="87" t="s">
+    <row r="39" spans="1:6" ht="31.2">
+      <c r="A39" s="94"/>
+      <c r="B39" s="96" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6439,9 +6639,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="87"/>
+    <row r="40" spans="1:6" ht="31.2">
+      <c r="A40" s="94"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="1" t="s">
         <v>69</v>
       </c>
@@ -6450,9 +6650,9 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
-      <c r="B41" s="87"/>
+    <row r="41" spans="1:6" ht="31.2">
+      <c r="A41" s="94"/>
+      <c r="B41" s="96"/>
       <c r="C41" s="1" t="s">
         <v>70</v>
       </c>
@@ -6463,9 +6663,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="87"/>
+    <row r="42" spans="1:6" ht="31.2">
+      <c r="A42" s="94"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="1" t="s">
         <v>71</v>
       </c>
@@ -6474,9 +6674,9 @@
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
-      <c r="B43" s="87"/>
+    <row r="43" spans="1:6" ht="31.2">
+      <c r="A43" s="94"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="1" t="s">
         <v>79</v>
       </c>
@@ -6487,9 +6687,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
-      <c r="B44" s="87"/>
+    <row r="44" spans="1:6" ht="31.2">
+      <c r="A44" s="94"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="8" t="s">
         <v>97</v>
       </c>
@@ -6500,37 +6700,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="91"/>
-      <c r="B45" s="87"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="91"/>
-      <c r="B46" s="87"/>
-    </row>
-    <row r="47" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
-    </row>
-    <row r="48" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
-    </row>
-    <row r="49" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
-    </row>
-    <row r="50" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="91" t="s">
+    <row r="45" spans="1:6" ht="15.6">
+      <c r="A45" s="94"/>
+      <c r="B45" s="96"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.6">
+      <c r="A46" s="94"/>
+      <c r="B46" s="96"/>
+    </row>
+    <row r="47" spans="1:6" ht="31.2" customHeight="1">
+      <c r="A47" s="94"/>
+    </row>
+    <row r="48" spans="1:6" ht="31.2" customHeight="1">
+      <c r="A48" s="94"/>
+    </row>
+    <row r="49" spans="1:6" ht="31.2" customHeight="1">
+      <c r="A49" s="94"/>
+    </row>
+    <row r="50" spans="1:6" ht="31.2" customHeight="1">
+      <c r="A50" s="94"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.6">
+      <c r="A51" s="94"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.6">
+      <c r="A52" s="94"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.6">
+      <c r="A53" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="89" t="s">
+      <c r="B53" s="102" t="s">
         <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -6546,9 +6746,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
-      <c r="B54" s="87"/>
+    <row r="54" spans="1:6" s="28" customFormat="1" ht="31.2">
+      <c r="A54" s="94"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="30" t="s">
         <v>147</v>
       </c>
@@ -6562,9 +6762,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="91"/>
-      <c r="B55" s="87"/>
+    <row r="55" spans="1:6" ht="15.6">
+      <c r="A55" s="94"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="1" t="s">
         <v>81</v>
       </c>
@@ -6578,9 +6778,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
-      <c r="B56" s="87"/>
+    <row r="56" spans="1:6" ht="42.6" customHeight="1">
+      <c r="A56" s="94"/>
+      <c r="B56" s="96"/>
       <c r="C56" s="1" t="s">
         <v>19</v>
       </c>
@@ -6590,9 +6790,9 @@
       <c r="E56"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
-      <c r="B57" s="87" t="s">
+    <row r="57" spans="1:6" ht="36" customHeight="1">
+      <c r="A57" s="94"/>
+      <c r="B57" s="96" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="41" t="s">
@@ -6605,9 +6805,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="91"/>
-      <c r="B58" s="87"/>
+    <row r="58" spans="1:6" ht="15.6">
+      <c r="A58" s="94"/>
+      <c r="B58" s="96"/>
       <c r="C58" s="41" t="s">
         <v>170</v>
       </c>
@@ -6618,12 +6818,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="91"/>
-      <c r="B59" s="87" t="s">
+    <row r="59" spans="1:6" ht="31.2">
+      <c r="A59" s="94"/>
+      <c r="B59" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="87"/>
+      <c r="C59" s="96"/>
       <c r="D59" s="1" t="s">
         <v>44</v>
       </c>
@@ -6634,21 +6834,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
-      <c r="B60" s="87" t="s">
+    <row r="60" spans="1:6" ht="15.6">
+      <c r="A60" s="94"/>
+      <c r="B60" s="96" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="91"/>
-      <c r="B61" s="87"/>
+    <row r="61" spans="1:6" ht="15.6">
+      <c r="A61" s="94"/>
+      <c r="B61" s="96"/>
       <c r="D61" s="15"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="91"/>
-      <c r="B62" s="87"/>
+    <row r="62" spans="1:6" s="11" customFormat="1" ht="31.2">
+      <c r="A62" s="94"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="15" t="s">
         <v>118</v>
       </c>
@@ -6660,34 +6860,34 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="91"/>
-      <c r="B63" s="87"/>
+    <row r="63" spans="1:6" s="11" customFormat="1" ht="15.6">
+      <c r="A63" s="94"/>
+      <c r="B63" s="96"/>
       <c r="D63" s="12"/>
       <c r="E63" s="6"/>
       <c r="F63" s="16"/>
     </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="91"/>
-      <c r="B64" s="87"/>
-    </row>
-    <row r="65" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="91"/>
-      <c r="B65" s="94" t="s">
+    <row r="64" spans="1:6" ht="15.6">
+      <c r="A64" s="94"/>
+      <c r="B64" s="96"/>
+    </row>
+    <row r="65" spans="1:6" ht="31.2" customHeight="1">
+      <c r="A65" s="94"/>
+      <c r="B65" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="94"/>
+      <c r="C65" s="98"/>
       <c r="D65" s="21" t="s">
         <v>135</v>
       </c>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
-      <c r="B66" s="94" t="s">
+    <row r="66" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A66" s="94"/>
+      <c r="B66" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="94"/>
+      <c r="C66" s="98"/>
       <c r="D66" s="8" t="s">
         <v>92</v>
       </c>
@@ -6696,12 +6896,12 @@
       </c>
       <c r="F66" s="16"/>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="91"/>
-      <c r="B67" s="94" t="s">
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A67" s="94"/>
+      <c r="B67" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="87"/>
+      <c r="C67" s="96"/>
       <c r="D67" s="8" t="s">
         <v>95</v>
       </c>
@@ -6710,24 +6910,24 @@
       </c>
       <c r="F67" s="16"/>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
-      <c r="B68" s="94" t="s">
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A68" s="94"/>
+      <c r="B68" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="87"/>
+      <c r="C68" s="96"/>
       <c r="D68" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
-      <c r="B69" s="93" t="s">
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A69" s="94"/>
+      <c r="B69" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="87"/>
+      <c r="C69" s="96"/>
       <c r="D69" s="15" t="s">
         <v>126</v>
       </c>
@@ -6738,12 +6938,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="40" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
-      <c r="B70" s="85" t="s">
+    <row r="70" spans="1:6" s="40" customFormat="1" ht="36.6" customHeight="1">
+      <c r="A70" s="94"/>
+      <c r="B70" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="C70" s="86"/>
+      <c r="C70" s="100"/>
       <c r="D70" s="49" t="s">
         <v>216</v>
       </c>
@@ -6754,58 +6954,58 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
+    <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A71" s="94"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
     </row>
-    <row r="72" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="91"/>
+    <row r="72" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A72" s="94"/>
       <c r="C72" s="14"/>
       <c r="D72" s="13"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
     </row>
-    <row r="73" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="91"/>
+    <row r="73" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A73" s="94"/>
       <c r="C73" s="14"/>
       <c r="D73" s="13"/>
       <c r="E73" s="17"/>
       <c r="F73" s="16"/>
     </row>
-    <row r="74" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="91"/>
+    <row r="74" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A74" s="94"/>
       <c r="C74" s="14"/>
       <c r="D74" s="13"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16"/>
     </row>
-    <row r="75" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="91"/>
+    <row r="75" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A75" s="94"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
       <c r="D75" s="13"/>
       <c r="E75" s="17"/>
       <c r="F75" s="16"/>
     </row>
-    <row r="76" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="91"/>
+    <row r="76" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A76" s="94"/>
       <c r="C76" s="14"/>
       <c r="D76" s="13"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="91"/>
+    <row r="77" spans="1:6" ht="15.6">
+      <c r="A77" s="94"/>
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="91" t="s">
+    <row r="78" spans="1:6" ht="15.6">
+      <c r="A78" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="92" t="s">
+      <c r="B78" s="95" t="s">
         <v>121</v>
       </c>
       <c r="C78" s="22" t="s">
@@ -6818,9 +7018,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="91"/>
-      <c r="B79" s="87"/>
+    <row r="79" spans="1:6" ht="15.6">
+      <c r="A79" s="94"/>
+      <c r="B79" s="96"/>
       <c r="C79" s="15" t="s">
         <v>129</v>
       </c>
@@ -6831,27 +7031,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="91"/>
-      <c r="B80" s="87"/>
+    <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6">
+      <c r="A80" s="94"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="F80" s="16"/>
     </row>
-    <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="91"/>
-      <c r="B81" s="87"/>
+    <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6">
+      <c r="A81" s="94"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="91"/>
-      <c r="B82" s="87"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="91"/>
-      <c r="B83" s="92" t="s">
+    <row r="82" spans="1:6" ht="15.6">
+      <c r="A82" s="94"/>
+      <c r="B82" s="96"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.6">
+      <c r="A83" s="94"/>
+      <c r="B83" s="95" t="s">
         <v>122</v>
       </c>
       <c r="C83" s="15" t="s">
@@ -6864,33 +7064,33 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="91"/>
-      <c r="B84" s="87"/>
+    <row r="84" spans="1:6" ht="15.6">
+      <c r="A84" s="94"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="91"/>
-      <c r="B85" s="87"/>
+    <row r="85" spans="1:6" s="19" customFormat="1" ht="15.6">
+      <c r="A85" s="94"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="91"/>
-      <c r="B86" s="87"/>
+    <row r="86" spans="1:6" s="19" customFormat="1" ht="15.6">
+      <c r="A86" s="94"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="20"/>
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="91"/>
-      <c r="B87" s="87"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="91"/>
-      <c r="B88" s="92" t="s">
+    <row r="87" spans="1:6" ht="15.6">
+      <c r="A87" s="94"/>
+      <c r="B87" s="96"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.6">
+      <c r="A88" s="94"/>
+      <c r="B88" s="95" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -6903,17 +7103,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="91"/>
-      <c r="B89" s="87"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="91"/>
-      <c r="B90" s="87"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="91"/>
-      <c r="B91" s="92" t="s">
+    <row r="89" spans="1:6" ht="15.6">
+      <c r="A89" s="94"/>
+      <c r="B89" s="96"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.6">
+      <c r="A90" s="94"/>
+      <c r="B90" s="96"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.6">
+      <c r="A91" s="94"/>
+      <c r="B91" s="95" t="s">
         <v>124</v>
       </c>
       <c r="C91" s="15" t="s">
@@ -6926,9 +7126,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="91"/>
-      <c r="B92" s="87"/>
+    <row r="92" spans="1:6" ht="31.2">
+      <c r="A92" s="94"/>
+      <c r="B92" s="96"/>
       <c r="C92" s="26" t="s">
         <v>136</v>
       </c>
@@ -6936,49 +7136,62 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="91"/>
-      <c r="B93" s="87"/>
+    <row r="93" spans="1:6" s="19" customFormat="1" ht="15.6">
+      <c r="A93" s="94"/>
+      <c r="B93" s="96"/>
       <c r="C93" s="13"/>
       <c r="D93" s="20"/>
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="1:6" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="91"/>
-      <c r="B94" s="87"/>
+    <row r="94" spans="1:6" s="19" customFormat="1" ht="15.6">
+      <c r="A94" s="94"/>
+      <c r="B94" s="96"/>
       <c r="C94" s="13"/>
       <c r="D94" s="20"/>
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="91"/>
-      <c r="B95" s="87"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="91"/>
+    <row r="95" spans="1:6" ht="15.6">
+      <c r="A95" s="94"/>
+      <c r="B95" s="96"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.6">
+      <c r="A96" s="94"/>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A97" s="91"/>
+    <row r="97" spans="1:2" ht="15.6">
+      <c r="A97" s="94"/>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="91"/>
+    <row r="98" spans="1:2" ht="15.6">
+      <c r="A98" s="94"/>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="91"/>
+    <row r="99" spans="1:2" ht="15.6">
+      <c r="A99" s="94"/>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="91"/>
+    <row r="100" spans="1:2" ht="15.6">
+      <c r="A100" s="94"/>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A101" s="91"/>
+    <row r="101" spans="1:2" ht="15.6">
+      <c r="A101" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A52"/>
     <mergeCell ref="A53:A77"/>
@@ -6995,28 +7208,15 @@
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
@@ -7027,7 +7227,7 @@
       <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
@@ -7037,7 +7237,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7057,14 +7257,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:6" ht="15.6">
+      <c r="A2" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="87"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
@@ -7072,9 +7272,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="97" t="s">
+    <row r="3" spans="1:6" ht="15.6">
+      <c r="A3" s="94"/>
+      <c r="B3" s="104" t="s">
         <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7087,9 +7287,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="87"/>
+    <row r="4" spans="1:6" ht="31.2">
+      <c r="A4" s="94"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
@@ -7100,9 +7300,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="87"/>
+    <row r="5" spans="1:6" ht="31.2">
+      <c r="A5" s="94"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="49" t="s">
         <v>207</v>
       </c>
@@ -7113,9 +7313,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="87"/>
+    <row r="6" spans="1:6" s="40" customFormat="1" ht="15.6">
+      <c r="A6" s="94"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="49" t="s">
         <v>211</v>
       </c>
@@ -7126,9 +7326,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="87"/>
+    <row r="7" spans="1:6" ht="31.2">
+      <c r="A7" s="94"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
@@ -7139,9 +7339,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="87" t="s">
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -7154,9 +7354,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
-      <c r="B9" s="87"/>
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="94"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="41" t="s">
         <v>199</v>
       </c>
@@ -7167,31 +7367,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="87" t="s">
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="94"/>
+      <c r="B10" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="87"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="40"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-    </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="94"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="94"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="94"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2">
+      <c r="A14" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="103" t="s">
         <v>171</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -7204,9 +7404,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="87"/>
+    <row r="15" spans="1:6" ht="31.2">
+      <c r="A15" s="94"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -7217,9 +7417,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="87"/>
+    <row r="16" spans="1:6" ht="31.2">
+      <c r="A16" s="94"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -7230,9 +7430,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="87"/>
+    <row r="17" spans="1:5" ht="31.2">
+      <c r="A17" s="94"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
@@ -7243,9 +7443,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="87"/>
+    <row r="18" spans="1:5" ht="31.2">
+      <c r="A18" s="94"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
@@ -7256,17 +7456,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="87"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="87"/>
-    </row>
-    <row r="21" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="90" t="s">
+    <row r="19" spans="1:5" ht="15.6">
+      <c r="A19" s="94"/>
+      <c r="B19" s="96"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6">
+      <c r="A20" s="94"/>
+      <c r="B20" s="96"/>
+    </row>
+    <row r="21" spans="1:5" ht="35.4" customHeight="1">
+      <c r="A21" s="94"/>
+      <c r="B21" s="103" t="s">
         <v>172</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -7279,9 +7479,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="87"/>
+    <row r="22" spans="1:5" ht="31.2">
+      <c r="A22" s="94"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
@@ -7292,9 +7492,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="87"/>
+    <row r="23" spans="1:5" ht="31.2">
+      <c r="A23" s="94"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
@@ -7305,9 +7505,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="87"/>
+    <row r="24" spans="1:5" ht="46.8">
+      <c r="A24" s="94"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -7318,9 +7518,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="87"/>
+    <row r="25" spans="1:5" ht="46.2" customHeight="1">
+      <c r="A25" s="94"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="41" t="s">
         <v>180</v>
       </c>
@@ -7331,9 +7531,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="87"/>
+    <row r="26" spans="1:5" ht="31.2">
+      <c r="A26" s="94"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
@@ -7344,38 +7544,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="39" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="111" t="s">
+    <row r="27" spans="1:5" s="39" customFormat="1" ht="46.8">
+      <c r="A27" s="94"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="86" t="s">
         <v>258</v>
       </c>
       <c r="E27" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="87"/>
-    </row>
-    <row r="29" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
-      <c r="B29" s="87"/>
-    </row>
-    <row r="30" spans="1:5" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
-      <c r="B30" s="87"/>
-    </row>
-    <row r="31" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
-      <c r="B31" s="87"/>
-    </row>
-    <row r="32" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="87" t="s">
+    <row r="28" spans="1:5" s="39" customFormat="1" ht="15.6">
+      <c r="A28" s="94"/>
+      <c r="B28" s="96"/>
+    </row>
+    <row r="29" spans="1:5" s="39" customFormat="1" ht="15.6">
+      <c r="A29" s="94"/>
+      <c r="B29" s="96"/>
+    </row>
+    <row r="30" spans="1:5" s="39" customFormat="1" ht="15.6">
+      <c r="A30" s="94"/>
+      <c r="B30" s="96"/>
+    </row>
+    <row r="31" spans="1:5" s="33" customFormat="1" ht="15.6">
+      <c r="A31" s="94"/>
+      <c r="B31" s="96"/>
+    </row>
+    <row r="32" spans="1:5" s="33" customFormat="1" ht="31.2">
+      <c r="A32" s="94"/>
+      <c r="B32" s="96" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="41" t="s">
@@ -7388,9 +7588,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
-      <c r="B33" s="87"/>
+    <row r="33" spans="1:5" s="33" customFormat="1" ht="15.6">
+      <c r="A33" s="94"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,9 +7601,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="87"/>
+    <row r="34" spans="1:5" s="33" customFormat="1" ht="31.2">
+      <c r="A34" s="94"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
@@ -7414,9 +7614,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
-      <c r="B35" s="87"/>
+    <row r="35" spans="1:5" s="33" customFormat="1" ht="15.6">
+      <c r="A35" s="94"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="8" t="s">
         <v>89</v>
       </c>
@@ -7427,56 +7627,56 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="91"/>
-      <c r="B36" s="87"/>
+    <row r="36" spans="1:5" s="33" customFormat="1" ht="15.6">
+      <c r="A36" s="94"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
+    <row r="37" spans="1:5" s="33" customFormat="1" ht="15.6">
+      <c r="A37" s="94"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
+    <row r="38" spans="1:5" s="33" customFormat="1" ht="15.6">
+      <c r="A38" s="94"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
+    <row r="39" spans="1:5" s="33" customFormat="1" ht="15.6">
+      <c r="A39" s="94"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
+    <row r="40" spans="1:5" s="33" customFormat="1" ht="15.6">
+      <c r="A40" s="94"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
+    <row r="41" spans="1:5" s="33" customFormat="1" ht="15.6">
+      <c r="A41" s="94"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
+    <row r="42" spans="1:5" s="33" customFormat="1" ht="15.6">
+      <c r="A42" s="94"/>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="15.6">
+      <c r="A43" s="94"/>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
+    <row r="44" spans="1:5" ht="15.6">
+      <c r="A44" s="94"/>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="91"/>
-    </row>
-    <row r="46" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
+    <row r="45" spans="1:5" ht="15.6">
+      <c r="A45" s="94"/>
+    </row>
+    <row r="46" spans="1:5" ht="31.2">
+      <c r="A46" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="87"/>
+      <c r="C46" s="96"/>
       <c r="D46" s="8" t="s">
         <v>94</v>
       </c>
@@ -7484,12 +7684,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
-      <c r="B47" s="87" t="s">
+    <row r="47" spans="1:5" ht="15.6" customHeight="1">
+      <c r="A47" s="94"/>
+      <c r="B47" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="87"/>
+      <c r="C47" s="96"/>
       <c r="D47" s="1" t="s">
         <v>63</v>
       </c>
@@ -7497,34 +7697,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
-      <c r="B48" s="96" t="s">
+    <row r="48" spans="1:5" ht="15.6" customHeight="1">
+      <c r="A48" s="94"/>
+      <c r="B48" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="96"/>
+      <c r="C48" s="106"/>
       <c r="D48" s="27" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
-      <c r="B49" s="94" t="s">
+    <row r="49" spans="1:6" ht="15.6">
+      <c r="A49" s="94"/>
+      <c r="B49" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="94"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="25" t="s">
         <v>135</v>
       </c>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
-      <c r="B50" s="94" t="s">
+    <row r="50" spans="1:6" ht="15.6" customHeight="1">
+      <c r="A50" s="94"/>
+      <c r="B50" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="94"/>
+      <c r="C50" s="98"/>
       <c r="D50" s="12" t="s">
         <v>92</v>
       </c>
@@ -7532,9 +7732,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
-      <c r="B51" s="87" t="s">
+    <row r="51" spans="1:6" ht="32.4" customHeight="1">
+      <c r="A51" s="94"/>
+      <c r="B51" s="96" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="24" t="s">
@@ -7547,9 +7747,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="87"/>
+    <row r="52" spans="1:6" ht="16.2" customHeight="1">
+      <c r="A52" s="94"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="41" t="s">
         <v>170</v>
       </c>
@@ -7560,12 +7760,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="91"/>
-      <c r="B53" s="95" t="s">
+    <row r="53" spans="1:6" ht="16.2" customHeight="1">
+      <c r="A53" s="94"/>
+      <c r="B53" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="87"/>
+      <c r="C53" s="96"/>
       <c r="D53" s="27" t="s">
         <v>143</v>
       </c>
@@ -7574,12 +7774,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
-      <c r="B54" s="85" t="s">
+    <row r="54" spans="1:6" ht="36.6" customHeight="1">
+      <c r="A54" s="94"/>
+      <c r="B54" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="C54" s="86"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="49" t="s">
         <v>214</v>
       </c>
@@ -7590,28 +7790,37 @@
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="91"/>
-    </row>
-    <row r="56" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
-    </row>
-    <row r="57" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
-    </row>
-    <row r="58" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:6" ht="16.2" customHeight="1">
+      <c r="A55" s="94"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.2" customHeight="1">
+      <c r="A56" s="94"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.2" customHeight="1">
+      <c r="A57" s="94"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.2" customHeight="1"/>
+    <row r="59" spans="1:6" ht="16.2" customHeight="1"/>
+    <row r="60" spans="1:6" ht="16.2" customHeight="1"/>
+    <row r="61" spans="1:6" ht="16.2" customHeight="1"/>
+    <row r="62" spans="1:6" ht="16.2" customHeight="1"/>
+    <row r="63" spans="1:6" ht="16.2" customHeight="1"/>
+    <row r="64" spans="1:6" ht="16.2" customHeight="1"/>
+    <row r="65" ht="16.2" customHeight="1"/>
+    <row r="66" ht="16.2" customHeight="1"/>
+    <row r="67" ht="16.2" customHeight="1"/>
+    <row r="68" ht="16.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:A57"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A45"/>
     <mergeCell ref="B14:B20"/>
@@ -7621,24 +7830,15 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B21:B31"/>
-    <mergeCell ref="A46:A57"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B54:C54"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -7646,7 +7846,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="41" customWidth="1"/>
     <col min="2" max="3" width="26.77734375" style="42" customWidth="1"/>
@@ -7654,7 +7854,7 @@
     <col min="5" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="45.6" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>197</v>
       </c>
@@ -7668,33 +7868,33 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+    <row r="2" spans="1:4" ht="76.8" customHeight="1">
+      <c r="A2" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="44" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99" t="s">
+    <row r="3" spans="1:4" ht="76.8" customHeight="1">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="100"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="44" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+    <row r="4" spans="1:4" ht="73.8" customHeight="1">
+      <c r="A4" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="107" t="s">
         <v>195</v>
       </c>
       <c r="C4" s="44" t="s">
@@ -7704,9 +7904,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
+    <row r="5" spans="1:4" ht="73.8" customHeight="1">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="44" t="s">
         <v>194</v>
       </c>
@@ -7714,9 +7914,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
+    <row r="6" spans="1:4" ht="73.8" customHeight="1">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="44" t="s">
         <v>177</v>
       </c>
@@ -7724,9 +7924,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98" t="s">
+    <row r="7" spans="1:4" ht="97.8" customHeight="1">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107" t="s">
         <v>196</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -7736,9 +7936,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
+    <row r="8" spans="1:4" ht="83.4" customHeight="1">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="45" t="s">
         <v>188</v>
       </c>
@@ -7746,8 +7946,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+    <row r="9" spans="1:4" ht="105.6" customHeight="1">
+      <c r="A9" s="107"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -7761,79 +7961,79 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="11" width="8.88671875" style="36"/>
     <col min="12" max="12" width="14.77734375" style="36" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="51" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:30" s="51" customFormat="1" ht="16.2">
+      <c r="A1" s="110" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-    </row>
-    <row r="2" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.2" thickBot="1"/>
+    <row r="3" spans="1:30" ht="16.8" thickBot="1">
+      <c r="A3" s="111" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="104"/>
-    </row>
-    <row r="4" spans="1:30" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="113"/>
+    </row>
+    <row r="4" spans="1:30" ht="46.8">
       <c r="A4" s="62" t="s">
         <v>153</v>
       </c>
@@ -7871,7 +8071,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="16.2">
       <c r="A5" s="56">
         <v>1</v>
       </c>
@@ -7882,7 +8082,7 @@
         <f>B5/$K$5</f>
         <v>0.01</v>
       </c>
-      <c r="D5" s="107">
+      <c r="D5" s="116">
         <v>10</v>
       </c>
       <c r="E5" s="37">
@@ -7909,15 +8109,15 @@
         <f t="shared" ref="J5:J14" si="2">B5/$B$5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="107">
+      <c r="K5" s="116">
         <v>3000</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="118">
         <f>$K$5/$G$14</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="16.2">
       <c r="A6" s="56">
         <v>2</v>
       </c>
@@ -7929,7 +8129,7 @@
         <f t="shared" ref="C6:C14" si="3">B6/$K$5</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E14" si="4">(A6-1)*$D$5</f>
         <v>10</v>
@@ -7954,10 +8154,10 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K6" s="107"/>
-      <c r="L6" s="109"/>
-    </row>
-    <row r="7" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="K6" s="116"/>
+      <c r="L6" s="118"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.2">
       <c r="A7" s="56">
         <v>3</v>
       </c>
@@ -7969,7 +8169,7 @@
         <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="D7" s="107"/>
+      <c r="D7" s="116"/>
       <c r="E7" s="37">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -7994,10 +8194,10 @@
         <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="K7" s="107"/>
-      <c r="L7" s="109"/>
-    </row>
-    <row r="8" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="K7" s="116"/>
+      <c r="L7" s="118"/>
+    </row>
+    <row r="8" spans="1:30" ht="16.2">
       <c r="A8" s="56">
         <v>4</v>
       </c>
@@ -8009,7 +8209,7 @@
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="D8" s="107"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="37">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -8034,10 +8234,10 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="109"/>
-    </row>
-    <row r="9" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="K8" s="116"/>
+      <c r="L8" s="118"/>
+    </row>
+    <row r="9" spans="1:30" ht="16.2">
       <c r="A9" s="56">
         <v>5</v>
       </c>
@@ -8049,7 +8249,7 @@
         <f t="shared" si="3"/>
         <v>2.3333333333333334E-2</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="37">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -8074,10 +8274,10 @@
         <f t="shared" si="2"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="109"/>
-    </row>
-    <row r="10" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="K9" s="116"/>
+      <c r="L9" s="118"/>
+    </row>
+    <row r="10" spans="1:30" ht="16.2">
       <c r="A10" s="56">
         <v>6</v>
       </c>
@@ -8089,7 +8289,7 @@
         <f t="shared" si="3"/>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="D10" s="107"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="37">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -8114,10 +8314,10 @@
         <f t="shared" si="2"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="K10" s="107"/>
-      <c r="L10" s="109"/>
-    </row>
-    <row r="11" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="K10" s="116"/>
+      <c r="L10" s="118"/>
+    </row>
+    <row r="11" spans="1:30" ht="16.2">
       <c r="A11" s="56">
         <v>7</v>
       </c>
@@ -8129,7 +8329,7 @@
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="37">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -8154,10 +8354,10 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K11" s="107"/>
-      <c r="L11" s="109"/>
-    </row>
-    <row r="12" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="K11" s="116"/>
+      <c r="L11" s="118"/>
+    </row>
+    <row r="12" spans="1:30" ht="16.2">
       <c r="A12" s="56">
         <v>8</v>
       </c>
@@ -8169,7 +8369,7 @@
         <f t="shared" si="3"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="37">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -8194,10 +8394,10 @@
         <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="K12" s="107"/>
-      <c r="L12" s="109"/>
-    </row>
-    <row r="13" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="K12" s="116"/>
+      <c r="L12" s="118"/>
+    </row>
+    <row r="13" spans="1:30" ht="16.2">
       <c r="A13" s="56">
         <v>9</v>
       </c>
@@ -8209,7 +8409,7 @@
         <f t="shared" si="3"/>
         <v>3.6666666666666667E-2</v>
       </c>
-      <c r="D13" s="107"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="37">
         <f t="shared" si="4"/>
         <v>80</v>
@@ -8234,10 +8434,10 @@
         <f t="shared" si="2"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="K13" s="107"/>
-      <c r="L13" s="109"/>
-    </row>
-    <row r="14" spans="1:30" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="116"/>
+      <c r="L13" s="118"/>
+    </row>
+    <row r="14" spans="1:30" ht="16.8" thickBot="1">
       <c r="A14" s="58">
         <v>10</v>
       </c>
@@ -8249,7 +8449,7 @@
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="D14" s="108"/>
+      <c r="D14" s="117"/>
       <c r="E14" s="59">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -8274,35 +8474,35 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K14" s="108"/>
-      <c r="L14" s="110"/>
-    </row>
-    <row r="34" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:30" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="102" t="s">
+      <c r="K14" s="117"/>
+      <c r="L14" s="119"/>
+    </row>
+    <row r="34" spans="1:30" ht="16.2" thickBot="1"/>
+    <row r="35" spans="1:30" ht="16.8" customHeight="1" thickBot="1">
+      <c r="A35" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="104"/>
-      <c r="N35" s="116" t="s">
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="113"/>
+      <c r="N35" s="121" t="s">
         <v>259</v>
       </c>
-      <c r="O35" s="117"/>
-      <c r="P35" s="118"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="123"/>
       <c r="Q35" s="54"/>
       <c r="R35" s="54"/>
       <c r="S35" s="54"/>
     </row>
-    <row r="36" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="16.2">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -8315,7 +8515,7 @@
       <c r="J36" s="63"/>
       <c r="K36" s="63"/>
       <c r="L36" s="64"/>
-      <c r="N36" s="119" t="s">
+      <c r="N36" s="90" t="s">
         <v>245</v>
       </c>
       <c r="O36" s="43" t="s">
@@ -8328,7 +8528,7 @@
       <c r="R36" s="54"/>
       <c r="S36" s="54"/>
     </row>
-    <row r="37" spans="1:30" s="51" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" s="51" customFormat="1" ht="69" customHeight="1">
       <c r="A37" s="69" t="s">
         <v>226</v>
       </c>
@@ -8359,7 +8559,7 @@
       <c r="J37" s="43"/>
       <c r="K37" s="43"/>
       <c r="L37" s="70"/>
-      <c r="N37" s="119" t="s">
+      <c r="N37" s="90" t="s">
         <v>262</v>
       </c>
       <c r="O37" s="43" t="s">
@@ -8372,17 +8572,17 @@
       <c r="R37" s="54"/>
       <c r="S37" s="54"/>
     </row>
-    <row r="38" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
       <c r="A38" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="105">
+      <c r="B38" s="114">
         <v>0</v>
       </c>
-      <c r="C38" s="112">
+      <c r="C38" s="120">
         <v>20</v>
       </c>
-      <c r="D38" s="113">
+      <c r="D38" s="87">
         <v>1</v>
       </c>
       <c r="E38" s="72">
@@ -8412,20 +8612,20 @@
       <c r="O38" s="79">
         <v>0.34</v>
       </c>
-      <c r="P38" s="120">
+      <c r="P38" s="91">
         <v>1</v>
       </c>
       <c r="Q38" s="54"/>
       <c r="R38" s="54"/>
       <c r="S38" s="54"/>
     </row>
-    <row r="39" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
       <c r="A39" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="113">
+      <c r="B39" s="114"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="87">
         <v>3</v>
       </c>
       <c r="E39" s="72">
@@ -8455,22 +8655,22 @@
       <c r="O39" s="79">
         <v>0.66700000000000004</v>
       </c>
-      <c r="P39" s="120">
+      <c r="P39" s="91">
         <v>1</v>
       </c>
       <c r="Q39" s="54"/>
-      <c r="R39" s="115"/>
+      <c r="R39" s="89"/>
       <c r="S39" s="54"/>
     </row>
-    <row r="40" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="16.2" customHeight="1">
       <c r="A40" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="105"/>
-      <c r="C40" s="112">
+      <c r="B40" s="114"/>
+      <c r="C40" s="120">
         <v>20</v>
       </c>
-      <c r="D40" s="113">
+      <c r="D40" s="87">
         <v>0.6</v>
       </c>
       <c r="E40" s="72">
@@ -8500,20 +8700,20 @@
       <c r="O40" s="79">
         <v>0.15</v>
       </c>
-      <c r="P40" s="120">
+      <c r="P40" s="91">
         <v>0.34</v>
       </c>
       <c r="Q40" s="54"/>
       <c r="R40" s="54"/>
       <c r="S40" s="54"/>
     </row>
-    <row r="41" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="16.2" customHeight="1">
       <c r="A41" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="B41" s="105"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="113">
+      <c r="B41" s="114"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="87">
         <v>0.8</v>
       </c>
       <c r="E41" s="72">
@@ -8543,19 +8743,19 @@
       <c r="O41" s="79">
         <v>0.2</v>
       </c>
-      <c r="P41" s="120">
+      <c r="P41" s="91">
         <v>0.34</v>
       </c>
       <c r="Q41" s="54"/>
       <c r="R41" s="54"/>
       <c r="S41" s="54"/>
     </row>
-    <row r="42" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="16.2" customHeight="1">
       <c r="A42" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="B42" s="105"/>
-      <c r="C42" s="114">
+      <c r="B42" s="114"/>
+      <c r="C42" s="88">
         <v>8</v>
       </c>
       <c r="D42" s="74">
@@ -8587,18 +8787,18 @@
       <c r="O42" s="79">
         <v>0.1</v>
       </c>
-      <c r="P42" s="120">
+      <c r="P42" s="91">
         <v>0.25</v>
       </c>
       <c r="Q42" s="54"/>
       <c r="R42" s="54"/>
       <c r="S42" s="54"/>
     </row>
-    <row r="43" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
       <c r="A43" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="106"/>
+      <c r="B43" s="115"/>
       <c r="C43" s="76">
         <v>20</v>
       </c>
@@ -8632,58 +8832,58 @@
       <c r="O43" s="81">
         <v>0.2</v>
       </c>
-      <c r="P43" s="121">
+      <c r="P43" s="92">
         <v>1</v>
       </c>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
       <c r="S43" s="54"/>
     </row>
-    <row r="46" spans="1:30" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="101" t="s">
+    <row r="46" spans="1:30" ht="16.2">
+      <c r="A46" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="101"/>
-      <c r="N46" s="101"/>
-      <c r="O46" s="101"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="101"/>
-      <c r="U46" s="101"/>
-      <c r="V46" s="101"/>
-      <c r="W46" s="101"/>
-      <c r="X46" s="101"/>
-      <c r="Y46" s="101"/>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="101"/>
-      <c r="AB46" s="101"/>
-      <c r="AC46" s="101"/>
-      <c r="AD46" s="101"/>
-    </row>
-    <row r="47" spans="1:30" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="110"/>
+      <c r="T46" s="110"/>
+      <c r="U46" s="110"/>
+      <c r="V46" s="110"/>
+      <c r="W46" s="110"/>
+      <c r="X46" s="110"/>
+      <c r="Y46" s="110"/>
+      <c r="Z46" s="110"/>
+      <c r="AA46" s="110"/>
+      <c r="AB46" s="110"/>
+      <c r="AC46" s="110"/>
+      <c r="AD46" s="110"/>
+    </row>
+    <row r="47" spans="1:30" ht="16.8" thickBot="1">
       <c r="A47" s="51"/>
     </row>
-    <row r="48" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="102" t="s">
+    <row r="48" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A48" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="103"/>
-      <c r="C48" s="104"/>
-    </row>
-    <row r="49" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="112"/>
+      <c r="C48" s="113"/>
+    </row>
+    <row r="49" spans="1:3" ht="16.2" customHeight="1">
       <c r="A49" s="51" t="s">
         <v>245</v>
       </c>
@@ -8694,7 +8894,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="31.2">
       <c r="A50" s="82" t="s">
         <v>243</v>
       </c>
@@ -8705,7 +8905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="31.2">
       <c r="A51" s="82" t="s">
         <v>244</v>
       </c>
@@ -8716,7 +8916,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="82" t="s">
         <v>250</v>
       </c>
@@ -8742,7 +8942,7 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="N35:P35"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8750,7 +8950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8758,14 +8958,14 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -8776,15 +8976,15 @@
       <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="123"/>
-    <col min="2" max="5" width="8.88671875" style="111"/>
-    <col min="6" max="6" width="10" style="111" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="111"/>
+    <col min="1" max="1" width="8.88671875" style="93"/>
+    <col min="2" max="5" width="8.88671875" style="86"/>
+    <col min="6" max="6" width="10" style="86" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="54" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="54" customFormat="1" ht="32.4">
       <c r="A1" s="54" t="s">
         <v>277</v>
       </c>
@@ -8816,114 +9016,114 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+    <row r="2" spans="1:10" ht="31.2">
+      <c r="A2" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="111">
+      <c r="E2" s="86">
         <v>2</v>
       </c>
-      <c r="F2" s="111">
+      <c r="F2" s="86">
         <v>100</v>
       </c>
-      <c r="G2" s="111">
+      <c r="G2" s="86">
         <v>100</v>
       </c>
-      <c r="H2" s="111">
+      <c r="H2" s="86">
         <v>33</v>
       </c>
-      <c r="I2" s="111">
+      <c r="I2" s="86">
         <v>20</v>
       </c>
-      <c r="J2" s="111">
+      <c r="J2" s="86">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+    <row r="3" spans="1:10" ht="31.2">
+      <c r="A3" s="93" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="124"/>
+      <c r="C3" s="86" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="111">
+      <c r="E3" s="86">
         <v>1</v>
       </c>
-      <c r="F3" s="111">
+      <c r="F3" s="86">
         <v>150</v>
       </c>
-      <c r="G3" s="111">
+      <c r="G3" s="86">
         <v>100</v>
       </c>
-      <c r="H3" s="111">
+      <c r="H3" s="86">
         <v>33</v>
       </c>
-      <c r="I3" s="111">
+      <c r="I3" s="86">
         <v>40</v>
       </c>
-      <c r="J3" s="111">
+      <c r="J3" s="86">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123" t="s">
+    <row r="4" spans="1:10" ht="42" customHeight="1">
+      <c r="A4" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="86" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="111">
+      <c r="E4" s="86">
         <v>10</v>
       </c>
-      <c r="F4" s="111">
+      <c r="F4" s="86">
         <v>3000</v>
       </c>
-      <c r="G4" s="111">
+      <c r="G4" s="86">
         <v>100000</v>
       </c>
-      <c r="H4" s="111">
+      <c r="H4" s="86">
         <v>100000</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="86">
         <v>100</v>
       </c>
-      <c r="J4" s="111">
+      <c r="J4" s="86">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="122"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="122"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="122"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="122"/>
+    <row r="5" spans="1:10">
+      <c r="B5" s="124"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="124"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="124"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B8"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8931,9 +9131,9 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -372,34 +372,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="298">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻修正系数</t>
@@ -415,190 +415,190 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -608,39 +608,39 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -656,71 +656,71 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -736,11 +736,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -756,31 +756,31 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -796,63 +796,63 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -868,51 +868,51 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -928,7 +928,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -944,15 +944,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -968,11 +968,11 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -988,23 +988,23 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0-0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式位移</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ActionMovement</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画集合</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>SoftSpotTriggerAnim</t>
@@ -1036,228 +1036,228 @@
       </rPr>
       <t>Animmation</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>强制主角进入击飞、击倒等</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式强制主角播放的动画</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>InforcedAnimation</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。无论任何时刻，对于远程普攻没有次数限制，因为它已经被飞刀数量限制。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定，长按的总时长达到这个时长，就进入蓄力这个动画状态；</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力技释放时刻（s）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ChargeReleaseTime_Min</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定了进入蓄力状态后，至少要经过这么多时间才能释放蓄力技能；</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>决定单次招式对精力的消耗值；</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>任何合法的状态转换都可以在本动画的取消区间内取消部分动作，立即转入下一个动画；</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>在进入蓄力状态后，经过这么多时长后会被迫释放蓄力；</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>命中次数(n)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>单次额外伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>累积额外伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>累积伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害占单次总伤害占比</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害/基础伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>预设BossHP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当前此伤害/基础伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>公式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成削刃</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>主角对怪物</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>普通部位受击招式修正系数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>弱点部位受击招式修正系数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>子类</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>可触发弱点连击的招式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮攻击频率</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮伤害FloatingBladeATK  *  怪物_弱点刀刃悬浮修正系数FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>(主角_基础削刃BasicToughnessCut+主角_武器削刃)  *  主角_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮削刃</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>常规招式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮削刃FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>远程普攻伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>（主角_基础伤害BasicATK+主角_近战普攻伤害MeleeATK）*  招式伤害修正系数ActionAKTFactor  *  怪物_受击部位招式修正系数Factor
 +弱点连击累计次数n  *  连击额外伤害累增量ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>飞刀插中、拔出弱点</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1274,7 +1274,7 @@
       </rPr>
       <t>伤害</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1291,39 +1291,39 @@
       </rPr>
       <t>削刃</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>类别①</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>类别②</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础伤害BasicATK  *  怪物_招式伤害修正系数ActionAKTFactor</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础削刃ToughnessCut  *  怪物_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1349,39 +1349,39 @@
       </rPr>
       <t xml:space="preserve">  *  刀刃插中、拔出弱点修正系数FloatingBladeATK_Factor_StabOrExtractOut</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复滞后(s)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverDelay</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性安全值</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Toughness_Safe</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>对应硬直动画</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1397,19 +1397,19 @@
       </rPr>
       <t>taggerAnimation_Player</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如果本招式触发硬直，则会造成受击放播放哪一种硬直动画，这是指定值</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>StaggerAnimation_Monster</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>恢复生命精力消耗</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1435,11 +1435,11 @@
       </rPr>
       <t>naConsume</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>单次恢复生命百分比</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1455,255 +1455,255 @@
       </rPr>
       <t>aling_HP_Ratio</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>总所需最大连击轮数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>第n次连击伤害：An</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>单次伤害占总比</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>设定值</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>远程普攻</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>刀刃悬浮</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>刀刃插中</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>武器近战普攻伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数（主角）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>受击部位招式修正系数（怪物弱点）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>B 非连击伤害（a1）模拟</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>a1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>A 弱点连击伤害模拟</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>单轮伤害次数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>a1占比</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>主角对Boss</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>单次攻击伤害占比</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>角色单次恢复占比</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Name </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Min</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>单轮总伤害占比</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>A0 基准设定表</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性削减</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATKMultiplier_Max</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力最大伤害倍数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>刀刃插中、拔出弱点修正系数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_StabOrExtractOut</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>C0 削刃基准设定</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>最小削刃百分比</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>最大削刃百分比</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>生命</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>所在区域</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>难度</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>赶尸人（铃铛）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>赶尸人（近战）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>帝女</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>小怪</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Boss</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>02-1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>01-1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>01-2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">子类 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>残影扣减延迟时间</t>
@@ -1713,11 +1713,11 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>血条</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>残影缩短速度</t>
@@ -1733,7 +1733,28 @@
   </si>
   <si>
     <t>子弹时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色时间流速百分比</t>
+  </si>
+  <si>
+    <t>环境及怪物时间流速百分比</t>
+  </si>
+  <si>
+    <t>环境与怪物</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_Character_TimeRatio</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnvironmentAndMonster_TimeRatio</t>
   </si>
 </sst>
 </file>
@@ -1744,13 +1765,20 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1955,6 +1983,15 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="KaiTi"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="KaiTi"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2348,399 +2385,411 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2901,11 +2950,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1259937776"/>
-        <c:axId val="-1259942672"/>
+        <c:axId val="1859751824"/>
+        <c:axId val="1859752368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1259937776"/>
+        <c:axId val="1859751824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +2997,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1259942672"/>
+        <c:crossAx val="1859752368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2956,7 +3005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1259942672"/>
+        <c:axId val="1859752368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,7 +3056,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1259937776"/>
+        <c:crossAx val="1859751824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3215,11 +3264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1259929616"/>
-        <c:axId val="-1259934512"/>
+        <c:axId val="1859739312"/>
+        <c:axId val="1718549968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1259929616"/>
+        <c:axId val="1859739312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,12 +3324,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1259934512"/>
+        <c:crossAx val="1718549968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1259934512"/>
+        <c:axId val="1718549968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3337,7 +3386,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1259929616"/>
+        <c:crossAx val="1859739312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3713,11 +3762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1259929072"/>
-        <c:axId val="-1259927984"/>
+        <c:axId val="1317133072"/>
+        <c:axId val="1866573072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1259929072"/>
+        <c:axId val="1317133072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3774,12 +3823,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1259927984"/>
+        <c:crossAx val="1866573072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1259927984"/>
+        <c:axId val="1866573072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3836,7 +3885,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1259929072"/>
+        <c:crossAx val="1317133072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6035,110 +6084,128 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="125" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="125"/>
-    <col min="3" max="3" width="21.21875" style="125" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" style="125" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="125"/>
+    <col min="1" max="1" width="9.88671875" style="94" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="94"/>
+    <col min="3" max="3" width="21.21875" style="94" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="94" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="85" customFormat="1" ht="16.2">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:4" s="93" customFormat="1" ht="16.2">
+      <c r="A1" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="93" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="128" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="129" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="128" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="130" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="129" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="128" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="130" t="s">
         <v>289</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="129" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="127"/>
+      <c r="A6" s="95"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="127"/>
+      <c r="A7" s="95"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="127"/>
+      <c r="A8" s="95"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="127"/>
+      <c r="A9" s="95"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="127"/>
+      <c r="A10" s="95"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="127"/>
+      <c r="A11" s="95"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="95" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="127"/>
+      <c r="B12" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="131" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.2">
+      <c r="A13" s="95"/>
+      <c r="B13" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="131" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="127"/>
+      <c r="A14" s="95"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="127"/>
+      <c r="A15" s="95"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="127"/>
+      <c r="A16" s="95"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="127"/>
+      <c r="A17" s="95"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="127"/>
+      <c r="A18" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6146,7 +6213,7 @@
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A12:A18"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6195,13 +6262,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="96"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
@@ -6210,8 +6277,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96" t="s">
+      <c r="A3" s="102"/>
+      <c r="B3" s="98" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6225,8 +6292,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2">
-      <c r="A4" s="94"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
@@ -6238,8 +6305,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="46" customFormat="1" ht="31.2">
-      <c r="A5" s="94"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="53" t="s">
         <v>217</v>
       </c>
@@ -6252,8 +6319,8 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" s="46" customFormat="1" ht="15.6">
-      <c r="A6" s="94"/>
-      <c r="B6" s="96"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="53" t="s">
         <v>219</v>
       </c>
@@ -6266,12 +6333,12 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
-      <c r="A7" s="94"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="15.6">
-      <c r="A8" s="94"/>
-      <c r="B8" s="96" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="98" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -6285,8 +6352,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2">
-      <c r="A9" s="94"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
@@ -6298,8 +6365,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="40" customFormat="1" ht="31.2">
-      <c r="A10" s="94"/>
-      <c r="B10" s="96"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="49" t="s">
         <v>207</v>
       </c>
@@ -6311,8 +6378,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="40" customFormat="1" ht="15.6">
-      <c r="A11" s="94"/>
-      <c r="B11" s="96"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="49" t="s">
         <v>211</v>
       </c>
@@ -6324,8 +6391,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.2">
-      <c r="A12" s="94"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
@@ -6337,12 +6404,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="94"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="98"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
-      <c r="A14" s="94"/>
-      <c r="B14" s="96" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="98" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -6356,8 +6423,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6">
-      <c r="A15" s="94"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="41" t="s">
         <v>163</v>
       </c>
@@ -6369,23 +6436,23 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6">
-      <c r="A16" s="94"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="98"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="94"/>
-      <c r="B17" s="96" t="s">
+      <c r="A17" s="102"/>
+      <c r="B17" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="96"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="31.2">
-      <c r="A18" s="94"/>
-      <c r="B18" s="101" t="s">
+      <c r="A18" s="102"/>
+      <c r="B18" s="99" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -6399,8 +6466,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2">
-      <c r="A19" s="94"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="10" t="s">
         <v>103</v>
       </c>
@@ -6413,8 +6480,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" ht="31.2">
-      <c r="A20" s="94"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="10" t="s">
         <v>101</v>
       </c>
@@ -6427,8 +6494,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" ht="31.2">
-      <c r="A21" s="94"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="10" t="s">
         <v>104</v>
       </c>
@@ -6441,20 +6508,20 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
-      <c r="A22" s="94"/>
-      <c r="B22" s="96"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="98"/>
     </row>
     <row r="23" spans="1:6" ht="15.6">
-      <c r="A23" s="94"/>
+      <c r="A23" s="102"/>
     </row>
     <row r="24" spans="1:6" ht="15.6">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="96"/>
+      <c r="C24" s="98"/>
       <c r="D24" s="41" t="s">
         <v>169</v>
       </c>
@@ -6463,8 +6530,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.2">
-      <c r="A25" s="94"/>
-      <c r="B25" s="96" t="s">
+      <c r="A25" s="102"/>
+      <c r="B25" s="98" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="41" t="s">
@@ -6478,12 +6545,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6">
-      <c r="A26" s="94"/>
-      <c r="B26" s="96"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="98"/>
     </row>
     <row r="27" spans="1:6" ht="31.2">
-      <c r="A27" s="94"/>
-      <c r="B27" s="96" t="s">
+      <c r="A27" s="102"/>
+      <c r="B27" s="98" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="82" t="s">
@@ -6497,8 +6564,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="50" customFormat="1" ht="31.2">
-      <c r="A28" s="94"/>
-      <c r="B28" s="96"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="82" t="s">
         <v>256</v>
       </c>
@@ -6511,8 +6578,8 @@
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="15.6">
-      <c r="A29" s="94"/>
-      <c r="B29" s="96"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="41" t="s">
         <v>192</v>
       </c>
@@ -6524,8 +6591,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6">
-      <c r="A30" s="94"/>
-      <c r="B30" s="96"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="41" t="s">
         <v>179</v>
       </c>
@@ -6537,8 +6604,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="39" customFormat="1" ht="31.2">
-      <c r="A31" s="94"/>
-      <c r="B31" s="96"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="41" t="s">
         <v>186</v>
       </c>
@@ -6551,8 +6618,8 @@
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="31.2">
-      <c r="A32" s="94"/>
-      <c r="B32" s="96"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="41" t="s">
         <v>178</v>
       </c>
@@ -6564,12 +6631,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="94"/>
-      <c r="B33" s="96"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="98"/>
     </row>
     <row r="34" spans="1:6" ht="31.2">
-      <c r="A34" s="94"/>
-      <c r="B34" s="96" t="s">
+      <c r="A34" s="102"/>
+      <c r="B34" s="98" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -6581,8 +6648,8 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2">
-      <c r="A35" s="94"/>
-      <c r="B35" s="96"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="13" t="s">
         <v>111</v>
       </c>
@@ -6593,8 +6660,8 @@
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" ht="31.2">
-      <c r="A36" s="94"/>
-      <c r="B36" s="96"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="13" t="s">
         <v>112</v>
       </c>
@@ -6605,8 +6672,8 @@
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" ht="31.2">
-      <c r="A37" s="94"/>
-      <c r="B37" s="96"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="13" t="s">
         <v>113</v>
       </c>
@@ -6617,16 +6684,16 @@
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A38" s="94"/>
-      <c r="B38" s="96"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="6"/>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="31.2">
-      <c r="A39" s="94"/>
-      <c r="B39" s="96" t="s">
+      <c r="A39" s="102"/>
+      <c r="B39" s="98" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6640,8 +6707,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="31.2">
-      <c r="A40" s="94"/>
-      <c r="B40" s="96"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="1" t="s">
         <v>69</v>
       </c>
@@ -6651,8 +6718,8 @@
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="31.2">
-      <c r="A41" s="94"/>
-      <c r="B41" s="96"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="1" t="s">
         <v>70</v>
       </c>
@@ -6664,8 +6731,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.2">
-      <c r="A42" s="94"/>
-      <c r="B42" s="96"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="1" t="s">
         <v>71</v>
       </c>
@@ -6675,8 +6742,8 @@
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="31.2">
-      <c r="A43" s="94"/>
-      <c r="B43" s="96"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="1" t="s">
         <v>79</v>
       </c>
@@ -6688,8 +6755,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="31.2">
-      <c r="A44" s="94"/>
-      <c r="B44" s="96"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="8" t="s">
         <v>97</v>
       </c>
@@ -6701,36 +6768,36 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.6">
-      <c r="A45" s="94"/>
-      <c r="B45" s="96"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="98"/>
     </row>
     <row r="46" spans="1:6" ht="15.6">
-      <c r="A46" s="94"/>
-      <c r="B46" s="96"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="98"/>
     </row>
     <row r="47" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A47" s="94"/>
+      <c r="A47" s="102"/>
     </row>
     <row r="48" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A48" s="94"/>
+      <c r="A48" s="102"/>
     </row>
     <row r="49" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A49" s="94"/>
+      <c r="A49" s="102"/>
     </row>
     <row r="50" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A50" s="94"/>
+      <c r="A50" s="102"/>
     </row>
     <row r="51" spans="1:6" ht="15.6">
-      <c r="A51" s="94"/>
+      <c r="A51" s="102"/>
     </row>
     <row r="52" spans="1:6" ht="15.6">
-      <c r="A52" s="94"/>
+      <c r="A52" s="102"/>
     </row>
     <row r="53" spans="1:6" ht="15.6">
-      <c r="A53" s="94" t="s">
+      <c r="A53" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="100" t="s">
         <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -6747,8 +6814,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="28" customFormat="1" ht="31.2">
-      <c r="A54" s="94"/>
-      <c r="B54" s="96"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="30" t="s">
         <v>147</v>
       </c>
@@ -6763,8 +6830,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.6">
-      <c r="A55" s="94"/>
-      <c r="B55" s="96"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="1" t="s">
         <v>81</v>
       </c>
@@ -6779,8 +6846,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="42.6" customHeight="1">
-      <c r="A56" s="94"/>
-      <c r="B56" s="96"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="98"/>
       <c r="C56" s="1" t="s">
         <v>19</v>
       </c>
@@ -6791,8 +6858,8 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="36" customHeight="1">
-      <c r="A57" s="94"/>
-      <c r="B57" s="96" t="s">
+      <c r="A57" s="102"/>
+      <c r="B57" s="98" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="41" t="s">
@@ -6806,8 +6873,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.6">
-      <c r="A58" s="94"/>
-      <c r="B58" s="96"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="41" t="s">
         <v>170</v>
       </c>
@@ -6819,11 +6886,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="31.2">
-      <c r="A59" s="94"/>
-      <c r="B59" s="96" t="s">
+      <c r="A59" s="102"/>
+      <c r="B59" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="96"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="1" t="s">
         <v>44</v>
       </c>
@@ -6835,20 +6902,20 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.6">
-      <c r="A60" s="94"/>
-      <c r="B60" s="96" t="s">
+      <c r="A60" s="102"/>
+      <c r="B60" s="98" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.6">
-      <c r="A61" s="94"/>
-      <c r="B61" s="96"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="98"/>
       <c r="D61" s="15"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:6" s="11" customFormat="1" ht="31.2">
-      <c r="A62" s="94"/>
-      <c r="B62" s="96"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="98"/>
       <c r="C62" s="15" t="s">
         <v>118</v>
       </c>
@@ -6861,33 +6928,33 @@
       </c>
     </row>
     <row r="63" spans="1:6" s="11" customFormat="1" ht="15.6">
-      <c r="A63" s="94"/>
-      <c r="B63" s="96"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="98"/>
       <c r="D63" s="12"/>
       <c r="E63" s="6"/>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" ht="15.6">
-      <c r="A64" s="94"/>
-      <c r="B64" s="96"/>
+      <c r="A64" s="102"/>
+      <c r="B64" s="98"/>
     </row>
     <row r="65" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A65" s="94"/>
-      <c r="B65" s="98" t="s">
+      <c r="A65" s="102"/>
+      <c r="B65" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="98"/>
+      <c r="C65" s="105"/>
       <c r="D65" s="21" t="s">
         <v>135</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A66" s="94"/>
-      <c r="B66" s="98" t="s">
+      <c r="A66" s="102"/>
+      <c r="B66" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="98"/>
+      <c r="C66" s="105"/>
       <c r="D66" s="8" t="s">
         <v>92</v>
       </c>
@@ -6897,11 +6964,11 @@
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A67" s="94"/>
-      <c r="B67" s="98" t="s">
+      <c r="A67" s="102"/>
+      <c r="B67" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="96"/>
+      <c r="C67" s="98"/>
       <c r="D67" s="8" t="s">
         <v>95</v>
       </c>
@@ -6911,11 +6978,11 @@
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A68" s="94"/>
-      <c r="B68" s="98" t="s">
+      <c r="A68" s="102"/>
+      <c r="B68" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="96"/>
+      <c r="C68" s="98"/>
       <c r="D68" s="8" t="s">
         <v>137</v>
       </c>
@@ -6923,11 +6990,11 @@
       <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A69" s="94"/>
-      <c r="B69" s="97" t="s">
+      <c r="A69" s="102"/>
+      <c r="B69" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="96"/>
+      <c r="C69" s="98"/>
       <c r="D69" s="15" t="s">
         <v>126</v>
       </c>
@@ -6939,11 +7006,11 @@
       </c>
     </row>
     <row r="70" spans="1:6" s="40" customFormat="1" ht="36.6" customHeight="1">
-      <c r="A70" s="94"/>
-      <c r="B70" s="99" t="s">
+      <c r="A70" s="102"/>
+      <c r="B70" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="C70" s="100"/>
+      <c r="C70" s="97"/>
       <c r="D70" s="49" t="s">
         <v>216</v>
       </c>
@@ -6955,35 +7022,35 @@
       </c>
     </row>
     <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A71" s="94"/>
+      <c r="A71" s="102"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A72" s="94"/>
+      <c r="A72" s="102"/>
       <c r="C72" s="14"/>
       <c r="D72" s="13"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A73" s="94"/>
+      <c r="A73" s="102"/>
       <c r="C73" s="14"/>
       <c r="D73" s="13"/>
       <c r="E73" s="17"/>
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A74" s="94"/>
+      <c r="A74" s="102"/>
       <c r="C74" s="14"/>
       <c r="D74" s="13"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16"/>
     </row>
     <row r="75" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A75" s="94"/>
+      <c r="A75" s="102"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
       <c r="D75" s="13"/>
@@ -6991,21 +7058,21 @@
       <c r="F75" s="16"/>
     </row>
     <row r="76" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A76" s="94"/>
+      <c r="A76" s="102"/>
       <c r="C76" s="14"/>
       <c r="D76" s="13"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" ht="15.6">
-      <c r="A77" s="94"/>
+      <c r="A77" s="102"/>
       <c r="B77" s="9"/>
     </row>
     <row r="78" spans="1:6" ht="15.6">
-      <c r="A78" s="94" t="s">
+      <c r="A78" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="95" t="s">
+      <c r="B78" s="103" t="s">
         <v>121</v>
       </c>
       <c r="C78" s="22" t="s">
@@ -7019,8 +7086,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.6">
-      <c r="A79" s="94"/>
-      <c r="B79" s="96"/>
+      <c r="A79" s="102"/>
+      <c r="B79" s="98"/>
       <c r="C79" s="15" t="s">
         <v>129</v>
       </c>
@@ -7032,26 +7099,26 @@
       </c>
     </row>
     <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A80" s="94"/>
-      <c r="B80" s="96"/>
+      <c r="A80" s="102"/>
+      <c r="B80" s="98"/>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A81" s="94"/>
-      <c r="B81" s="96"/>
+      <c r="A81" s="102"/>
+      <c r="B81" s="98"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" ht="15.6">
-      <c r="A82" s="94"/>
-      <c r="B82" s="96"/>
+      <c r="A82" s="102"/>
+      <c r="B82" s="98"/>
     </row>
     <row r="83" spans="1:6" ht="15.6">
-      <c r="A83" s="94"/>
-      <c r="B83" s="95" t="s">
+      <c r="A83" s="102"/>
+      <c r="B83" s="103" t="s">
         <v>122</v>
       </c>
       <c r="C83" s="15" t="s">
@@ -7065,32 +7132,32 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6">
-      <c r="A84" s="94"/>
-      <c r="B84" s="96"/>
+      <c r="A84" s="102"/>
+      <c r="B84" s="98"/>
       <c r="C84" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A85" s="94"/>
-      <c r="B85" s="96"/>
+      <c r="A85" s="102"/>
+      <c r="B85" s="98"/>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A86" s="94"/>
-      <c r="B86" s="96"/>
+      <c r="A86" s="102"/>
+      <c r="B86" s="98"/>
       <c r="C86" s="20"/>
       <c r="F86" s="16"/>
     </row>
     <row r="87" spans="1:6" ht="15.6">
-      <c r="A87" s="94"/>
-      <c r="B87" s="96"/>
+      <c r="A87" s="102"/>
+      <c r="B87" s="98"/>
     </row>
     <row r="88" spans="1:6" ht="15.6">
-      <c r="A88" s="94"/>
-      <c r="B88" s="95" t="s">
+      <c r="A88" s="102"/>
+      <c r="B88" s="103" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -7104,16 +7171,16 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6">
-      <c r="A89" s="94"/>
-      <c r="B89" s="96"/>
+      <c r="A89" s="102"/>
+      <c r="B89" s="98"/>
     </row>
     <row r="90" spans="1:6" ht="15.6">
-      <c r="A90" s="94"/>
-      <c r="B90" s="96"/>
+      <c r="A90" s="102"/>
+      <c r="B90" s="98"/>
     </row>
     <row r="91" spans="1:6" ht="15.6">
-      <c r="A91" s="94"/>
-      <c r="B91" s="95" t="s">
+      <c r="A91" s="102"/>
+      <c r="B91" s="103" t="s">
         <v>124</v>
       </c>
       <c r="C91" s="15" t="s">
@@ -7127,8 +7194,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="31.2">
-      <c r="A92" s="94"/>
-      <c r="B92" s="96"/>
+      <c r="A92" s="102"/>
+      <c r="B92" s="98"/>
       <c r="C92" s="26" t="s">
         <v>136</v>
       </c>
@@ -7137,61 +7204,48 @@
       </c>
     </row>
     <row r="93" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A93" s="94"/>
-      <c r="B93" s="96"/>
+      <c r="A93" s="102"/>
+      <c r="B93" s="98"/>
       <c r="C93" s="13"/>
       <c r="D93" s="20"/>
       <c r="F93" s="16"/>
     </row>
     <row r="94" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A94" s="94"/>
-      <c r="B94" s="96"/>
+      <c r="A94" s="102"/>
+      <c r="B94" s="98"/>
       <c r="C94" s="13"/>
       <c r="D94" s="20"/>
       <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" ht="15.6">
-      <c r="A95" s="94"/>
-      <c r="B95" s="96"/>
+      <c r="A95" s="102"/>
+      <c r="B95" s="98"/>
     </row>
     <row r="96" spans="1:6" ht="15.6">
-      <c r="A96" s="94"/>
+      <c r="A96" s="102"/>
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" ht="15.6">
-      <c r="A97" s="94"/>
+      <c r="A97" s="102"/>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" ht="15.6">
-      <c r="A98" s="94"/>
+      <c r="A98" s="102"/>
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" ht="15.6">
-      <c r="A99" s="94"/>
+      <c r="A99" s="102"/>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" ht="15.6">
-      <c r="A100" s="94"/>
+      <c r="A100" s="102"/>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" ht="15.6">
-      <c r="A101" s="94"/>
+      <c r="A101" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A52"/>
     <mergeCell ref="A53:A77"/>
@@ -7208,8 +7262,21 @@
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7258,13 +7325,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="96"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
@@ -7273,8 +7340,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="94"/>
-      <c r="B3" s="104" t="s">
+      <c r="A3" s="102"/>
+      <c r="B3" s="108" t="s">
         <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7288,8 +7355,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2">
-      <c r="A4" s="94"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
@@ -7301,8 +7368,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2">
-      <c r="A5" s="94"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="49" t="s">
         <v>207</v>
       </c>
@@ -7314,8 +7381,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="15.6">
-      <c r="A6" s="94"/>
-      <c r="B6" s="96"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="49" t="s">
         <v>211</v>
       </c>
@@ -7327,8 +7394,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2">
-      <c r="A7" s="94"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
@@ -7340,8 +7407,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6">
-      <c r="A8" s="94"/>
-      <c r="B8" s="96" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="98" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -7355,8 +7422,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6">
-      <c r="A9" s="94"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="41" t="s">
         <v>199</v>
       </c>
@@ -7368,30 +7435,30 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6">
-      <c r="A10" s="94"/>
-      <c r="B10" s="96" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:6" ht="15.6">
-      <c r="A11" s="94"/>
+      <c r="A11" s="102"/>
     </row>
     <row r="12" spans="1:6" ht="15.6">
-      <c r="A12" s="94"/>
+      <c r="A12" s="102"/>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="94"/>
+      <c r="A13" s="102"/>
     </row>
     <row r="14" spans="1:6" ht="31.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="101" t="s">
         <v>171</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -7405,8 +7472,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.2">
-      <c r="A15" s="94"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -7418,8 +7485,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.2">
-      <c r="A16" s="94"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -7431,8 +7498,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2">
-      <c r="A17" s="94"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
@@ -7444,8 +7511,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="31.2">
-      <c r="A18" s="94"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
@@ -7457,16 +7524,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6">
-      <c r="A19" s="94"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="98"/>
     </row>
     <row r="20" spans="1:5" ht="15.6">
-      <c r="A20" s="94"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="98"/>
     </row>
     <row r="21" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="103" t="s">
+      <c r="A21" s="102"/>
+      <c r="B21" s="101" t="s">
         <v>172</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -7480,8 +7547,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2">
-      <c r="A22" s="94"/>
-      <c r="B22" s="96"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
@@ -7493,8 +7560,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.2">
-      <c r="A23" s="94"/>
-      <c r="B23" s="96"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
@@ -7506,8 +7573,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.8">
-      <c r="A24" s="94"/>
-      <c r="B24" s="96"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -7519,8 +7586,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="46.2" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="96"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="41" t="s">
         <v>180</v>
       </c>
@@ -7532,8 +7599,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.2">
-      <c r="A26" s="94"/>
-      <c r="B26" s="96"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
@@ -7545,12 +7612,12 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="39" customFormat="1" ht="46.8">
-      <c r="A27" s="94"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="86" t="s">
+      <c r="A27" s="102"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="85" t="s">
         <v>258</v>
       </c>
       <c r="E27" s="55">
@@ -7558,24 +7625,24 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="39" customFormat="1" ht="15.6">
-      <c r="A28" s="94"/>
-      <c r="B28" s="96"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="98"/>
     </row>
     <row r="29" spans="1:5" s="39" customFormat="1" ht="15.6">
-      <c r="A29" s="94"/>
-      <c r="B29" s="96"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="98"/>
     </row>
     <row r="30" spans="1:5" s="39" customFormat="1" ht="15.6">
-      <c r="A30" s="94"/>
-      <c r="B30" s="96"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="98"/>
     </row>
     <row r="31" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A31" s="94"/>
-      <c r="B31" s="96"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="98"/>
     </row>
     <row r="32" spans="1:5" s="33" customFormat="1" ht="31.2">
-      <c r="A32" s="94"/>
-      <c r="B32" s="96" t="s">
+      <c r="A32" s="102"/>
+      <c r="B32" s="98" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="41" t="s">
@@ -7589,8 +7656,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A33" s="94"/>
-      <c r="B33" s="96"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="1" t="s">
         <v>84</v>
       </c>
@@ -7602,8 +7669,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="33" customFormat="1" ht="31.2">
-      <c r="A34" s="94"/>
-      <c r="B34" s="96"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
@@ -7615,8 +7682,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A35" s="94"/>
-      <c r="B35" s="96"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="8" t="s">
         <v>89</v>
       </c>
@@ -7628,55 +7695,55 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A36" s="94"/>
-      <c r="B36" s="96"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A37" s="94"/>
+      <c r="A37" s="102"/>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A38" s="94"/>
+      <c r="A38" s="102"/>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A39" s="94"/>
+      <c r="A39" s="102"/>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A40" s="94"/>
+      <c r="A40" s="102"/>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A41" s="94"/>
+      <c r="A41" s="102"/>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A42" s="94"/>
+      <c r="A42" s="102"/>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="15.6">
-      <c r="A43" s="94"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.6">
-      <c r="A44" s="94"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="15.6">
-      <c r="A45" s="94"/>
+      <c r="A45" s="102"/>
     </row>
     <row r="46" spans="1:5" ht="31.2">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="96"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="8" t="s">
         <v>94</v>
       </c>
@@ -7685,11 +7752,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A47" s="94"/>
-      <c r="B47" s="96" t="s">
+      <c r="A47" s="102"/>
+      <c r="B47" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="96"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="1" t="s">
         <v>63</v>
       </c>
@@ -7698,33 +7765,33 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A48" s="94"/>
-      <c r="B48" s="106" t="s">
+      <c r="A48" s="102"/>
+      <c r="B48" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="106"/>
+      <c r="C48" s="107"/>
       <c r="D48" s="27" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15.6">
-      <c r="A49" s="94"/>
-      <c r="B49" s="98" t="s">
+      <c r="A49" s="102"/>
+      <c r="B49" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="98"/>
+      <c r="C49" s="105"/>
       <c r="D49" s="25" t="s">
         <v>135</v>
       </c>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="98" t="s">
+      <c r="A50" s="102"/>
+      <c r="B50" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="98"/>
+      <c r="C50" s="105"/>
       <c r="D50" s="12" t="s">
         <v>92</v>
       </c>
@@ -7733,8 +7800,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="32.4" customHeight="1">
-      <c r="A51" s="94"/>
-      <c r="B51" s="96" t="s">
+      <c r="A51" s="102"/>
+      <c r="B51" s="98" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="24" t="s">
@@ -7748,8 +7815,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A52" s="94"/>
-      <c r="B52" s="96"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="41" t="s">
         <v>170</v>
       </c>
@@ -7761,11 +7828,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A53" s="94"/>
-      <c r="B53" s="105" t="s">
+      <c r="A53" s="102"/>
+      <c r="B53" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="96"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="27" t="s">
         <v>143</v>
       </c>
@@ -7775,11 +7842,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="36.6" customHeight="1">
-      <c r="A54" s="94"/>
-      <c r="B54" s="99" t="s">
+      <c r="A54" s="102"/>
+      <c r="B54" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="C54" s="100"/>
+      <c r="C54" s="97"/>
       <c r="D54" s="49" t="s">
         <v>214</v>
       </c>
@@ -7791,13 +7858,13 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A55" s="94"/>
+      <c r="A55" s="102"/>
     </row>
     <row r="56" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A56" s="94"/>
+      <c r="A56" s="102"/>
     </row>
     <row r="57" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A57" s="94"/>
+      <c r="A57" s="102"/>
     </row>
     <row r="58" spans="1:6" ht="16.2" customHeight="1"/>
     <row r="59" spans="1:6" ht="16.2" customHeight="1"/>
@@ -7812,6 +7879,15 @@
     <row r="68" ht="16.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A45"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B21:B31"/>
     <mergeCell ref="A46:A57"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
@@ -7821,17 +7897,8 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A45"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B21:B31"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7869,32 +7936,32 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="76.8" customHeight="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="44" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="76.8" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="108" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="109"/>
+      <c r="C3" s="111"/>
       <c r="D3" s="44" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="73.8" customHeight="1">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="109" t="s">
         <v>195</v>
       </c>
       <c r="C4" s="44" t="s">
@@ -7905,8 +7972,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="73.8" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="44" t="s">
         <v>194</v>
       </c>
@@ -7915,8 +7982,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="73.8" customHeight="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="44" t="s">
         <v>177</v>
       </c>
@@ -7925,8 +7992,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="97.8" customHeight="1">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="109"/>
+      <c r="B7" s="109" t="s">
         <v>196</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -7937,8 +8004,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="83.4" customHeight="1">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="45" t="s">
         <v>188</v>
       </c>
@@ -7947,7 +8014,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" customHeight="1">
-      <c r="A9" s="107"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -7961,7 +8028,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7983,55 +8050,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="51" customFormat="1" ht="16.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
     </row>
     <row r="2" spans="1:30" ht="16.2" thickBot="1"/>
     <row r="3" spans="1:30" ht="16.8" thickBot="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="4" spans="1:30" ht="46.8">
       <c r="A4" s="62" t="s">
@@ -8082,7 +8149,7 @@
         <f>B5/$K$5</f>
         <v>0.01</v>
       </c>
-      <c r="D5" s="116">
+      <c r="D5" s="118">
         <v>10</v>
       </c>
       <c r="E5" s="37">
@@ -8109,10 +8176,10 @@
         <f t="shared" ref="J5:J14" si="2">B5/$B$5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="116">
+      <c r="K5" s="118">
         <v>3000</v>
       </c>
-      <c r="L5" s="118">
+      <c r="L5" s="120">
         <f>$K$5/$G$14</f>
         <v>4</v>
       </c>
@@ -8129,7 +8196,7 @@
         <f t="shared" ref="C6:C14" si="3">B6/$K$5</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="D6" s="116"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E14" si="4">(A6-1)*$D$5</f>
         <v>10</v>
@@ -8154,8 +8221,8 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="120"/>
     </row>
     <row r="7" spans="1:30" ht="16.2">
       <c r="A7" s="56">
@@ -8169,7 +8236,7 @@
         <f t="shared" si="3"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="D7" s="116"/>
+      <c r="D7" s="118"/>
       <c r="E7" s="37">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -8194,8 +8261,8 @@
         <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="K7" s="116"/>
-      <c r="L7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="120"/>
     </row>
     <row r="8" spans="1:30" ht="16.2">
       <c r="A8" s="56">
@@ -8209,7 +8276,7 @@
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="D8" s="116"/>
+      <c r="D8" s="118"/>
       <c r="E8" s="37">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -8234,8 +8301,8 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="120"/>
     </row>
     <row r="9" spans="1:30" ht="16.2">
       <c r="A9" s="56">
@@ -8249,7 +8316,7 @@
         <f t="shared" si="3"/>
         <v>2.3333333333333334E-2</v>
       </c>
-      <c r="D9" s="116"/>
+      <c r="D9" s="118"/>
       <c r="E9" s="37">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -8274,8 +8341,8 @@
         <f t="shared" si="2"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="120"/>
     </row>
     <row r="10" spans="1:30" ht="16.2">
       <c r="A10" s="56">
@@ -8289,7 +8356,7 @@
         <f t="shared" si="3"/>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="37">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -8314,8 +8381,8 @@
         <f t="shared" si="2"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="K10" s="116"/>
-      <c r="L10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="120"/>
     </row>
     <row r="11" spans="1:30" ht="16.2">
       <c r="A11" s="56">
@@ -8329,7 +8396,7 @@
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="D11" s="116"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="37">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -8354,8 +8421,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K11" s="116"/>
-      <c r="L11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="120"/>
     </row>
     <row r="12" spans="1:30" ht="16.2">
       <c r="A12" s="56">
@@ -8369,7 +8436,7 @@
         <f t="shared" si="3"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="D12" s="116"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="37">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -8394,8 +8461,8 @@
         <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="K12" s="116"/>
-      <c r="L12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="120"/>
     </row>
     <row r="13" spans="1:30" ht="16.2">
       <c r="A13" s="56">
@@ -8409,7 +8476,7 @@
         <f t="shared" si="3"/>
         <v>3.6666666666666667E-2</v>
       </c>
-      <c r="D13" s="116"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="37">
         <f t="shared" si="4"/>
         <v>80</v>
@@ -8434,8 +8501,8 @@
         <f t="shared" si="2"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="K13" s="116"/>
-      <c r="L13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="120"/>
     </row>
     <row r="14" spans="1:30" ht="16.8" thickBot="1">
       <c r="A14" s="58">
@@ -8449,7 +8516,7 @@
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="D14" s="117"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="59">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -8474,30 +8541,30 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K14" s="117"/>
-      <c r="L14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="121"/>
     </row>
     <row r="34" spans="1:30" ht="16.2" thickBot="1"/>
     <row r="35" spans="1:30" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="113" t="s">
         <v>236</v>
       </c>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="113"/>
-      <c r="N35" s="121" t="s">
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="115"/>
+      <c r="N35" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="O35" s="122"/>
-      <c r="P35" s="123"/>
+      <c r="O35" s="124"/>
+      <c r="P35" s="125"/>
       <c r="Q35" s="54"/>
       <c r="R35" s="54"/>
       <c r="S35" s="54"/>
@@ -8515,7 +8582,7 @@
       <c r="J36" s="63"/>
       <c r="K36" s="63"/>
       <c r="L36" s="64"/>
-      <c r="N36" s="90" t="s">
+      <c r="N36" s="89" t="s">
         <v>245</v>
       </c>
       <c r="O36" s="43" t="s">
@@ -8559,7 +8626,7 @@
       <c r="J37" s="43"/>
       <c r="K37" s="43"/>
       <c r="L37" s="70"/>
-      <c r="N37" s="90" t="s">
+      <c r="N37" s="89" t="s">
         <v>262</v>
       </c>
       <c r="O37" s="43" t="s">
@@ -8576,13 +8643,13 @@
       <c r="A38" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="114">
+      <c r="B38" s="116">
         <v>0</v>
       </c>
-      <c r="C38" s="120">
+      <c r="C38" s="122">
         <v>20</v>
       </c>
-      <c r="D38" s="87">
+      <c r="D38" s="86">
         <v>1</v>
       </c>
       <c r="E38" s="72">
@@ -8612,7 +8679,7 @@
       <c r="O38" s="79">
         <v>0.34</v>
       </c>
-      <c r="P38" s="91">
+      <c r="P38" s="90">
         <v>1</v>
       </c>
       <c r="Q38" s="54"/>
@@ -8623,9 +8690,9 @@
       <c r="A39" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="87">
+      <c r="B39" s="116"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="86">
         <v>3</v>
       </c>
       <c r="E39" s="72">
@@ -8655,22 +8722,22 @@
       <c r="O39" s="79">
         <v>0.66700000000000004</v>
       </c>
-      <c r="P39" s="91">
+      <c r="P39" s="90">
         <v>1</v>
       </c>
       <c r="Q39" s="54"/>
-      <c r="R39" s="89"/>
+      <c r="R39" s="88"/>
       <c r="S39" s="54"/>
     </row>
     <row r="40" spans="1:30" ht="16.2" customHeight="1">
       <c r="A40" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="114"/>
-      <c r="C40" s="120">
+      <c r="B40" s="116"/>
+      <c r="C40" s="122">
         <v>20</v>
       </c>
-      <c r="D40" s="87">
+      <c r="D40" s="86">
         <v>0.6</v>
       </c>
       <c r="E40" s="72">
@@ -8700,7 +8767,7 @@
       <c r="O40" s="79">
         <v>0.15</v>
       </c>
-      <c r="P40" s="91">
+      <c r="P40" s="90">
         <v>0.34</v>
       </c>
       <c r="Q40" s="54"/>
@@ -8711,9 +8778,9 @@
       <c r="A41" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="87">
+      <c r="B41" s="116"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="86">
         <v>0.8</v>
       </c>
       <c r="E41" s="72">
@@ -8743,7 +8810,7 @@
       <c r="O41" s="79">
         <v>0.2</v>
       </c>
-      <c r="P41" s="91">
+      <c r="P41" s="90">
         <v>0.34</v>
       </c>
       <c r="Q41" s="54"/>
@@ -8754,8 +8821,8 @@
       <c r="A42" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="B42" s="114"/>
-      <c r="C42" s="88">
+      <c r="B42" s="116"/>
+      <c r="C42" s="87">
         <v>8</v>
       </c>
       <c r="D42" s="74">
@@ -8787,7 +8854,7 @@
       <c r="O42" s="79">
         <v>0.1</v>
       </c>
-      <c r="P42" s="91">
+      <c r="P42" s="90">
         <v>0.25</v>
       </c>
       <c r="Q42" s="54"/>
@@ -8798,7 +8865,7 @@
       <c r="A43" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="115"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="76">
         <v>20</v>
       </c>
@@ -8832,7 +8899,7 @@
       <c r="O43" s="81">
         <v>0.2</v>
       </c>
-      <c r="P43" s="92">
+      <c r="P43" s="91">
         <v>1</v>
       </c>
       <c r="Q43" s="54"/>
@@ -8840,48 +8907,48 @@
       <c r="S43" s="54"/>
     </row>
     <row r="46" spans="1:30" ht="16.2">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="B46" s="110"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="110"/>
-      <c r="N46" s="110"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110"/>
-      <c r="S46" s="110"/>
-      <c r="T46" s="110"/>
-      <c r="U46" s="110"/>
-      <c r="V46" s="110"/>
-      <c r="W46" s="110"/>
-      <c r="X46" s="110"/>
-      <c r="Y46" s="110"/>
-      <c r="Z46" s="110"/>
-      <c r="AA46" s="110"/>
-      <c r="AB46" s="110"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="110"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="112"/>
+      <c r="L46" s="112"/>
+      <c r="M46" s="112"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="112"/>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="112"/>
+      <c r="S46" s="112"/>
+      <c r="T46" s="112"/>
+      <c r="U46" s="112"/>
+      <c r="V46" s="112"/>
+      <c r="W46" s="112"/>
+      <c r="X46" s="112"/>
+      <c r="Y46" s="112"/>
+      <c r="Z46" s="112"/>
+      <c r="AA46" s="112"/>
+      <c r="AB46" s="112"/>
+      <c r="AC46" s="112"/>
+      <c r="AD46" s="112"/>
     </row>
     <row r="47" spans="1:30" ht="16.8" thickBot="1">
       <c r="A47" s="51"/>
     </row>
     <row r="48" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A48" s="111" t="s">
+      <c r="A48" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="112"/>
-      <c r="C48" s="113"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="115"/>
     </row>
     <row r="49" spans="1:3" ht="16.2" customHeight="1">
       <c r="A49" s="51" t="s">
@@ -8942,7 +9009,7 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="N35:P35"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8960,7 +9027,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8978,10 +9045,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="93"/>
-    <col min="2" max="5" width="8.88671875" style="86"/>
-    <col min="6" max="6" width="10" style="86" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="86"/>
+    <col min="1" max="1" width="8.88671875" style="92"/>
+    <col min="2" max="5" width="8.88671875" style="85"/>
+    <col min="6" max="6" width="10" style="85" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="54" customFormat="1" ht="32.4">
@@ -9017,108 +9084,108 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="126" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="86">
+      <c r="E2" s="85">
         <v>2</v>
       </c>
-      <c r="F2" s="86">
+      <c r="F2" s="85">
         <v>100</v>
       </c>
-      <c r="G2" s="86">
+      <c r="G2" s="85">
         <v>100</v>
       </c>
-      <c r="H2" s="86">
+      <c r="H2" s="85">
         <v>33</v>
       </c>
-      <c r="I2" s="86">
+      <c r="I2" s="85">
         <v>20</v>
       </c>
-      <c r="J2" s="86">
+      <c r="J2" s="85">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="31.2">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="86" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="85">
         <v>1</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="85">
         <v>150</v>
       </c>
-      <c r="G3" s="86">
+      <c r="G3" s="85">
         <v>100</v>
       </c>
-      <c r="H3" s="86">
+      <c r="H3" s="85">
         <v>33</v>
       </c>
-      <c r="I3" s="86">
+      <c r="I3" s="85">
         <v>40</v>
       </c>
-      <c r="J3" s="86">
+      <c r="J3" s="85">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="126" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="86">
+      <c r="E4" s="85">
         <v>10</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F4" s="85">
         <v>3000</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G4" s="85">
         <v>100000</v>
       </c>
-      <c r="H4" s="86">
+      <c r="H4" s="85">
         <v>100000</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="85">
         <v>100</v>
       </c>
-      <c r="J4" s="86">
+      <c r="J4" s="85">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="124"/>
+      <c r="B5" s="126"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="124"/>
+      <c r="B6" s="126"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="124"/>
+      <c r="B7" s="126"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="124"/>
+      <c r="B8" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B8"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9133,7 +9200,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -4,85 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="537"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="537" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="全局参数" sheetId="11" r:id="rId1"/>
-    <sheet name="主角属性" sheetId="1" r:id="rId2"/>
-    <sheet name="怪物属性" sheetId="2" r:id="rId3"/>
-    <sheet name="伤害公式" sheetId="4" r:id="rId4"/>
-    <sheet name="数值模拟" sheetId="10" r:id="rId5"/>
-    <sheet name="Buff状态列表" sheetId="8" r:id="rId6"/>
-    <sheet name="怪物列表" sheetId="5" r:id="rId7"/>
-    <sheet name="武器列表" sheetId="6" r:id="rId8"/>
+    <sheet name="数值模拟" sheetId="10" r:id="rId2"/>
+    <sheet name="主角属性" sheetId="1" r:id="rId3"/>
+    <sheet name="怪物属性" sheetId="2" r:id="rId4"/>
+    <sheet name="伤害公式" sheetId="4" r:id="rId5"/>
+    <sheet name="怪物列表" sheetId="5" r:id="rId6"/>
+    <sheet name="武器列表" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="C7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-标志着玩家在对怪物造成连续硬直期间，最大能安全连续输出的时机</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B48" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-绿色底：表现需求</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -371,35 +308,97 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+标志着玩家在对怪物造成连续硬直期间，最大能安全连续输出的时机</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+绿色底：表现需求</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="360">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻修正系数</t>
@@ -415,190 +414,190 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -608,39 +607,39 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -656,71 +655,71 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -736,11 +735,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -756,31 +755,31 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -796,63 +795,63 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -868,51 +867,51 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -928,7 +927,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -944,15 +943,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -968,11 +967,11 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -988,23 +987,23 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>0-0</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式位移</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ActionMovement</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画集合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>SoftSpotTriggerAnim</t>
@@ -1036,228 +1035,224 @@
       </rPr>
       <t>Animmation</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>强制主角进入击飞、击倒等</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式强制主角播放的动画</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>InforcedAnimation</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。无论任何时刻，对于远程普攻没有次数限制，因为它已经被飞刀数量限制。</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定，长按的总时长达到这个时长，就进入蓄力这个动画状态；</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力技释放时刻（s）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeReleaseTime_Min</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定了进入蓄力状态后，至少要经过这么多时间才能释放蓄力技能；</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>决定单次招式对精力的消耗值；</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>任何合法的状态转换都可以在本动画的取消区间内取消部分动作，立即转入下一个动画；</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>在进入蓄力状态后，经过这么多时长后会被迫释放蓄力；</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>命中次数(n)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>单次额外伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>累积额外伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>累积伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害占单次总伤害占比</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害/基础伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>预设BossHP</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当前此伤害/基础伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>公式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成削刃</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>主角对怪物</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>普通部位受击招式修正系数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>弱点部位受击招式修正系数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>子类</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>可触发弱点连击的招式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮攻击频率</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮伤害FloatingBladeATK  *  怪物_弱点刀刃悬浮修正系数FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>(主角_基础削刃BasicToughnessCut+主角_武器削刃)  *  主角_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮削刃</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>常规招式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮削刃FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>远程普攻伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>（主角_基础伤害BasicATK+主角_近战普攻伤害MeleeATK）*  招式伤害修正系数ActionAKTFactor  *  怪物_受击部位招式修正系数Factor
 +弱点连击累计次数n  *  连击额外伤害累增量ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>飞刀插中、拔出弱点</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1274,7 +1269,7 @@
       </rPr>
       <t>伤害</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1291,39 +1286,39 @@
       </rPr>
       <t>削刃</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>类别①</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>类别②</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础伤害BasicATK  *  怪物_招式伤害修正系数ActionAKTFactor</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础削刃ToughnessCut  *  怪物_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1349,39 +1344,39 @@
       </rPr>
       <t xml:space="preserve">  *  刀刃插中、拔出弱点修正系数FloatingBladeATK_Factor_StabOrExtractOut</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复滞后(s)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverDelay</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性安全值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Toughness_Safe</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对应硬直动画</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1397,19 +1392,19 @@
       </rPr>
       <t>taggerAnimation_Player</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如果本招式触发硬直，则会造成受击放播放哪一种硬直动画，这是指定值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>StaggerAnimation_Monster</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>恢复生命精力消耗</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1435,11 +1430,11 @@
       </rPr>
       <t>naConsume</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>单次恢复生命百分比</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1455,255 +1450,247 @@
       </rPr>
       <t>aling_HP_Ratio</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>总所需最大连击轮数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>第n次连击伤害：An</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>单次伤害占总比</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>设定值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>远程普攻</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>刀刃悬浮</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>刀刃插中</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>武器近战普攻伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数（主角）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>受击部位招式修正系数（怪物弱点）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>B 非连击伤害（a1）模拟</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>a1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>A 弱点连击伤害模拟</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>单轮伤害次数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>a1占比</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角对Boss</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物对主角</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>单次攻击伤害占比</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>角色单次恢复占比</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Name </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Min</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>单轮总伤害占比</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>A0 基准设定表</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性削减</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATKMultiplier_Max</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力最大伤害倍数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>刀刃插中、拔出弱点修正系数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_StabOrExtractOut</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>C0 削刃基准设定</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>最小削刃百分比</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>最大削刃百分比</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>生命</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>所在区域</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>难度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>赶尸人（铃铛）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>赶尸人（近战）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>帝女</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>小怪</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Boss</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>02-1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>01-1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>01-2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">子类 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>残影扣减延迟时间</t>
@@ -1713,11 +1700,11 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>血条</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>残影缩短速度</t>
@@ -1733,28 +1720,375 @@
   </si>
   <si>
     <t>子弹时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境与怪物</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点连击/子弹时间模拟</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角对Boss伤害</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物对主角伤害</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeReleaseTime_Min</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩写</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力近战-最小蓄力技释放时刻（s）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melee_ChargeReleaseTime_Min</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_CRT_M</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程-最小蓄力技释放时刻（s）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distant_ChargeReleaseTime_Min</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个时长，发出和收回相等</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Can</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>celRange</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个时长因招式后摇不同而产生变化</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大连击间隔（s）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboInterval_Max</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>角色时间流速百分比</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_Character_TimeRatio</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_Character_TimeRatio</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C_TR</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>环境及怪物时间流速百分比</t>
-  </si>
-  <si>
-    <t>环境与怪物</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main_Character_TimeRatio</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境及怪物时间流速百分比</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>EnvironmentAndMonster_TimeRatio</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnvironmentAndMonster_TimeRatio</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;N_TR</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹时间持续时长</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTime_Duration</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTime_Duration</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T_D</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BulletTime_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ExtraTime</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT_ET</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大连击间隔（s）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹时间主角相对获得额外时长（s）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹时间持续时长（s）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消时长（s）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_CR</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_CRT_M</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_CRT_M-T_CR</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>alue</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_I_M</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_I_M</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_CRT_M-T_CR</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_CRT_M-T_CR-BT_ET</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次近战攻击时长（s）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeOfMeleeATK_Normal</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MA_n</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>应大于间隔</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>应小于间隔</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1 基准设定表</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2 设计需求表</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论上来说，近战普攻时间应该小于第4/5项</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_CRT_M-T_CR-BT_ET</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MA_n-BT_ET</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值，如果小于零则意味着在获取的额外时间完全足够多打出至少1次普通近战攻击</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战蓄力减去取消时间</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程：发出/收回蓄力减去取消时间</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击最大间隔时间</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战蓄力减去取消时间与子弹时间额外时长</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程：发出/收回蓄力减去取消时间与子弹时间额外时长</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是去除了取消的时长</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1765,13 +2099,20 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1993,8 +2334,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2035,8 +2391,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2382,413 +2744,606 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2797,7 +3352,216 @@
     <cellStyle name="输出" xfId="3" builtinId="21"/>
     <cellStyle name="输入" xfId="2" builtinId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2850,6 +3614,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2950,11 +3715,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1859751824"/>
-        <c:axId val="1859752368"/>
+        <c:axId val="1271498304"/>
+        <c:axId val="1271507552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1859751824"/>
+        <c:axId val="1271498304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2997,7 +3762,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859752368"/>
+        <c:crossAx val="1271507552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3005,7 +3770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1859752368"/>
+        <c:axId val="1271507552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859751824"/>
+        <c:crossAx val="1271498304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3153,6 +3918,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3264,11 +4030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1859739312"/>
-        <c:axId val="1718549968"/>
+        <c:axId val="1271499936"/>
+        <c:axId val="1271501024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1859739312"/>
+        <c:axId val="1271499936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,12 +4090,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1718549968"/>
+        <c:crossAx val="1271501024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1718549968"/>
+        <c:axId val="1271501024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,7 +4152,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859739312"/>
+        <c:crossAx val="1271499936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3762,11 +4528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1317133072"/>
-        <c:axId val="1866573072"/>
+        <c:axId val="1271505376"/>
+        <c:axId val="1271509184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1317133072"/>
+        <c:axId val="1271505376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,12 +4589,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1866573072"/>
+        <c:crossAx val="1271509184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1866573072"/>
+        <c:axId val="1271509184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3885,7 +4651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1317133072"/>
+        <c:crossAx val="1271505376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3899,6 +4665,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5635,66 +6402,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>518160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="âä¸æ¬æ²çº¿âçå¾çæç´¢ç»æ"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4610100" y="12725400"/>
-          <a:ext cx="640080" cy="480060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5789,6 +6496,66 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>518160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="âä¸æ¬æ²çº¿âçå¾çæç´¢ç»æ"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4610100" y="12725400"/>
+          <a:ext cx="640080" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6081,153 +6848,1686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="94" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="94"/>
-    <col min="3" max="3" width="21.21875" style="94" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" style="94" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="94"/>
+    <col min="1" max="1" width="9.88671875" style="91" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="91"/>
+    <col min="3" max="3" width="21.21875" style="91" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="139" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="93" customFormat="1" ht="16.2">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:5" s="90" customFormat="1" ht="16.2">
+      <c r="A1" s="90" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="137" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="D2" s="138" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="93" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="95" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="138" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="95" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="128" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="129" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="130" t="s">
+      <c r="D4" s="138" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="129" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="97"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="97"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="97"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="97"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="97"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="97"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="97" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="130" t="s">
+      <c r="B12" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="C12" s="96" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="144" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.2">
+      <c r="A13" s="97"/>
+      <c r="B13" s="93" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="95"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="95"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="95"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="95"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="95"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="95"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="95" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="127" t="s">
+      <c r="C13" s="96" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="141" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.2" customHeight="1">
+      <c r="A14" s="97"/>
+      <c r="B14" s="130" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="130"/>
+      <c r="D14" s="140" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="97"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="97"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="97"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="97"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="130" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="131" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="127" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.2">
-      <c r="A13" s="95"/>
-      <c r="B13" s="127" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="131" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" s="131" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="95"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="95"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="95"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="95"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="95"/>
+      <c r="B19" s="130" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="144" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="97"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="97"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="97"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AD83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="11" width="8.88671875" style="35"/>
+    <col min="12" max="12" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="50" customFormat="1" ht="16.2">
+      <c r="A1" s="114" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.2" thickBot="1"/>
+    <row r="3" spans="1:30" ht="16.8" thickBot="1">
+      <c r="A3" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+    </row>
+    <row r="4" spans="1:30" ht="46.8">
+      <c r="A4" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="16.2">
+      <c r="A5" s="55">
+        <v>1</v>
+      </c>
+      <c r="B5" s="34">
+        <v>30</v>
+      </c>
+      <c r="C5" s="65">
+        <f>B5/$K$5</f>
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="120">
+        <v>10</v>
+      </c>
+      <c r="E5" s="36">
+        <f>(A5-1)*$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="36">
+        <f>$D$5/2*(A5*A5-A5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="36">
+        <f>B5</f>
+        <v>30</v>
+      </c>
+      <c r="H5" s="37">
+        <f t="shared" ref="H5:H14" si="0">E5/B5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" ref="I5:I14" si="1">E5/$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="37">
+        <f t="shared" ref="J5:J14" si="2">B5/$B$5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="120">
+        <v>3000</v>
+      </c>
+      <c r="L5" s="122">
+        <f>$K$5/$G$14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="16.2">
+      <c r="A6" s="55">
+        <v>2</v>
+      </c>
+      <c r="B6" s="36">
+        <f>$B$5+A5*$D$5</f>
+        <v>40</v>
+      </c>
+      <c r="C6" s="65">
+        <f t="shared" ref="C6:C14" si="3">B6/$K$5</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D6" s="120"/>
+      <c r="E6" s="36">
+        <f t="shared" ref="E6:E14" si="4">(A6-1)*$D$5</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="36">
+        <f>$D$5/2*(A6*A6-A6)</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="36">
+        <f t="shared" ref="G6:G14" si="5">G5+B6</f>
+        <v>70</v>
+      </c>
+      <c r="H6" s="37">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K6" s="120"/>
+      <c r="L6" s="122"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.2">
+      <c r="A7" s="55">
+        <v>3</v>
+      </c>
+      <c r="B7" s="36">
+        <f t="shared" ref="B7:B14" si="6">$B$5+A6*$D$5</f>
+        <v>50</v>
+      </c>
+      <c r="C7" s="65">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D7" s="120"/>
+      <c r="E7" s="36">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7:F14" si="7">$D$5/2*(A7*A7-A7)</f>
+        <v>30</v>
+      </c>
+      <c r="G7" s="36">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="H7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="37">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K7" s="120"/>
+      <c r="L7" s="122"/>
+    </row>
+    <row r="8" spans="1:30" ht="16.2">
+      <c r="A8" s="55">
+        <v>4</v>
+      </c>
+      <c r="B8" s="36">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="65">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="120"/>
+      <c r="E8" s="36">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="36">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="G8" s="36">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="H8" s="37">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="120"/>
+      <c r="L8" s="122"/>
+    </row>
+    <row r="9" spans="1:30" ht="16.2">
+      <c r="A9" s="55">
+        <v>5</v>
+      </c>
+      <c r="B9" s="36">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="C9" s="65">
+        <f t="shared" si="3"/>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="D9" s="120"/>
+      <c r="E9" s="36">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="F9" s="36">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="G9" s="36">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="H9" s="37">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I9" s="37">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J9" s="37">
+        <f t="shared" si="2"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="K9" s="120"/>
+      <c r="L9" s="122"/>
+    </row>
+    <row r="10" spans="1:30" ht="16.2">
+      <c r="A10" s="55">
+        <v>6</v>
+      </c>
+      <c r="B10" s="36">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="C10" s="65">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="36">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F10" s="36">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="G10" s="36">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="H10" s="37">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="I10" s="37">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J10" s="37">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="K10" s="120"/>
+      <c r="L10" s="122"/>
+    </row>
+    <row r="11" spans="1:30" ht="16.2">
+      <c r="A11" s="55">
+        <v>7</v>
+      </c>
+      <c r="B11" s="36">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="C11" s="65">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="120"/>
+      <c r="E11" s="36">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="36">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="H11" s="37">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I11" s="37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="37">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="120"/>
+      <c r="L11" s="122"/>
+    </row>
+    <row r="12" spans="1:30" ht="16.2">
+      <c r="A12" s="55">
+        <v>8</v>
+      </c>
+      <c r="B12" s="36">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C12" s="65">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="D12" s="120"/>
+      <c r="E12" s="36">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="F12" s="36">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="H12" s="37">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="37">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J12" s="37">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K12" s="120"/>
+      <c r="L12" s="122"/>
+    </row>
+    <row r="13" spans="1:30" ht="16.2">
+      <c r="A13" s="55">
+        <v>9</v>
+      </c>
+      <c r="B13" s="36">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="C13" s="65">
+        <f t="shared" si="3"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="D13" s="120"/>
+      <c r="E13" s="36">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F13" s="36">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="5"/>
+        <v>630</v>
+      </c>
+      <c r="H13" s="37">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="I13" s="37">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" si="2"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="K13" s="120"/>
+      <c r="L13" s="122"/>
+    </row>
+    <row r="14" spans="1:30" ht="16.8" thickBot="1">
+      <c r="A14" s="57">
+        <v>10</v>
+      </c>
+      <c r="B14" s="58">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="C14" s="66">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="D14" s="121"/>
+      <c r="E14" s="58">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F14" s="58">
+        <f t="shared" si="7"/>
+        <v>450</v>
+      </c>
+      <c r="G14" s="58">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+      <c r="H14" s="59">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="59">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="59">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K14" s="121"/>
+      <c r="L14" s="123"/>
+    </row>
+    <row r="34" spans="1:30" ht="16.2" thickBot="1"/>
+    <row r="35" spans="1:30" ht="16.8" customHeight="1" thickBot="1">
+      <c r="A35" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="117"/>
+      <c r="N35" s="125" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" s="126"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+    </row>
+    <row r="36" spans="1:30" ht="16.2">
+      <c r="A36" s="61"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="63"/>
+      <c r="N36" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="O36" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="P36" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+    </row>
+    <row r="37" spans="1:30" s="50" customFormat="1" ht="69" customHeight="1">
+      <c r="A37" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="69"/>
+      <c r="N37" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="O37" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="P37" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+    </row>
+    <row r="38" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A38" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="118">
+        <v>0</v>
+      </c>
+      <c r="C38" s="124">
+        <v>20</v>
+      </c>
+      <c r="D38" s="83">
+        <v>1</v>
+      </c>
+      <c r="E38" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F38" s="72">
+        <f>($B$38+$C$38)*$D38*$E38</f>
+        <v>30</v>
+      </c>
+      <c r="G38" s="79">
+        <f>F38/$K$5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H38" s="67">
+        <v>3</v>
+      </c>
+      <c r="I38" s="78">
+        <f>G38*H38</f>
+        <v>0.03</v>
+      </c>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="56"/>
+      <c r="N38" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="O38" s="78">
+        <v>0.34</v>
+      </c>
+      <c r="P38" s="87">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+    </row>
+    <row r="39" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A39" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="118"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="83">
+        <v>3</v>
+      </c>
+      <c r="E39" s="71">
+        <v>2</v>
+      </c>
+      <c r="F39" s="72">
+        <f>($B$38+$C$38)*$D39*$E39</f>
+        <v>120</v>
+      </c>
+      <c r="G39" s="79">
+        <f t="shared" ref="G39:G43" si="8">F39/$K$5</f>
+        <v>0.04</v>
+      </c>
+      <c r="H39" s="67">
+        <v>1</v>
+      </c>
+      <c r="I39" s="78">
+        <f t="shared" ref="I39:I43" si="9">G39*H39</f>
+        <v>0.04</v>
+      </c>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="56"/>
+      <c r="N39" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="O39" s="78">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="P39" s="87">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="53"/>
+    </row>
+    <row r="40" spans="1:30" ht="16.2" customHeight="1">
+      <c r="A40" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="118"/>
+      <c r="C40" s="124">
+        <v>20</v>
+      </c>
+      <c r="D40" s="83">
+        <v>0.6</v>
+      </c>
+      <c r="E40" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="F40" s="72">
+        <f>($B$38+$C$40)*$D40*$E40</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G40" s="79">
+        <f t="shared" si="8"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="H40" s="67">
+        <v>3</v>
+      </c>
+      <c r="I40" s="78">
+        <f t="shared" si="9"/>
+        <v>1.44E-2</v>
+      </c>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="56"/>
+      <c r="N40" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="O40" s="78">
+        <v>0.15</v>
+      </c>
+      <c r="P40" s="87">
+        <v>0.34</v>
+      </c>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+    </row>
+    <row r="41" spans="1:30" ht="16.2" customHeight="1">
+      <c r="A41" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="118"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="72">
+        <f>($B$38+$C$40)*$D41*$E41</f>
+        <v>24</v>
+      </c>
+      <c r="G41" s="79">
+        <f t="shared" si="8"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H41" s="67">
+        <v>3</v>
+      </c>
+      <c r="I41" s="78">
+        <f t="shared" si="9"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="56"/>
+      <c r="N41" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="O41" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="P41" s="87">
+        <v>0.34</v>
+      </c>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+    </row>
+    <row r="42" spans="1:30" ht="16.2" customHeight="1">
+      <c r="A42" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="118"/>
+      <c r="C42" s="84">
+        <v>8</v>
+      </c>
+      <c r="D42" s="73">
+        <v>1</v>
+      </c>
+      <c r="E42" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="F42" s="72">
+        <v>18</v>
+      </c>
+      <c r="G42" s="79">
+        <f t="shared" si="8"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H42" s="67">
+        <v>6</v>
+      </c>
+      <c r="I42" s="78">
+        <f t="shared" si="9"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="56"/>
+      <c r="N42" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="O42" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="P42" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+    </row>
+    <row r="43" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A43" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="119"/>
+      <c r="C43" s="75">
+        <v>20</v>
+      </c>
+      <c r="D43" s="75">
+        <v>1</v>
+      </c>
+      <c r="E43" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="F43" s="76">
+        <f>($B$38+$C43)*$D43*$E43</f>
+        <v>30</v>
+      </c>
+      <c r="G43" s="80">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="75">
+        <v>2</v>
+      </c>
+      <c r="I43" s="80">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="60"/>
+      <c r="N43" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="O43" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="P43" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+    </row>
+    <row r="46" spans="1:30" ht="16.2">
+      <c r="A46" s="114" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="114"/>
+      <c r="S46" s="114"/>
+      <c r="T46" s="114"/>
+      <c r="U46" s="114"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="114"/>
+      <c r="Y46" s="114"/>
+      <c r="Z46" s="114"/>
+      <c r="AA46" s="114"/>
+      <c r="AB46" s="114"/>
+      <c r="AC46" s="114"/>
+      <c r="AD46" s="114"/>
+    </row>
+    <row r="47" spans="1:30" ht="16.8" thickBot="1">
+      <c r="A47" s="50"/>
+    </row>
+    <row r="48" spans="1:30" ht="16.2" customHeight="1">
+      <c r="A48" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="132"/>
+      <c r="C48" s="133"/>
+    </row>
+    <row r="49" spans="1:3" ht="16.2" customHeight="1">
+      <c r="A49" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="31.2">
+      <c r="A50" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="135">
+        <v>0.1</v>
+      </c>
+      <c r="C50" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="31.2">
+      <c r="A51" s="134" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="135">
+        <v>0.3</v>
+      </c>
+      <c r="C51" s="135">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="134" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" s="135">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="16.2">
+      <c r="A69" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="114"/>
+      <c r="P69" s="114"/>
+      <c r="Q69" s="114"/>
+      <c r="R69" s="114"/>
+      <c r="S69" s="114"/>
+      <c r="T69" s="114"/>
+      <c r="U69" s="114"/>
+      <c r="V69" s="114"/>
+      <c r="W69" s="114"/>
+      <c r="X69" s="114"/>
+      <c r="Y69" s="114"/>
+      <c r="Z69" s="114"/>
+      <c r="AA69" s="114"/>
+      <c r="AB69" s="114"/>
+      <c r="AC69" s="114"/>
+      <c r="AD69" s="114"/>
+    </row>
+    <row r="70" spans="1:30" ht="16.2" thickBot="1"/>
+    <row r="71" spans="1:30" ht="16.2" customHeight="1">
+      <c r="A71" s="125" t="s">
+        <v>348</v>
+      </c>
+      <c r="B71" s="126"/>
+      <c r="C71" s="126"/>
+      <c r="D71" s="126"/>
+      <c r="E71" s="126"/>
+      <c r="F71" s="126"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="127"/>
+      <c r="I71" s="125" t="s">
+        <v>349</v>
+      </c>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="126"/>
+      <c r="M71" s="126"/>
+      <c r="N71" s="126"/>
+      <c r="O71" s="126"/>
+      <c r="P71" s="126"/>
+      <c r="Q71" s="126"/>
+      <c r="R71" s="126"/>
+      <c r="S71" s="127"/>
+    </row>
+    <row r="72" spans="1:30" ht="16.2">
+      <c r="A72" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="143"/>
+      <c r="C72" s="143" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="143"/>
+      <c r="E72" s="146" t="s">
+        <v>299</v>
+      </c>
+      <c r="F72" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="G72" s="145" t="s">
+        <v>305</v>
+      </c>
+      <c r="H72" s="152"/>
+      <c r="I72" s="159" t="s">
+        <v>347</v>
+      </c>
+      <c r="J72" s="146" t="s">
+        <v>346</v>
+      </c>
+      <c r="K72" s="145" t="s">
+        <v>331</v>
+      </c>
+      <c r="L72" s="147"/>
+      <c r="M72" s="146" t="s">
+        <v>335</v>
+      </c>
+      <c r="N72" s="145" t="s">
+        <v>330</v>
+      </c>
+      <c r="O72" s="147"/>
+      <c r="P72" s="147"/>
+      <c r="Q72" s="147"/>
+      <c r="R72" s="147"/>
+      <c r="S72" s="152"/>
+    </row>
+    <row r="73" spans="1:30" ht="31.8" customHeight="1">
+      <c r="A73" s="153" t="s">
+        <v>300</v>
+      </c>
+      <c r="B73" s="145"/>
+      <c r="C73" s="145" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73" s="145"/>
+      <c r="E73" s="146" t="s">
+        <v>302</v>
+      </c>
+      <c r="F73" s="92">
+        <v>1.5</v>
+      </c>
+      <c r="G73" s="147"/>
+      <c r="H73" s="152"/>
+      <c r="I73" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="J73" s="165">
+        <v>1</v>
+      </c>
+      <c r="K73" s="145" t="s">
+        <v>334</v>
+      </c>
+      <c r="L73" s="147"/>
+      <c r="M73" s="36">
+        <f>$F$73-$F$75</f>
+        <v>1.3</v>
+      </c>
+      <c r="N73" s="145" t="s">
+        <v>354</v>
+      </c>
+      <c r="O73" s="147"/>
+      <c r="P73" s="147"/>
+      <c r="Q73" s="147"/>
+      <c r="R73" s="147"/>
+      <c r="S73" s="152"/>
+    </row>
+    <row r="74" spans="1:30" ht="31.8" customHeight="1">
+      <c r="A74" s="153" t="s">
+        <v>303</v>
+      </c>
+      <c r="B74" s="145"/>
+      <c r="C74" s="145" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" s="145"/>
+      <c r="E74" s="146" t="s">
+        <v>333</v>
+      </c>
+      <c r="F74" s="92">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G74" s="145" t="s">
+        <v>306</v>
+      </c>
+      <c r="H74" s="152"/>
+      <c r="I74" s="160"/>
+      <c r="J74" s="165">
+        <v>2</v>
+      </c>
+      <c r="K74" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="L74" s="147"/>
+      <c r="M74" s="36">
+        <f>$F$74-$F$75</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="N74" s="145" t="s">
+        <v>355</v>
+      </c>
+      <c r="O74" s="147"/>
+      <c r="P74" s="147"/>
+      <c r="Q74" s="147"/>
+      <c r="R74" s="147"/>
+      <c r="S74" s="152"/>
+    </row>
+    <row r="75" spans="1:30" ht="31.8" customHeight="1">
+      <c r="A75" s="153" t="s">
+        <v>329</v>
+      </c>
+      <c r="B75" s="145"/>
+      <c r="C75" s="145" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" s="147"/>
+      <c r="E75" s="146" t="s">
+        <v>332</v>
+      </c>
+      <c r="F75" s="92">
+        <v>0.2</v>
+      </c>
+      <c r="G75" s="145" t="s">
+        <v>308</v>
+      </c>
+      <c r="H75" s="152"/>
+      <c r="I75" s="159" t="s">
+        <v>343</v>
+      </c>
+      <c r="J75" s="149">
+        <v>3</v>
+      </c>
+      <c r="K75" s="162" t="s">
+        <v>337</v>
+      </c>
+      <c r="L75" s="162"/>
+      <c r="M75" s="36">
+        <f>$F$76</f>
+        <v>0.85</v>
+      </c>
+      <c r="N75" s="145" t="s">
+        <v>356</v>
+      </c>
+      <c r="O75" s="147"/>
+      <c r="P75" s="147"/>
+      <c r="Q75" s="147"/>
+      <c r="R75" s="147"/>
+      <c r="S75" s="152"/>
+    </row>
+    <row r="76" spans="1:30" ht="31.8" customHeight="1">
+      <c r="A76" s="153" t="s">
+        <v>326</v>
+      </c>
+      <c r="B76" s="145"/>
+      <c r="C76" s="145" t="s">
+        <v>310</v>
+      </c>
+      <c r="D76" s="147"/>
+      <c r="E76" s="146" t="s">
+        <v>336</v>
+      </c>
+      <c r="F76" s="92">
+        <v>0.85</v>
+      </c>
+      <c r="G76" s="147"/>
+      <c r="H76" s="152"/>
+      <c r="I76" s="163" t="s">
+        <v>345</v>
+      </c>
+      <c r="J76" s="148">
+        <v>4</v>
+      </c>
+      <c r="K76" s="145" t="s">
+        <v>339</v>
+      </c>
+      <c r="L76" s="147"/>
+      <c r="M76" s="36">
+        <f>$M$73-$F$80</f>
+        <v>0.8</v>
+      </c>
+      <c r="N76" s="145" t="s">
+        <v>357</v>
+      </c>
+      <c r="O76" s="147"/>
+      <c r="P76" s="147"/>
+      <c r="Q76" s="147"/>
+      <c r="R76" s="147"/>
+      <c r="S76" s="152"/>
+    </row>
+    <row r="77" spans="1:30" ht="31.8" customHeight="1">
+      <c r="A77" s="153" t="s">
+        <v>311</v>
+      </c>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="D77" s="147"/>
+      <c r="E77" s="146" t="s">
+        <v>314</v>
+      </c>
+      <c r="F77" s="92">
+        <v>0.8</v>
+      </c>
+      <c r="G77" s="147"/>
+      <c r="H77" s="152"/>
+      <c r="I77" s="164"/>
+      <c r="J77" s="148">
+        <v>5</v>
+      </c>
+      <c r="K77" s="145" t="s">
+        <v>351</v>
+      </c>
+      <c r="L77" s="147"/>
+      <c r="M77" s="36">
+        <f>$M$74-$F$80</f>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="N77" s="145" t="s">
+        <v>358</v>
+      </c>
+      <c r="O77" s="147"/>
+      <c r="P77" s="147"/>
+      <c r="Q77" s="147"/>
+      <c r="R77" s="147"/>
+      <c r="S77" s="152"/>
+    </row>
+    <row r="78" spans="1:30" ht="31.8" customHeight="1">
+      <c r="A78" s="153" t="s">
+        <v>316</v>
+      </c>
+      <c r="B78" s="145"/>
+      <c r="C78" s="150" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" s="150"/>
+      <c r="E78" s="146" t="s">
+        <v>319</v>
+      </c>
+      <c r="F78" s="92">
+        <v>0.3</v>
+      </c>
+      <c r="G78" s="147"/>
+      <c r="H78" s="152"/>
+      <c r="I78" s="164"/>
+      <c r="J78" s="148">
+        <v>6</v>
+      </c>
+      <c r="K78" s="145" t="s">
+        <v>342</v>
+      </c>
+      <c r="L78" s="147"/>
+      <c r="M78" s="36">
+        <f>$F$81</f>
+        <v>0.4</v>
+      </c>
+      <c r="N78" s="147" t="s">
+        <v>350</v>
+      </c>
+      <c r="O78" s="147"/>
+      <c r="P78" s="147"/>
+      <c r="Q78" s="147"/>
+      <c r="R78" s="147"/>
+      <c r="S78" s="152"/>
+    </row>
+    <row r="79" spans="1:30" ht="31.8" customHeight="1" thickBot="1">
+      <c r="A79" s="153" t="s">
+        <v>328</v>
+      </c>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145" t="s">
+        <v>322</v>
+      </c>
+      <c r="D79" s="147"/>
+      <c r="E79" s="146" t="s">
+        <v>323</v>
+      </c>
+      <c r="F79" s="92">
+        <v>1</v>
+      </c>
+      <c r="G79" s="147"/>
+      <c r="H79" s="152"/>
+      <c r="I79" s="168"/>
+      <c r="J79" s="169">
+        <v>7</v>
+      </c>
+      <c r="K79" s="155" t="s">
+        <v>352</v>
+      </c>
+      <c r="L79" s="156"/>
+      <c r="M79" s="58">
+        <f>$M$78-$F$80</f>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="N79" s="155" t="s">
+        <v>353</v>
+      </c>
+      <c r="O79" s="156"/>
+      <c r="P79" s="156"/>
+      <c r="Q79" s="156"/>
+      <c r="R79" s="156"/>
+      <c r="S79" s="161"/>
+    </row>
+    <row r="80" spans="1:30" ht="31.8" customHeight="1">
+      <c r="A80" s="153" t="s">
+        <v>327</v>
+      </c>
+      <c r="B80" s="145"/>
+      <c r="C80" s="145" t="s">
+        <v>324</v>
+      </c>
+      <c r="D80" s="147"/>
+      <c r="E80" s="146" t="s">
+        <v>325</v>
+      </c>
+      <c r="F80" s="36">
+        <f>-$F$79*($F$78-$F$77)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="147"/>
+      <c r="H80" s="152"/>
+    </row>
+    <row r="81" spans="1:8" ht="31.8" customHeight="1" thickBot="1">
+      <c r="A81" s="154" t="s">
+        <v>340</v>
+      </c>
+      <c r="B81" s="155"/>
+      <c r="C81" s="155" t="s">
+        <v>341</v>
+      </c>
+      <c r="D81" s="156"/>
+      <c r="E81" s="157" t="s">
+        <v>342</v>
+      </c>
+      <c r="F81" s="158">
+        <v>0.4</v>
+      </c>
+      <c r="G81" s="167" t="s">
+        <v>359</v>
+      </c>
+      <c r="H81" s="166"/>
+    </row>
+    <row r="82" spans="1:8" ht="31.8" customHeight="1">
+      <c r="A82" s="130"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="142"/>
+      <c r="D82" s="142"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="142"/>
+      <c r="B83" s="142"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="142"/>
+    </row>
+  </sheetData>
+  <mergeCells count="67">
+    <mergeCell ref="I71:S71"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="N79:S79"/>
+    <mergeCell ref="N74:S74"/>
+    <mergeCell ref="N75:S75"/>
+    <mergeCell ref="N76:S76"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:AD69"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:S72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:S73"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A46:AD46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="D5:D14"/>
+    <mergeCell ref="K5:K14"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="N35:P35"/>
+  </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <conditionalFormatting sqref="M73:M74">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
+      <formula>$M$75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M76:M78">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+      <formula>$M$75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M79">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+      <formula>$M$75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6255,30 +8555,30 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="98"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="51">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="102"/>
-      <c r="B3" s="98" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="100" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6287,13 +8587,13 @@
       <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="98"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
@@ -6304,41 +8604,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="46" customFormat="1" ht="31.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="53" t="s">
+    <row r="5" spans="1:6" s="45" customFormat="1" ht="31.2">
+      <c r="A5" s="98"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="E5" s="45">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" s="45" customFormat="1" ht="15.6">
+      <c r="A6" s="98"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="46">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" s="46" customFormat="1" ht="15.6">
-      <c r="A6" s="102"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>0.4</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
-      <c r="A7" s="102"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="100"/>
     </row>
     <row r="8" spans="1:6" ht="15.6">
-      <c r="A8" s="102"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="100" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -6347,13 +8647,13 @@
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="51">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2">
-      <c r="A9" s="102"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
@@ -6364,95 +8664,95 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="40" customFormat="1" ht="31.2">
-      <c r="A10" s="102"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="40">
+    <row r="10" spans="1:6" s="39" customFormat="1" ht="31.2">
+      <c r="A10" s="98"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="40" customFormat="1" ht="15.6">
-      <c r="A11" s="102"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="49" t="s">
+    <row r="11" spans="1:6" s="39" customFormat="1" ht="15.6">
+      <c r="A11" s="98"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.2">
-      <c r="A12" s="102"/>
-      <c r="B12" s="98"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="51">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="102"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="100"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
-      <c r="A14" s="102"/>
-      <c r="B14" s="98" t="s">
+      <c r="A14" s="98"/>
+      <c r="B14" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="52">
+      <c r="D14" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6">
-      <c r="A15" s="102"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="41" t="s">
+      <c r="A15" s="98"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6">
-      <c r="A16" s="102"/>
-      <c r="B16" s="98"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="100"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="102"/>
-      <c r="B17" s="98" t="s">
+      <c r="A17" s="98"/>
+      <c r="B17" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="31.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="99" t="s">
+      <c r="A18" s="98"/>
+      <c r="B18" s="105" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -6466,8 +8766,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2">
-      <c r="A19" s="102"/>
-      <c r="B19" s="99"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="10" t="s">
         <v>103</v>
       </c>
@@ -6480,8 +8780,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" ht="31.2">
-      <c r="A20" s="102"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="10" t="s">
         <v>101</v>
       </c>
@@ -6494,8 +8794,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" ht="31.2">
-      <c r="A21" s="102"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="10" t="s">
         <v>104</v>
       </c>
@@ -6508,120 +8808,120 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
-      <c r="A22" s="102"/>
-      <c r="B22" s="98"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="100"/>
     </row>
     <row r="23" spans="1:6" ht="15.6">
-      <c r="A23" s="102"/>
+      <c r="A23" s="98"/>
     </row>
     <row r="24" spans="1:6" ht="15.6">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="52">
+      <c r="E24" s="51">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="98" t="s">
+      <c r="A25" s="98"/>
+      <c r="B25" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="51">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6">
-      <c r="A26" s="102"/>
-      <c r="B26" s="98"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="100"/>
     </row>
     <row r="27" spans="1:6" ht="31.2">
-      <c r="A27" s="102"/>
-      <c r="B27" s="98" t="s">
+      <c r="A27" s="98"/>
+      <c r="B27" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="81" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="49" customFormat="1" ht="31.2">
+      <c r="A28" s="98"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="81" t="s">
         <v>253</v>
       </c>
-      <c r="D27" s="82" t="s">
-        <v>254</v>
-      </c>
-      <c r="E27" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="50" customFormat="1" ht="31.2">
-      <c r="A28" s="102"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="52">
+      <c r="D28" s="81" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" s="51">
         <v>0.8</v>
       </c>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="15.6">
-      <c r="A29" s="102"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="55">
+      <c r="A29" s="98"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="54">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6">
-      <c r="A30" s="102"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="E30" s="52">
+      <c r="A30" s="98"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="51">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="39" customFormat="1" ht="31.2">
-      <c r="A31" s="102"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="E31" s="39">
+    <row r="31" spans="1:6" s="38" customFormat="1" ht="31.2">
+      <c r="A31" s="98"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="38">
         <v>10</v>
       </c>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="31.2">
-      <c r="A32" s="102"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="41" t="s">
-        <v>178</v>
+      <c r="A32" s="98"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>78</v>
@@ -6631,12 +8931,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="102"/>
-      <c r="B33" s="98"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="100"/>
     </row>
     <row r="34" spans="1:6" ht="31.2">
-      <c r="A34" s="102"/>
-      <c r="B34" s="98" t="s">
+      <c r="A34" s="98"/>
+      <c r="B34" s="100" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -6648,8 +8948,8 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2">
-      <c r="A35" s="102"/>
-      <c r="B35" s="98"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="13" t="s">
         <v>111</v>
       </c>
@@ -6660,8 +8960,8 @@
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" ht="31.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="98"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="13" t="s">
         <v>112</v>
       </c>
@@ -6672,8 +8972,8 @@
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" ht="31.2">
-      <c r="A37" s="102"/>
-      <c r="B37" s="98"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="13" t="s">
         <v>113</v>
       </c>
@@ -6684,16 +8984,16 @@
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A38" s="102"/>
-      <c r="B38" s="98"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="6"/>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="31.2">
-      <c r="A39" s="102"/>
-      <c r="B39" s="98" t="s">
+      <c r="A39" s="98"/>
+      <c r="B39" s="100" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6707,8 +9007,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="31.2">
-      <c r="A40" s="102"/>
-      <c r="B40" s="98"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="1" t="s">
         <v>69</v>
       </c>
@@ -6718,8 +9018,8 @@
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="31.2">
-      <c r="A41" s="102"/>
-      <c r="B41" s="98"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="1" t="s">
         <v>70</v>
       </c>
@@ -6731,8 +9031,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.2">
-      <c r="A42" s="102"/>
-      <c r="B42" s="98"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="1" t="s">
         <v>71</v>
       </c>
@@ -6742,21 +9042,21 @@
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="31.2">
-      <c r="A43" s="102"/>
-      <c r="B43" s="98"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="54">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="31.2">
-      <c r="A44" s="102"/>
-      <c r="B44" s="98"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="8" t="s">
         <v>97</v>
       </c>
@@ -6768,36 +9068,36 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.6">
-      <c r="A45" s="102"/>
-      <c r="B45" s="98"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="100"/>
     </row>
     <row r="46" spans="1:6" ht="15.6">
-      <c r="A46" s="102"/>
-      <c r="B46" s="98"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="100"/>
     </row>
     <row r="47" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A47" s="102"/>
+      <c r="A47" s="98"/>
     </row>
     <row r="48" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A48" s="102"/>
+      <c r="A48" s="98"/>
     </row>
     <row r="49" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A49" s="102"/>
+      <c r="A49" s="98"/>
     </row>
     <row r="50" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A50" s="102"/>
+      <c r="A50" s="98"/>
     </row>
     <row r="51" spans="1:6" ht="15.6">
-      <c r="A51" s="102"/>
+      <c r="A51" s="98"/>
     </row>
     <row r="52" spans="1:6" ht="15.6">
-      <c r="A52" s="102"/>
+      <c r="A52" s="98"/>
     </row>
     <row r="53" spans="1:6" ht="15.6">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="100" t="s">
+      <c r="B53" s="106" t="s">
         <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -6809,29 +9109,29 @@
       <c r="E53" s="1">
         <v>0.2</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="28" customFormat="1" ht="31.2">
-      <c r="A54" s="102"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="30" t="s">
+      <c r="A54" s="98"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="129" t="s">
+        <v>298</v>
+      </c>
+      <c r="E54" s="28">
+        <v>1</v>
+      </c>
+      <c r="F54" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="E54" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="55" spans="1:6" ht="15.6">
-      <c r="A55" s="102"/>
-      <c r="B55" s="98"/>
+      <c r="A55" s="98"/>
+      <c r="B55" s="100"/>
       <c r="C55" s="1" t="s">
         <v>81</v>
       </c>
@@ -6841,13 +9141,13 @@
       <c r="E55" s="1">
         <v>2</v>
       </c>
-      <c r="F55" s="31" t="s">
-        <v>152</v>
+      <c r="F55" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42.6" customHeight="1">
-      <c r="A56" s="102"/>
-      <c r="B56" s="98"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="100"/>
       <c r="C56" s="1" t="s">
         <v>19</v>
       </c>
@@ -6858,27 +9158,27 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="36" customHeight="1">
-      <c r="A57" s="102"/>
-      <c r="B57" s="98" t="s">
+      <c r="A57" s="98"/>
+      <c r="B57" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="40" t="s">
         <v>183</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>184</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.6">
-      <c r="A58" s="102"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="41" t="s">
+      <c r="A58" s="98"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="40" t="s">
         <v>68</v>
       </c>
       <c r="E58" s="1">
@@ -6886,36 +9186,36 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="31.2">
-      <c r="A59" s="102"/>
-      <c r="B59" s="98" t="s">
+      <c r="A59" s="98"/>
+      <c r="B59" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="98"/>
+      <c r="C59" s="100"/>
       <c r="D59" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
       </c>
-      <c r="F59" s="32" t="s">
-        <v>150</v>
+      <c r="F59" s="31" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.6">
-      <c r="A60" s="102"/>
-      <c r="B60" s="98" t="s">
+      <c r="A60" s="98"/>
+      <c r="B60" s="100" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.6">
-      <c r="A61" s="102"/>
-      <c r="B61" s="98"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="100"/>
       <c r="D61" s="15"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:6" s="11" customFormat="1" ht="31.2">
-      <c r="A62" s="102"/>
-      <c r="B62" s="98"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="15" t="s">
         <v>118</v>
       </c>
@@ -6928,33 +9228,33 @@
       </c>
     </row>
     <row r="63" spans="1:6" s="11" customFormat="1" ht="15.6">
-      <c r="A63" s="102"/>
-      <c r="B63" s="98"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="100"/>
       <c r="D63" s="12"/>
       <c r="E63" s="6"/>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" ht="15.6">
-      <c r="A64" s="102"/>
-      <c r="B64" s="98"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="100"/>
     </row>
     <row r="65" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A65" s="102"/>
-      <c r="B65" s="105" t="s">
+      <c r="A65" s="98"/>
+      <c r="B65" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="105"/>
+      <c r="C65" s="102"/>
       <c r="D65" s="21" t="s">
         <v>135</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A66" s="102"/>
-      <c r="B66" s="105" t="s">
+      <c r="A66" s="98"/>
+      <c r="B66" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="105"/>
+      <c r="C66" s="102"/>
       <c r="D66" s="8" t="s">
         <v>92</v>
       </c>
@@ -6964,11 +9264,11 @@
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A67" s="102"/>
-      <c r="B67" s="105" t="s">
+      <c r="A67" s="98"/>
+      <c r="B67" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="98"/>
+      <c r="C67" s="100"/>
       <c r="D67" s="8" t="s">
         <v>95</v>
       </c>
@@ -6978,11 +9278,11 @@
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A68" s="102"/>
-      <c r="B68" s="105" t="s">
+      <c r="A68" s="98"/>
+      <c r="B68" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="98"/>
+      <c r="C68" s="100"/>
       <c r="D68" s="8" t="s">
         <v>137</v>
       </c>
@@ -6990,67 +9290,67 @@
       <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A69" s="102"/>
-      <c r="B69" s="104" t="s">
+      <c r="A69" s="98"/>
+      <c r="B69" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="98"/>
+      <c r="C69" s="100"/>
       <c r="D69" s="15" t="s">
         <v>126</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F69" s="32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="40" customFormat="1" ht="36.6" customHeight="1">
-      <c r="A70" s="102"/>
-      <c r="B70" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="C70" s="97"/>
-      <c r="D70" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="E70" s="47">
+      <c r="F69" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="39" customFormat="1" ht="36.6" customHeight="1">
+      <c r="A70" s="98"/>
+      <c r="B70" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="104"/>
+      <c r="D70" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" s="46">
         <v>1</v>
       </c>
-      <c r="F70" s="47" t="s">
-        <v>215</v>
+      <c r="F70" s="46" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A71" s="102"/>
+      <c r="A71" s="98"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A72" s="102"/>
+      <c r="A72" s="98"/>
       <c r="C72" s="14"/>
       <c r="D72" s="13"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A73" s="102"/>
+      <c r="A73" s="98"/>
       <c r="C73" s="14"/>
       <c r="D73" s="13"/>
       <c r="E73" s="17"/>
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A74" s="102"/>
+      <c r="A74" s="98"/>
       <c r="C74" s="14"/>
       <c r="D74" s="13"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16"/>
     </row>
     <row r="75" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A75" s="102"/>
+      <c r="A75" s="98"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
       <c r="D75" s="13"/>
@@ -7058,21 +9358,21 @@
       <c r="F75" s="16"/>
     </row>
     <row r="76" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A76" s="102"/>
+      <c r="A76" s="98"/>
       <c r="C76" s="14"/>
       <c r="D76" s="13"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" ht="15.6">
-      <c r="A77" s="102"/>
+      <c r="A77" s="98"/>
       <c r="B77" s="9"/>
     </row>
     <row r="78" spans="1:6" ht="15.6">
-      <c r="A78" s="102" t="s">
+      <c r="A78" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="103" t="s">
+      <c r="B78" s="99" t="s">
         <v>121</v>
       </c>
       <c r="C78" s="22" t="s">
@@ -7086,8 +9386,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.6">
-      <c r="A79" s="102"/>
-      <c r="B79" s="98"/>
+      <c r="A79" s="98"/>
+      <c r="B79" s="100"/>
       <c r="C79" s="15" t="s">
         <v>129</v>
       </c>
@@ -7099,26 +9399,26 @@
       </c>
     </row>
     <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A80" s="102"/>
-      <c r="B80" s="98"/>
+      <c r="A80" s="98"/>
+      <c r="B80" s="100"/>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A81" s="102"/>
-      <c r="B81" s="98"/>
+      <c r="A81" s="98"/>
+      <c r="B81" s="100"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" ht="15.6">
-      <c r="A82" s="102"/>
-      <c r="B82" s="98"/>
+      <c r="A82" s="98"/>
+      <c r="B82" s="100"/>
     </row>
     <row r="83" spans="1:6" ht="15.6">
-      <c r="A83" s="102"/>
-      <c r="B83" s="103" t="s">
+      <c r="A83" s="98"/>
+      <c r="B83" s="99" t="s">
         <v>122</v>
       </c>
       <c r="C83" s="15" t="s">
@@ -7132,32 +9432,32 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6">
-      <c r="A84" s="102"/>
-      <c r="B84" s="98"/>
+      <c r="A84" s="98"/>
+      <c r="B84" s="100"/>
       <c r="C84" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A85" s="102"/>
-      <c r="B85" s="98"/>
+      <c r="A85" s="98"/>
+      <c r="B85" s="100"/>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A86" s="102"/>
-      <c r="B86" s="98"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="100"/>
       <c r="C86" s="20"/>
       <c r="F86" s="16"/>
     </row>
     <row r="87" spans="1:6" ht="15.6">
-      <c r="A87" s="102"/>
-      <c r="B87" s="98"/>
+      <c r="A87" s="98"/>
+      <c r="B87" s="100"/>
     </row>
     <row r="88" spans="1:6" ht="15.6">
-      <c r="A88" s="102"/>
-      <c r="B88" s="103" t="s">
+      <c r="A88" s="98"/>
+      <c r="B88" s="99" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -7171,16 +9471,16 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6">
-      <c r="A89" s="102"/>
-      <c r="B89" s="98"/>
+      <c r="A89" s="98"/>
+      <c r="B89" s="100"/>
     </row>
     <row r="90" spans="1:6" ht="15.6">
-      <c r="A90" s="102"/>
-      <c r="B90" s="98"/>
+      <c r="A90" s="98"/>
+      <c r="B90" s="100"/>
     </row>
     <row r="91" spans="1:6" ht="15.6">
-      <c r="A91" s="102"/>
-      <c r="B91" s="103" t="s">
+      <c r="A91" s="98"/>
+      <c r="B91" s="99" t="s">
         <v>124</v>
       </c>
       <c r="C91" s="15" t="s">
@@ -7194,8 +9494,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="31.2">
-      <c r="A92" s="102"/>
-      <c r="B92" s="98"/>
+      <c r="A92" s="98"/>
+      <c r="B92" s="100"/>
       <c r="C92" s="26" t="s">
         <v>136</v>
       </c>
@@ -7204,48 +9504,61 @@
       </c>
     </row>
     <row r="93" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A93" s="102"/>
-      <c r="B93" s="98"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="100"/>
       <c r="C93" s="13"/>
       <c r="D93" s="20"/>
       <c r="F93" s="16"/>
     </row>
     <row r="94" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A94" s="102"/>
-      <c r="B94" s="98"/>
+      <c r="A94" s="98"/>
+      <c r="B94" s="100"/>
       <c r="C94" s="13"/>
       <c r="D94" s="20"/>
       <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" ht="15.6">
-      <c r="A95" s="102"/>
-      <c r="B95" s="98"/>
+      <c r="A95" s="98"/>
+      <c r="B95" s="100"/>
     </row>
     <row r="96" spans="1:6" ht="15.6">
-      <c r="A96" s="102"/>
+      <c r="A96" s="98"/>
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" ht="15.6">
-      <c r="A97" s="102"/>
+      <c r="A97" s="98"/>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" ht="15.6">
-      <c r="A98" s="102"/>
+      <c r="A98" s="98"/>
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" ht="15.6">
-      <c r="A99" s="102"/>
+      <c r="A99" s="98"/>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" ht="15.6">
-      <c r="A100" s="102"/>
+      <c r="A100" s="98"/>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" ht="15.6">
-      <c r="A101" s="102"/>
+      <c r="A101" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A52"/>
     <mergeCell ref="A53:A77"/>
@@ -7262,36 +9575,26 @@
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -7318,20 +9621,20 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="98"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
@@ -7340,126 +9643,126 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="102"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" s="55">
+      <c r="D3" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="54">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="98"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="54">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>209</v>
+      <c r="A5" s="98"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>208</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="40" customFormat="1" ht="15.6">
-      <c r="A6" s="102"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="49" t="s">
+    <row r="6" spans="1:6" s="39" customFormat="1" ht="15.6">
+      <c r="A6" s="98"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2">
-      <c r="A7" s="102"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>208</v>
+      <c r="D7" s="46" t="s">
+        <v>207</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6">
-      <c r="A8" s="102"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="54">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6">
-      <c r="A9" s="102"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="41" t="s">
+      <c r="A9" s="98"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="55">
+      <c r="E9" s="54">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6">
-      <c r="A10" s="102"/>
-      <c r="B10" s="98" t="s">
+      <c r="A10" s="98"/>
+      <c r="B10" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:6" ht="15.6">
-      <c r="A11" s="102"/>
+      <c r="A11" s="98"/>
     </row>
     <row r="12" spans="1:6" ht="15.6">
-      <c r="A12" s="102"/>
+      <c r="A12" s="98"/>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="102"/>
+      <c r="A13" s="98"/>
     </row>
     <row r="14" spans="1:6" ht="31.2">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="101" t="s">
-        <v>171</v>
+      <c r="B14" s="107" t="s">
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -7472,8 +9775,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.2">
-      <c r="A15" s="102"/>
-      <c r="B15" s="98"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -7485,8 +9788,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.2">
-      <c r="A16" s="102"/>
-      <c r="B16" s="98"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -7498,8 +9801,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2">
-      <c r="A17" s="102"/>
-      <c r="B17" s="98"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
@@ -7511,8 +9814,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="31.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="98"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
@@ -7524,17 +9827,17 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6">
-      <c r="A19" s="102"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="100"/>
     </row>
     <row r="20" spans="1:5" ht="15.6">
-      <c r="A20" s="102"/>
-      <c r="B20" s="98"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="100"/>
     </row>
     <row r="21" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="101" t="s">
-        <v>172</v>
+      <c r="A21" s="98"/>
+      <c r="B21" s="107" t="s">
+        <v>171</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -7542,148 +9845,148 @@
       <c r="D21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="54">
         <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2">
-      <c r="A22" s="102"/>
-      <c r="B22" s="98"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.2">
-      <c r="A23" s="102"/>
-      <c r="B23" s="98"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="54">
         <v>1.2</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.8">
-      <c r="A24" s="102"/>
-      <c r="B24" s="98"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="54">
         <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="46.2" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="55">
+      <c r="A25" s="98"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.2">
-      <c r="A26" s="102"/>
-      <c r="B26" s="98"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="54">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="39" customFormat="1" ht="46.8">
-      <c r="A27" s="102"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="85" t="s">
-        <v>257</v>
-      </c>
-      <c r="D27" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="E27" s="55">
+    <row r="27" spans="1:5" s="38" customFormat="1" ht="46.8">
+      <c r="A27" s="98"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="39" customFormat="1" ht="15.6">
-      <c r="A28" s="102"/>
-      <c r="B28" s="98"/>
-    </row>
-    <row r="29" spans="1:5" s="39" customFormat="1" ht="15.6">
-      <c r="A29" s="102"/>
-      <c r="B29" s="98"/>
-    </row>
-    <row r="30" spans="1:5" s="39" customFormat="1" ht="15.6">
-      <c r="A30" s="102"/>
-      <c r="B30" s="98"/>
-    </row>
-    <row r="31" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A31" s="102"/>
-      <c r="B31" s="98"/>
-    </row>
-    <row r="32" spans="1:5" s="33" customFormat="1" ht="31.2">
-      <c r="A32" s="102"/>
-      <c r="B32" s="98" t="s">
+    <row r="28" spans="1:5" s="38" customFormat="1" ht="15.6">
+      <c r="A28" s="98"/>
+      <c r="B28" s="100"/>
+    </row>
+    <row r="29" spans="1:5" s="38" customFormat="1" ht="15.6">
+      <c r="A29" s="98"/>
+      <c r="B29" s="100"/>
+    </row>
+    <row r="30" spans="1:5" s="38" customFormat="1" ht="15.6">
+      <c r="A30" s="98"/>
+      <c r="B30" s="100"/>
+    </row>
+    <row r="31" spans="1:5" s="32" customFormat="1" ht="15.6">
+      <c r="A31" s="98"/>
+      <c r="B31" s="100"/>
+    </row>
+    <row r="32" spans="1:5" s="32" customFormat="1" ht="31.2">
+      <c r="A32" s="98"/>
+      <c r="B32" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="55">
+      <c r="E32" s="54">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A33" s="102"/>
-      <c r="B33" s="98"/>
+    <row r="33" spans="1:5" s="32" customFormat="1" ht="15.6">
+      <c r="A33" s="98"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="54">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="33" customFormat="1" ht="31.2">
-      <c r="A34" s="102"/>
-      <c r="B34" s="98"/>
+    <row r="34" spans="1:5" s="32" customFormat="1" ht="31.2">
+      <c r="A34" s="98"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="54">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A35" s="102"/>
-      <c r="B35" s="98"/>
+    <row r="35" spans="1:5" s="32" customFormat="1" ht="15.6">
+      <c r="A35" s="98"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="8" t="s">
         <v>89</v>
       </c>
@@ -7694,56 +9997,56 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A36" s="102"/>
-      <c r="B36" s="98"/>
+    <row r="36" spans="1:5" s="32" customFormat="1" ht="15.6">
+      <c r="A36" s="98"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A37" s="102"/>
+    <row r="37" spans="1:5" s="32" customFormat="1" ht="15.6">
+      <c r="A37" s="98"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A38" s="102"/>
+    <row r="38" spans="1:5" s="32" customFormat="1" ht="15.6">
+      <c r="A38" s="98"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A39" s="102"/>
+    <row r="39" spans="1:5" s="32" customFormat="1" ht="15.6">
+      <c r="A39" s="98"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A40" s="102"/>
+    <row r="40" spans="1:5" s="32" customFormat="1" ht="15.6">
+      <c r="A40" s="98"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A41" s="102"/>
+    <row r="41" spans="1:5" s="32" customFormat="1" ht="15.6">
+      <c r="A41" s="98"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:5" s="33" customFormat="1" ht="15.6">
-      <c r="A42" s="102"/>
+    <row r="42" spans="1:5" s="32" customFormat="1" ht="15.6">
+      <c r="A42" s="98"/>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="15.6">
-      <c r="A43" s="102"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.6">
-      <c r="A44" s="102"/>
+      <c r="A44" s="98"/>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="15.6">
-      <c r="A45" s="102"/>
+      <c r="A45" s="98"/>
     </row>
     <row r="46" spans="1:5" ht="31.2">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="98"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="8" t="s">
         <v>94</v>
       </c>
@@ -7752,11 +10055,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A47" s="102"/>
-      <c r="B47" s="98" t="s">
+      <c r="A47" s="98"/>
+      <c r="B47" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="98"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="1" t="s">
         <v>63</v>
       </c>
@@ -7765,33 +10068,33 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A48" s="102"/>
-      <c r="B48" s="107" t="s">
+      <c r="A48" s="98"/>
+      <c r="B48" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="107"/>
+      <c r="C48" s="110"/>
       <c r="D48" s="27" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15.6">
-      <c r="A49" s="102"/>
-      <c r="B49" s="105" t="s">
+      <c r="A49" s="98"/>
+      <c r="B49" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="105"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="25" t="s">
         <v>135</v>
       </c>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A50" s="102"/>
-      <c r="B50" s="105" t="s">
+      <c r="A50" s="98"/>
+      <c r="B50" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="105"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="12" t="s">
         <v>92</v>
       </c>
@@ -7800,39 +10103,39 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="32.4" customHeight="1">
-      <c r="A51" s="102"/>
-      <c r="B51" s="98" t="s">
+      <c r="A51" s="98"/>
+      <c r="B51" s="100" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="41" t="s">
-        <v>203</v>
+      <c r="D51" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E51" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A52" s="102"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>201</v>
+      <c r="A52" s="98"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>200</v>
       </c>
       <c r="E52" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A53" s="102"/>
-      <c r="B53" s="106" t="s">
+      <c r="A53" s="98"/>
+      <c r="B53" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="98"/>
+      <c r="C53" s="100"/>
       <c r="D53" s="27" t="s">
         <v>143</v>
       </c>
@@ -7842,29 +10145,29 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="36.6" customHeight="1">
-      <c r="A54" s="102"/>
-      <c r="B54" s="96" t="s">
+      <c r="A54" s="98"/>
+      <c r="B54" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="104"/>
+      <c r="D54" s="48" t="s">
         <v>213</v>
-      </c>
-      <c r="C54" s="97"/>
-      <c r="D54" s="49" t="s">
-        <v>214</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="F54" s="47" t="s">
-        <v>215</v>
+      <c r="F54" s="46" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A55" s="102"/>
+      <c r="A55" s="98"/>
     </row>
     <row r="56" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A56" s="102"/>
+      <c r="A56" s="98"/>
     </row>
     <row r="57" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A57" s="102"/>
+      <c r="A57" s="98"/>
     </row>
     <row r="58" spans="1:6" ht="16.2" customHeight="1"/>
     <row r="59" spans="1:6" ht="16.2" customHeight="1"/>
@@ -7879,6 +10182,15 @@
     <row r="68" ht="16.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:A57"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A45"/>
     <mergeCell ref="B14:B20"/>
@@ -7888,24 +10200,15 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B21:B31"/>
-    <mergeCell ref="A46:A57"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B54:C54"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -7915,109 +10218,109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="41" customWidth="1"/>
-    <col min="2" max="3" width="26.77734375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="124" style="42" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="1" width="10.5546875" style="40" customWidth="1"/>
+    <col min="2" max="3" width="26.77734375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="124" style="41" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45.6" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="76.8" customHeight="1">
+      <c r="A2" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="76.8" customHeight="1">
+      <c r="A3" s="111"/>
+      <c r="B3" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="73.8" customHeight="1">
+      <c r="A4" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="76.8" customHeight="1">
-      <c r="A2" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="110" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="44" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="76.8" customHeight="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="44" t="s">
+      <c r="D4" s="43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="73.8" customHeight="1">
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="73.8" customHeight="1">
-      <c r="A4" s="109" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="109" t="s">
+    <row r="6" spans="1:4" ht="73.8" customHeight="1">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="97.8" customHeight="1">
+      <c r="A7" s="111"/>
+      <c r="B7" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="73.8" customHeight="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="73.8" customHeight="1">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="97.8" customHeight="1">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="83.4" customHeight="1">
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="83.4" customHeight="1">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>190</v>
+      <c r="D8" s="44" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" customHeight="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8028,1011 +10331,13 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="11" width="8.88671875" style="36"/>
-    <col min="12" max="12" width="14.77734375" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" s="51" customFormat="1" ht="16.2">
-      <c r="A1" s="112" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-    </row>
-    <row r="2" spans="1:30" ht="16.2" thickBot="1"/>
-    <row r="3" spans="1:30" ht="16.8" thickBot="1">
-      <c r="A3" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:30" ht="46.8">
-      <c r="A4" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="K4" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" s="64" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="16.2">
-      <c r="A5" s="56">
-        <v>1</v>
-      </c>
-      <c r="B5" s="35">
-        <v>30</v>
-      </c>
-      <c r="C5" s="66">
-        <f>B5/$K$5</f>
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="118">
-        <v>10</v>
-      </c>
-      <c r="E5" s="37">
-        <f>(A5-1)*$D$5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="37">
-        <f>$D$5/2*(A5*A5-A5)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="37">
-        <f>B5</f>
-        <v>30</v>
-      </c>
-      <c r="H5" s="38">
-        <f t="shared" ref="H5:H14" si="0">E5/B5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="38">
-        <f t="shared" ref="I5:I14" si="1">E5/$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="38">
-        <f t="shared" ref="J5:J14" si="2">B5/$B$5</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="118">
-        <v>3000</v>
-      </c>
-      <c r="L5" s="120">
-        <f>$K$5/$G$14</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="16.2">
-      <c r="A6" s="56">
-        <v>2</v>
-      </c>
-      <c r="B6" s="37">
-        <f>$B$5+A5*$D$5</f>
-        <v>40</v>
-      </c>
-      <c r="C6" s="66">
-        <f t="shared" ref="C6:C14" si="3">B6/$K$5</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="37">
-        <f t="shared" ref="E6:E14" si="4">(A6-1)*$D$5</f>
-        <v>10</v>
-      </c>
-      <c r="F6" s="37">
-        <f>$D$5/2*(A6*A6-A6)</f>
-        <v>10</v>
-      </c>
-      <c r="G6" s="37">
-        <f t="shared" ref="G6:G14" si="5">G5+B6</f>
-        <v>70</v>
-      </c>
-      <c r="H6" s="38">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="I6" s="38">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J6" s="38">
-        <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K6" s="118"/>
-      <c r="L6" s="120"/>
-    </row>
-    <row r="7" spans="1:30" ht="16.2">
-      <c r="A7" s="56">
-        <v>3</v>
-      </c>
-      <c r="B7" s="37">
-        <f t="shared" ref="B7:B14" si="6">$B$5+A6*$D$5</f>
-        <v>50</v>
-      </c>
-      <c r="C7" s="66">
-        <f t="shared" si="3"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="37">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="F7" s="37">
-        <f t="shared" ref="F7:F14" si="7">$D$5/2*(A7*A7-A7)</f>
-        <v>30</v>
-      </c>
-      <c r="G7" s="37">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="H7" s="38">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="I7" s="38">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J7" s="38">
-        <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="K7" s="118"/>
-      <c r="L7" s="120"/>
-    </row>
-    <row r="8" spans="1:30" ht="16.2">
-      <c r="A8" s="56">
-        <v>4</v>
-      </c>
-      <c r="B8" s="37">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="C8" s="66">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="37">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="F8" s="37">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="G8" s="37">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="H8" s="38">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="38">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="38">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K8" s="118"/>
-      <c r="L8" s="120"/>
-    </row>
-    <row r="9" spans="1:30" ht="16.2">
-      <c r="A9" s="56">
-        <v>5</v>
-      </c>
-      <c r="B9" s="37">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="C9" s="66">
-        <f t="shared" si="3"/>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="37">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="F9" s="37">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="G9" s="37">
-        <f t="shared" si="5"/>
-        <v>250</v>
-      </c>
-      <c r="H9" s="38">
-        <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="I9" s="38">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J9" s="38">
-        <f t="shared" si="2"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="K9" s="118"/>
-      <c r="L9" s="120"/>
-    </row>
-    <row r="10" spans="1:30" ht="16.2">
-      <c r="A10" s="56">
-        <v>6</v>
-      </c>
-      <c r="B10" s="37">
-        <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="C10" s="66">
-        <f t="shared" si="3"/>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="37">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="F10" s="37">
-        <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="G10" s="37">
-        <f t="shared" si="5"/>
-        <v>330</v>
-      </c>
-      <c r="H10" s="38">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="I10" s="38">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="J10" s="38">
-        <f t="shared" si="2"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="K10" s="118"/>
-      <c r="L10" s="120"/>
-    </row>
-    <row r="11" spans="1:30" ht="16.2">
-      <c r="A11" s="56">
-        <v>7</v>
-      </c>
-      <c r="B11" s="37">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="C11" s="66">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
-      </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="37">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="37">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="G11" s="37">
-        <f t="shared" si="5"/>
-        <v>420</v>
-      </c>
-      <c r="H11" s="38">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I11" s="38">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="38">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K11" s="118"/>
-      <c r="L11" s="120"/>
-    </row>
-    <row r="12" spans="1:30" ht="16.2">
-      <c r="A12" s="56">
-        <v>8</v>
-      </c>
-      <c r="B12" s="37">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="C12" s="66">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="37">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="F12" s="37">
-        <f t="shared" si="7"/>
-        <v>280</v>
-      </c>
-      <c r="G12" s="37">
-        <f t="shared" si="5"/>
-        <v>520</v>
-      </c>
-      <c r="H12" s="38">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="I12" s="38">
-        <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="J12" s="38">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K12" s="118"/>
-      <c r="L12" s="120"/>
-    </row>
-    <row r="13" spans="1:30" ht="16.2">
-      <c r="A13" s="56">
-        <v>9</v>
-      </c>
-      <c r="B13" s="37">
-        <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="C13" s="66">
-        <f t="shared" si="3"/>
-        <v>3.6666666666666667E-2</v>
-      </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="37">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="F13" s="37">
-        <f t="shared" si="7"/>
-        <v>360</v>
-      </c>
-      <c r="G13" s="37">
-        <f t="shared" si="5"/>
-        <v>630</v>
-      </c>
-      <c r="H13" s="38">
-        <f t="shared" si="0"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="I13" s="38">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="J13" s="38">
-        <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="K13" s="118"/>
-      <c r="L13" s="120"/>
-    </row>
-    <row r="14" spans="1:30" ht="16.8" thickBot="1">
-      <c r="A14" s="58">
-        <v>10</v>
-      </c>
-      <c r="B14" s="59">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-      <c r="C14" s="67">
-        <f t="shared" si="3"/>
-        <v>0.04</v>
-      </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="59">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="F14" s="59">
-        <f t="shared" si="7"/>
-        <v>450</v>
-      </c>
-      <c r="G14" s="59">
-        <f t="shared" si="5"/>
-        <v>750</v>
-      </c>
-      <c r="H14" s="60">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="I14" s="60">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J14" s="60">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K14" s="119"/>
-      <c r="L14" s="121"/>
-    </row>
-    <row r="34" spans="1:30" ht="16.2" thickBot="1"/>
-    <row r="35" spans="1:30" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A35" s="113" t="s">
-        <v>236</v>
-      </c>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="115"/>
-      <c r="N35" s="123" t="s">
-        <v>259</v>
-      </c>
-      <c r="O35" s="124"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-    </row>
-    <row r="36" spans="1:30" ht="16.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
-      <c r="N36" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="O36" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="P36" s="70" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-    </row>
-    <row r="37" spans="1:30" s="51" customFormat="1" ht="69" customHeight="1">
-      <c r="A37" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="G37" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="70"/>
-      <c r="N37" s="89" t="s">
-        <v>262</v>
-      </c>
-      <c r="O37" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="P37" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-    </row>
-    <row r="38" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A38" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="B38" s="116">
-        <v>0</v>
-      </c>
-      <c r="C38" s="122">
-        <v>20</v>
-      </c>
-      <c r="D38" s="86">
-        <v>1</v>
-      </c>
-      <c r="E38" s="72">
-        <v>1.5</v>
-      </c>
-      <c r="F38" s="73">
-        <f>($B$38+$C$38)*$D38*$E38</f>
-        <v>30</v>
-      </c>
-      <c r="G38" s="80">
-        <f>F38/$K$5</f>
-        <v>0.01</v>
-      </c>
-      <c r="H38" s="68">
-        <v>3</v>
-      </c>
-      <c r="I38" s="79">
-        <f>G38*H38</f>
-        <v>0.03</v>
-      </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="57"/>
-      <c r="N38" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="O38" s="79">
-        <v>0.34</v>
-      </c>
-      <c r="P38" s="90">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-    </row>
-    <row r="39" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A39" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="B39" s="116"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="86">
-        <v>3</v>
-      </c>
-      <c r="E39" s="72">
-        <v>2</v>
-      </c>
-      <c r="F39" s="73">
-        <f>($B$38+$C$38)*$D39*$E39</f>
-        <v>120</v>
-      </c>
-      <c r="G39" s="80">
-        <f t="shared" ref="G39:G43" si="8">F39/$K$5</f>
-        <v>0.04</v>
-      </c>
-      <c r="H39" s="68">
-        <v>1</v>
-      </c>
-      <c r="I39" s="79">
-        <f t="shared" ref="I39:I43" si="9">G39*H39</f>
-        <v>0.04</v>
-      </c>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="57"/>
-      <c r="N39" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="O39" s="79">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="P39" s="90">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="54"/>
-    </row>
-    <row r="40" spans="1:30" ht="16.2" customHeight="1">
-      <c r="A40" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="B40" s="116"/>
-      <c r="C40" s="122">
-        <v>20</v>
-      </c>
-      <c r="D40" s="86">
-        <v>0.6</v>
-      </c>
-      <c r="E40" s="72">
-        <v>1.2</v>
-      </c>
-      <c r="F40" s="73">
-        <f>($B$38+$C$40)*$D40*$E40</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="G40" s="80">
-        <f t="shared" si="8"/>
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="H40" s="68">
-        <v>3</v>
-      </c>
-      <c r="I40" s="79">
-        <f t="shared" si="9"/>
-        <v>1.44E-2</v>
-      </c>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="57"/>
-      <c r="N40" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="O40" s="79">
-        <v>0.15</v>
-      </c>
-      <c r="P40" s="90">
-        <v>0.34</v>
-      </c>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-    </row>
-    <row r="41" spans="1:30" ht="16.2" customHeight="1">
-      <c r="A41" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="B41" s="116"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="86">
-        <v>0.8</v>
-      </c>
-      <c r="E41" s="72">
-        <v>1.5</v>
-      </c>
-      <c r="F41" s="73">
-        <f>($B$38+$C$40)*$D41*$E41</f>
-        <v>24</v>
-      </c>
-      <c r="G41" s="80">
-        <f t="shared" si="8"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H41" s="68">
-        <v>3</v>
-      </c>
-      <c r="I41" s="79">
-        <f t="shared" si="9"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="57"/>
-      <c r="N41" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="O41" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="P41" s="90">
-        <v>0.34</v>
-      </c>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-    </row>
-    <row r="42" spans="1:30" ht="16.2" customHeight="1">
-      <c r="A42" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" s="116"/>
-      <c r="C42" s="87">
-        <v>8</v>
-      </c>
-      <c r="D42" s="74">
-        <v>1</v>
-      </c>
-      <c r="E42" s="72">
-        <v>1.5</v>
-      </c>
-      <c r="F42" s="73">
-        <v>18</v>
-      </c>
-      <c r="G42" s="80">
-        <f t="shared" si="8"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H42" s="68">
-        <v>6</v>
-      </c>
-      <c r="I42" s="79">
-        <f t="shared" si="9"/>
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="57"/>
-      <c r="N42" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="O42" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="P42" s="90">
-        <v>0.25</v>
-      </c>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-    </row>
-    <row r="43" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A43" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="B43" s="117"/>
-      <c r="C43" s="76">
-        <v>20</v>
-      </c>
-      <c r="D43" s="76">
-        <v>1</v>
-      </c>
-      <c r="E43" s="76">
-        <v>1.5</v>
-      </c>
-      <c r="F43" s="77">
-        <f>($B$38+$C43)*$D43*$E43</f>
-        <v>30</v>
-      </c>
-      <c r="G43" s="81">
-        <f t="shared" si="8"/>
-        <v>0.01</v>
-      </c>
-      <c r="H43" s="76">
-        <v>2</v>
-      </c>
-      <c r="I43" s="81">
-        <f t="shared" si="9"/>
-        <v>0.02</v>
-      </c>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="61"/>
-      <c r="N43" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="O43" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="P43" s="91">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-    </row>
-    <row r="46" spans="1:30" ht="16.2">
-      <c r="A46" s="112" t="s">
-        <v>242</v>
-      </c>
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
-      <c r="K46" s="112"/>
-      <c r="L46" s="112"/>
-      <c r="M46" s="112"/>
-      <c r="N46" s="112"/>
-      <c r="O46" s="112"/>
-      <c r="P46" s="112"/>
-      <c r="Q46" s="112"/>
-      <c r="R46" s="112"/>
-      <c r="S46" s="112"/>
-      <c r="T46" s="112"/>
-      <c r="U46" s="112"/>
-      <c r="V46" s="112"/>
-      <c r="W46" s="112"/>
-      <c r="X46" s="112"/>
-      <c r="Y46" s="112"/>
-      <c r="Z46" s="112"/>
-      <c r="AA46" s="112"/>
-      <c r="AB46" s="112"/>
-      <c r="AC46" s="112"/>
-      <c r="AD46" s="112"/>
-    </row>
-    <row r="47" spans="1:30" ht="16.8" thickBot="1">
-      <c r="A47" s="51"/>
-    </row>
-    <row r="48" spans="1:30" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A48" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="B48" s="114"/>
-      <c r="C48" s="115"/>
-    </row>
-    <row r="49" spans="1:3" ht="16.2" customHeight="1">
-      <c r="A49" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="31.2">
-      <c r="A50" s="82" t="s">
-        <v>243</v>
-      </c>
-      <c r="B50" s="83">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="31.2">
-      <c r="A51" s="82" t="s">
-        <v>244</v>
-      </c>
-      <c r="B51" s="83">
-        <v>0.3</v>
-      </c>
-      <c r="C51" s="83">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="82" t="s">
-        <v>250</v>
-      </c>
-      <c r="B52" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="C52" s="84">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A46:AD46"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="D5:D14"/>
-    <mergeCell ref="K5:K14"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="L5:L14"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="N35:P35"/>
-  </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -9045,152 +10350,152 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="92"/>
-    <col min="2" max="5" width="8.88671875" style="85"/>
-    <col min="6" max="6" width="10" style="85" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="85"/>
+    <col min="1" max="1" width="8.88671875" style="89"/>
+    <col min="2" max="5" width="8.88671875" style="82"/>
+    <col min="6" max="6" width="10" style="82" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="54" customFormat="1" ht="32.4">
-      <c r="A1" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" s="54" t="s">
+    <row r="1" spans="1:10" s="53" customFormat="1" ht="32.4">
+      <c r="A1" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="I1" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="54" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="31.2">
+      <c r="A2" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="128" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="I1" s="54" t="s">
+      <c r="E2" s="82">
+        <v>2</v>
+      </c>
+      <c r="F2" s="82">
+        <v>100</v>
+      </c>
+      <c r="G2" s="82">
+        <v>100</v>
+      </c>
+      <c r="H2" s="82">
+        <v>33</v>
+      </c>
+      <c r="I2" s="82">
+        <v>20</v>
+      </c>
+      <c r="J2" s="82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="31.2">
+      <c r="A3" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="128"/>
+      <c r="C3" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="E3" s="82">
+        <v>1</v>
+      </c>
+      <c r="F3" s="82">
+        <v>150</v>
+      </c>
+      <c r="G3" s="82">
+        <v>100</v>
+      </c>
+      <c r="H3" s="82">
+        <v>33</v>
+      </c>
+      <c r="I3" s="82">
+        <v>40</v>
+      </c>
+      <c r="J3" s="82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42" customHeight="1">
+      <c r="A4" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="82" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="31.2">
-      <c r="A2" s="92" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>271</v>
-      </c>
-      <c r="E2" s="85">
-        <v>2</v>
-      </c>
-      <c r="F2" s="85">
+      <c r="E4" s="82">
+        <v>10</v>
+      </c>
+      <c r="F4" s="82">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="82">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="82">
+        <v>100000</v>
+      </c>
+      <c r="I4" s="82">
         <v>100</v>
       </c>
-      <c r="G2" s="85">
-        <v>100</v>
-      </c>
-      <c r="H2" s="85">
-        <v>33</v>
-      </c>
-      <c r="I2" s="85">
-        <v>20</v>
-      </c>
-      <c r="J2" s="85">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="31.2">
-      <c r="A3" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="85" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="85">
-        <v>1</v>
-      </c>
-      <c r="F3" s="85">
-        <v>150</v>
-      </c>
-      <c r="G3" s="85">
-        <v>100</v>
-      </c>
-      <c r="H3" s="85">
-        <v>33</v>
-      </c>
-      <c r="I3" s="85">
-        <v>40</v>
-      </c>
-      <c r="J3" s="85">
+      <c r="J4" s="82">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="42" customHeight="1">
-      <c r="A4" s="92" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="126" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="85">
-        <v>10</v>
-      </c>
-      <c r="F4" s="85">
-        <v>3000</v>
-      </c>
-      <c r="G4" s="85">
-        <v>100000</v>
-      </c>
-      <c r="H4" s="85">
-        <v>100000</v>
-      </c>
-      <c r="I4" s="85">
-        <v>100</v>
-      </c>
-      <c r="J4" s="85">
-        <v>30</v>
-      </c>
-    </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="126"/>
+      <c r="B5" s="128"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="126"/>
+      <c r="B6" s="128"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="126"/>
+      <c r="B7" s="128"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="126"/>
+      <c r="B8" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B8"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9200,7 +10505,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -371,34 +371,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="365">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻修正系数</t>
@@ -414,190 +414,190 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -607,39 +607,39 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -655,71 +655,71 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -735,11 +735,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -755,31 +755,31 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -795,63 +795,63 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -867,51 +867,51 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -927,7 +927,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -943,15 +943,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -967,11 +967,11 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -987,23 +987,23 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>0-0</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式位移</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ActionMovement</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画集合</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>SoftSpotTriggerAnim</t>
@@ -1035,224 +1035,224 @@
       </rPr>
       <t>Animmation</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>强制主角进入击飞、击倒等</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式强制主角播放的动画</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>InforcedAnimation</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。无论任何时刻，对于远程普攻没有次数限制，因为它已经被飞刀数量限制。</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定，长按的总时长达到这个时长，就进入蓄力这个动画状态；</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力技释放时刻（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>这个值决定了进入蓄力状态后，至少要经过这么多时间才能释放蓄力技能；</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>决定单次招式对精力的消耗值；</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>任何合法的状态转换都可以在本动画的取消区间内取消部分动作，立即转入下一个动画；</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>在进入蓄力状态后，经过这么多时长后会被迫释放蓄力；</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>命中次数(n)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>单次额外伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>累积额外伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>累积伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害占单次总伤害占比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>额外伤害/基础伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>预设BossHP</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当前此伤害/基础伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>公式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角造成削刃</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>主角对怪物</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>普通部位受击招式修正系数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>弱点部位受击招式修正系数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>子类</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>可触发弱点连击的招式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮攻击频率</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮伤害FloatingBladeATK  *  怪物_弱点刀刃悬浮修正系数FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>(主角_基础削刃BasicToughnessCut+主角_武器削刃)  *  主角_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮削刃</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>常规招式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>主角_飞刀悬浮削刃FloatingBlade_ToughnessCut</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>远程普攻伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>（主角_基础伤害BasicATK+主角_近战普攻伤害MeleeATK）*  招式伤害修正系数ActionAKTFactor  *  怪物_受击部位招式修正系数Factor
 +弱点连击累计次数n  *  连击额外伤害累增量ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>飞刀插中、拔出弱点</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1269,7 +1269,7 @@
       </rPr>
       <t>伤害</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1286,39 +1286,39 @@
       </rPr>
       <t>削刃</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>类别①</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>类别②</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础伤害BasicATK  *  怪物_招式伤害修正系数ActionAKTFactor</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>怪物_基础削刃ToughnessCut  *  怪物_招式削刃修正系数ActionToughnessCutFactor</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1344,39 +1344,39 @@
       </rPr>
       <t xml:space="preserve">  *  刀刃插中、拔出弱点修正系数FloatingBladeATK_Factor_StabOrExtractOut</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复滞后(s)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverDelay</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性安全值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Toughness_Safe</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>对应硬直动画</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1392,19 +1392,19 @@
       </rPr>
       <t>taggerAnimation_Player</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>如果本招式触发硬直，则会造成受击放播放哪一种硬直动画，这是指定值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>StaggerAnimation_Monster</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>恢复生命精力消耗</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1430,11 +1430,11 @@
       </rPr>
       <t>naConsume</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>单次恢复生命百分比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1450,247 +1450,247 @@
       </rPr>
       <t>aling_HP_Ratio</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>总所需最大连击轮数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>第n次连击伤害：An</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>单次伤害占总比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>设定值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>远程普攻</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>刀刃悬浮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>刀刃插中</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>武器近战普攻伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数（主角）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>受击部位招式修正系数（怪物弱点）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>B 非连击伤害（a1）模拟</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>a1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A 弱点连击伤害模拟</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>单轮伤害次数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>a1占比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>单次攻击伤害占比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>角色单次恢复占比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Name </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Min</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>单轮总伤害占比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A0 基准设定表</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性削减</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATKMultiplier_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力最大伤害倍数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>刀刃插中、拔出弱点修正系数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_StabOrExtractOut</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>C0 削刃基准设定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最小削刃百分比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最大削刃百分比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>生命</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>所在区域</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>难度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>赶尸人（铃铛）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>赶尸人（近战）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>帝女</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>小怪</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Boss</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>02-1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>01-1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>01-2</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">子类 </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>残影扣减延迟时间</t>
@@ -1700,11 +1700,11 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>血条</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>残影缩短速度</t>
@@ -1720,79 +1720,79 @@
   </si>
   <si>
     <t>子弹时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>环境与怪物</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>弱点连击/子弹时间模拟</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>主角对Boss伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>怪物对主角伤害</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ChargeReleaseTime_Min</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>缩写</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>蓄力近战-最小蓄力技释放时刻（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Melee_ChargeReleaseTime_Min</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>M_CRT_M</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>远程-最小蓄力技释放时刻（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Distant_ChargeReleaseTime_Min</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>这个时长，发出和收回相等</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1808,31 +1808,31 @@
       </rPr>
       <t>celRange</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>这个时长因招式后摇不同而产生变化</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>角色时间流速百分比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Main_Character_TimeRatio</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Main_Character_TimeRatio</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1848,23 +1848,23 @@
       </rPr>
       <t>C_TR</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>环境及怪物时间流速百分比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>环境及怪物时间流速百分比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>EnvironmentAndMonster_TimeRatio</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>EnvironmentAndMonster_TimeRatio</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1880,19 +1880,19 @@
       </rPr>
       <t>&amp;N_TR</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>子弹时间持续时长</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BulletTime_Duration</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BulletTime_Duration</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1908,7 +1908,7 @@
       </rPr>
       <t>T_D</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1924,35 +1924,35 @@
       </rPr>
       <t>ExtraTime</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BT_ET</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>子弹时间主角相对获得额外时长（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>子弹时间持续时长（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>取消时长（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>公式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1968,15 +1968,15 @@
       </rPr>
       <t>_CR</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>D_CRT_M</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>M_CRT_M-T_CR</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1992,103 +1992,171 @@
       </rPr>
       <t>alue</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>C_I_M</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>C_I_M</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>D_CRT_M-T_CR</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>M_CRT_M-T_CR-BT_ET</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>单次近战攻击时长（s）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>TimeOfMeleeATK_Normal</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>T_MA_n</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>间隔</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>应大于间隔</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>应小于间隔</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A1 基准设定表</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>A2 设计需求表</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>理论上来说，近战普攻时间应该小于第4/5项</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>D_CRT_M-T_CR-BT_ET</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>T_MA_n-BT_ET</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最小值，如果小于零则意味着在获取的额外时间完全足够多打出至少1次普通近战攻击</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力减去取消时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>远程：发出/收回蓄力减去取消时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>连击最大间隔时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力减去取消时间与子弹时间额外时长</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>远程：发出/收回蓄力减去取消时间与子弹时间额外时长</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>这是去除了取消的时长</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss平均攻击间隔（s）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oss_Average_Interval</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_AI</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oss平均攻击动画时长（s）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Average_ATK_Interval</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_A_AI</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2099,13 +2167,27 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2398,7 +2480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2779,7 +2861,22 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2794,9 +2891,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2807,15 +2902,33 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -2826,256 +2939,286 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3084,265 +3227,262 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3352,7 +3492,7 @@
     <cellStyle name="输出" xfId="3" builtinId="21"/>
     <cellStyle name="输入" xfId="2" builtinId="20"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -3374,190 +3514,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3675,31 +3631,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.625</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72727272727272729</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75</c:v>
+                  <c:v>0.81818181818181823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,11 +3671,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1271498304"/>
-        <c:axId val="1271507552"/>
+        <c:axId val="-1274345408"/>
+        <c:axId val="-1274335072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1271498304"/>
+        <c:axId val="-1274345408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,7 +3718,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271507552"/>
+        <c:crossAx val="-1274335072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3770,7 +3726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1271507552"/>
+        <c:axId val="-1274335072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +3777,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271498304"/>
+        <c:crossAx val="-1274345408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3991,31 +3947,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4030,11 +3986,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1271499936"/>
-        <c:axId val="1271501024"/>
+        <c:axId val="-1274344864"/>
+        <c:axId val="-1274331264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1271499936"/>
+        <c:axId val="-1274344864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4090,12 +4046,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271501024"/>
+        <c:crossAx val="-1274331264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1271501024"/>
+        <c:axId val="-1274331264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4152,7 +4108,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271499936"/>
+        <c:crossAx val="-1274344864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4368,34 +4324,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>330</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>420</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>520</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>630</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>750</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4489,31 +4445,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>280</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>360</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4528,11 +4484,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1271505376"/>
-        <c:axId val="1271509184"/>
+        <c:axId val="-1274346496"/>
+        <c:axId val="-1274344320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1271505376"/>
+        <c:axId val="-1274346496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4589,12 +4545,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271509184"/>
+        <c:crossAx val="-1274344320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1271509184"/>
+        <c:axId val="-1274344320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4651,7 +4607,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271505376"/>
+        <c:crossAx val="-1274346496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6862,7 +6818,7 @@
     <col min="1" max="1" width="9.88671875" style="91" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="91"/>
     <col min="3" max="3" width="21.21875" style="91" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="139" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="102" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="91"/>
   </cols>
   <sheetData>
@@ -6876,7 +6832,7 @@
       <c r="C1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="100" t="s">
         <v>279</v>
       </c>
       <c r="E1" s="90" t="s">
@@ -6884,137 +6840,137 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="101" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="95" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="94" t="s">
         <v>284</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="101" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="95" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="101" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="97"/>
+      <c r="A6" s="119"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="97"/>
+      <c r="A7" s="119"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="97"/>
+      <c r="A8" s="119"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="97"/>
+      <c r="A9" s="119"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="97"/>
+      <c r="A10" s="119"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="97"/>
+      <c r="A11" s="119"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="D12" s="144" t="s">
+      <c r="D12" s="105" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.2">
-      <c r="A13" s="97"/>
-      <c r="B13" s="93" t="s">
+      <c r="A13" s="119"/>
+      <c r="B13" s="92" t="s">
         <v>290</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="95" t="s">
         <v>315</v>
       </c>
-      <c r="D13" s="141" t="s">
+      <c r="D13" s="104" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.2" customHeight="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="130" t="s">
+      <c r="A14" s="119"/>
+      <c r="B14" s="120" t="s">
         <v>320</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="140" t="s">
+      <c r="C14" s="120"/>
+      <c r="D14" s="103" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="97"/>
+      <c r="A15" s="119"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="97"/>
+      <c r="A16" s="119"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="97"/>
+      <c r="A17" s="119"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="97"/>
+      <c r="A18" s="119"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="120" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="120" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="144" t="s">
+      <c r="C19" s="121"/>
+      <c r="D19" s="105" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="97"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="97"/>
+      <c r="A21" s="119"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="97"/>
+      <c r="A22" s="119"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="97"/>
+      <c r="A23" s="119"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="97"/>
+      <c r="A24" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7026,7 +6982,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7039,8 +6995,8 @@
   </sheetPr>
   <dimension ref="A1:AD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -7051,55 +7007,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="50" customFormat="1" ht="16.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="142" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
     </row>
     <row r="2" spans="1:30" ht="16.2" thickBot="1"/>
     <row r="3" spans="1:30" ht="16.8" thickBot="1">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="157" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="1:30" ht="46.8">
       <c r="A4" s="61" t="s">
@@ -7144,14 +7100,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="34">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" s="65">
         <f>B5/$K$5</f>
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="120">
-        <v>10</v>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D5" s="155">
+        <v>20</v>
       </c>
       <c r="E5" s="36">
         <f>(A5-1)*$D$5</f>
@@ -7163,7 +7119,7 @@
       </c>
       <c r="G5" s="36">
         <f>B5</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H5" s="37">
         <f t="shared" ref="H5:H14" si="0">E5/B5</f>
@@ -7177,12 +7133,12 @@
         <f t="shared" ref="J5:J14" si="2">B5/$B$5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="120">
-        <v>3000</v>
-      </c>
-      <c r="L5" s="122">
+      <c r="K5" s="155">
+        <v>2500</v>
+      </c>
+      <c r="L5" s="160">
         <f>$K$5/$G$14</f>
-        <v>4</v>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="16.2">
@@ -7191,39 +7147,39 @@
       </c>
       <c r="B6" s="36">
         <f>$B$5+A5*$D$5</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C6" s="65">
         <f t="shared" ref="C6:C14" si="3">B6/$K$5</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="D6" s="120"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D6" s="155"/>
       <c r="E6" s="36">
         <f t="shared" ref="E6:E14" si="4">(A6-1)*$D$5</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="36">
         <f>$D$5/2*(A6*A6-A6)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G6" s="36">
         <f t="shared" ref="G6:G14" si="5">G5+B6</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H6" s="37">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I6" s="37">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="37">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="122"/>
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="155"/>
+      <c r="L6" s="160"/>
     </row>
     <row r="7" spans="1:30" ht="16.2">
       <c r="A7" s="55">
@@ -7231,39 +7187,39 @@
       </c>
       <c r="B7" s="36">
         <f t="shared" ref="B7:B14" si="6">$B$5+A6*$D$5</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C7" s="65">
         <f t="shared" si="3"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="D7" s="120"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D7" s="155"/>
       <c r="E7" s="36">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F7" s="36">
         <f t="shared" ref="F7:F14" si="7">$D$5/2*(A7*A7-A7)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G7" s="36">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H7" s="37">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="37">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="J7" s="37">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="122"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="155"/>
+      <c r="L7" s="160"/>
     </row>
     <row r="8" spans="1:30" ht="16.2">
       <c r="A8" s="55">
@@ -7271,39 +7227,39 @@
       </c>
       <c r="B8" s="36">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C8" s="65">
         <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="D8" s="120"/>
+        <v>0.04</v>
+      </c>
+      <c r="D8" s="155"/>
       <c r="E8" s="36">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G8" s="36">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="H8" s="37">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J8" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K8" s="120"/>
-      <c r="L8" s="122"/>
+        <v>2.5</v>
+      </c>
+      <c r="K8" s="155"/>
+      <c r="L8" s="160"/>
     </row>
     <row r="9" spans="1:30" ht="16.2">
       <c r="A9" s="55">
@@ -7311,39 +7267,39 @@
       </c>
       <c r="B9" s="36">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C9" s="65">
         <f t="shared" si="3"/>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="D9" s="120"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D9" s="155"/>
       <c r="E9" s="36">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F9" s="36">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="36">
         <f t="shared" si="5"/>
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H9" s="37">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="J9" s="37">
         <f t="shared" si="2"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="122"/>
+        <v>3</v>
+      </c>
+      <c r="K9" s="155"/>
+      <c r="L9" s="160"/>
     </row>
     <row r="10" spans="1:30" ht="16.2">
       <c r="A10" s="55">
@@ -7351,39 +7307,39 @@
       </c>
       <c r="B10" s="36">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C10" s="65">
         <f t="shared" si="3"/>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="D10" s="120"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D10" s="155"/>
       <c r="E10" s="36">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F10" s="36">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G10" s="36">
         <f t="shared" si="5"/>
-        <v>330</v>
+        <v>540</v>
       </c>
       <c r="H10" s="37">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I10" s="37">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="J10" s="37">
         <f t="shared" si="2"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="K10" s="120"/>
-      <c r="L10" s="122"/>
+        <v>3.5</v>
+      </c>
+      <c r="K10" s="155"/>
+      <c r="L10" s="160"/>
     </row>
     <row r="11" spans="1:30" ht="16.2">
       <c r="A11" s="55">
@@ -7391,39 +7347,39 @@
       </c>
       <c r="B11" s="36">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C11" s="65">
         <f t="shared" si="3"/>
-        <v>0.03</v>
-      </c>
-      <c r="D11" s="120"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D11" s="155"/>
       <c r="E11" s="36">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" si="7"/>
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="G11" s="36">
         <f t="shared" si="5"/>
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="H11" s="37">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K11" s="120"/>
-      <c r="L11" s="122"/>
+        <v>4</v>
+      </c>
+      <c r="K11" s="155"/>
+      <c r="L11" s="160"/>
     </row>
     <row r="12" spans="1:30" ht="16.2">
       <c r="A12" s="55">
@@ -7431,39 +7387,39 @@
       </c>
       <c r="B12" s="36">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C12" s="65">
         <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="D12" s="120"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D12" s="155"/>
       <c r="E12" s="36">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" si="7"/>
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="G12" s="36">
         <f t="shared" si="5"/>
-        <v>520</v>
+        <v>880</v>
       </c>
       <c r="H12" s="37">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="I12" s="37">
         <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="J12" s="37">
         <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K12" s="120"/>
-      <c r="L12" s="122"/>
+        <v>4.5</v>
+      </c>
+      <c r="K12" s="155"/>
+      <c r="L12" s="160"/>
     </row>
     <row r="13" spans="1:30" ht="16.2">
       <c r="A13" s="55">
@@ -7471,39 +7427,39 @@
       </c>
       <c r="B13" s="36">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C13" s="65">
         <f t="shared" si="3"/>
-        <v>3.6666666666666667E-2</v>
-      </c>
-      <c r="D13" s="120"/>
+        <v>0.08</v>
+      </c>
+      <c r="D13" s="155"/>
       <c r="E13" s="36">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F13" s="36">
         <f t="shared" si="7"/>
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="G13" s="36">
         <f t="shared" si="5"/>
-        <v>630</v>
+        <v>1080</v>
       </c>
       <c r="H13" s="37">
         <f t="shared" si="0"/>
-        <v>0.72727272727272729</v>
+        <v>0.8</v>
       </c>
       <c r="I13" s="37">
         <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="J13" s="37">
         <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="K13" s="120"/>
-      <c r="L13" s="122"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="155"/>
+      <c r="L13" s="160"/>
     </row>
     <row r="14" spans="1:30" ht="16.8" thickBot="1">
       <c r="A14" s="57">
@@ -7511,61 +7467,61 @@
       </c>
       <c r="B14" s="58">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="C14" s="66">
         <f t="shared" si="3"/>
-        <v>0.04</v>
-      </c>
-      <c r="D14" s="121"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D14" s="156"/>
       <c r="E14" s="58">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F14" s="58">
         <f t="shared" si="7"/>
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="G14" s="58">
         <f t="shared" si="5"/>
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="H14" s="59">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="I14" s="59">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J14" s="59">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K14" s="121"/>
-      <c r="L14" s="123"/>
+        <v>5.5</v>
+      </c>
+      <c r="K14" s="156"/>
+      <c r="L14" s="161"/>
     </row>
     <row r="34" spans="1:30" ht="16.2" thickBot="1"/>
     <row r="35" spans="1:30" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="157" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
-      <c r="N35" s="125" t="s">
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="158"/>
+      <c r="L35" s="159"/>
+      <c r="N35" s="145" t="s">
         <v>256</v>
       </c>
-      <c r="O35" s="126"/>
-      <c r="P35" s="127"/>
+      <c r="O35" s="146"/>
+      <c r="P35" s="147"/>
       <c r="Q35" s="53"/>
       <c r="R35" s="53"/>
       <c r="S35" s="53"/>
@@ -7644,10 +7600,10 @@
       <c r="A38" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B38" s="118">
+      <c r="B38" s="153">
         <v>0</v>
       </c>
-      <c r="C38" s="124">
+      <c r="C38" s="162">
         <v>20</v>
       </c>
       <c r="D38" s="83">
@@ -7662,14 +7618,14 @@
       </c>
       <c r="G38" s="79">
         <f>F38/$K$5</f>
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H38" s="67">
         <v>3</v>
       </c>
       <c r="I38" s="78">
         <f>G38*H38</f>
-        <v>0.03</v>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
@@ -7691,8 +7647,8 @@
       <c r="A39" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="B39" s="118"/>
-      <c r="C39" s="124"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="162"/>
       <c r="D39" s="83">
         <v>3</v>
       </c>
@@ -7705,14 +7661,14 @@
       </c>
       <c r="G39" s="79">
         <f t="shared" ref="G39:G43" si="8">F39/$K$5</f>
-        <v>0.04</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H39" s="67">
         <v>1</v>
       </c>
       <c r="I39" s="78">
         <f t="shared" ref="I39:I43" si="9">G39*H39</f>
-        <v>0.04</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
@@ -7734,8 +7690,8 @@
       <c r="A40" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="B40" s="118"/>
-      <c r="C40" s="124">
+      <c r="B40" s="153"/>
+      <c r="C40" s="162">
         <v>20</v>
       </c>
       <c r="D40" s="83">
@@ -7750,14 +7706,14 @@
       </c>
       <c r="G40" s="79">
         <f t="shared" si="8"/>
-        <v>4.7999999999999996E-3</v>
+        <v>5.7599999999999995E-3</v>
       </c>
       <c r="H40" s="67">
         <v>3</v>
       </c>
       <c r="I40" s="78">
         <f t="shared" si="9"/>
-        <v>1.44E-2</v>
+        <v>1.7279999999999997E-2</v>
       </c>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
@@ -7779,8 +7735,8 @@
       <c r="A41" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="B41" s="118"/>
-      <c r="C41" s="124"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="162"/>
       <c r="D41" s="83">
         <v>0.8</v>
       </c>
@@ -7793,14 +7749,14 @@
       </c>
       <c r="G41" s="79">
         <f t="shared" si="8"/>
-        <v>8.0000000000000002E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="H41" s="67">
         <v>3</v>
       </c>
       <c r="I41" s="78">
         <f t="shared" si="9"/>
-        <v>2.4E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
@@ -7822,7 +7778,7 @@
       <c r="A42" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B42" s="118"/>
+      <c r="B42" s="153"/>
       <c r="C42" s="84">
         <v>8</v>
       </c>
@@ -7837,14 +7793,14 @@
       </c>
       <c r="G42" s="79">
         <f t="shared" si="8"/>
-        <v>6.0000000000000001E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="H42" s="67">
         <v>6</v>
       </c>
       <c r="I42" s="78">
         <f t="shared" si="9"/>
-        <v>3.6000000000000004E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
@@ -7866,7 +7822,7 @@
       <c r="A43" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B43" s="119"/>
+      <c r="B43" s="154"/>
       <c r="C43" s="75">
         <v>20</v>
       </c>
@@ -7882,14 +7838,14 @@
       </c>
       <c r="G43" s="80">
         <f t="shared" si="8"/>
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H43" s="75">
         <v>2</v>
       </c>
       <c r="I43" s="80">
         <f t="shared" si="9"/>
-        <v>0.02</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J43" s="77"/>
       <c r="K43" s="77"/>
@@ -7908,48 +7864,48 @@
       <c r="S43" s="53"/>
     </row>
     <row r="46" spans="1:30" ht="16.2">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="142" t="s">
         <v>295</v>
       </c>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="114"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="114"/>
-      <c r="Q46" s="114"/>
-      <c r="R46" s="114"/>
-      <c r="S46" s="114"/>
-      <c r="T46" s="114"/>
-      <c r="U46" s="114"/>
-      <c r="V46" s="114"/>
-      <c r="W46" s="114"/>
-      <c r="X46" s="114"/>
-      <c r="Y46" s="114"/>
-      <c r="Z46" s="114"/>
-      <c r="AA46" s="114"/>
-      <c r="AB46" s="114"/>
-      <c r="AC46" s="114"/>
-      <c r="AD46" s="114"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="142"/>
+      <c r="K46" s="142"/>
+      <c r="L46" s="142"/>
+      <c r="M46" s="142"/>
+      <c r="N46" s="142"/>
+      <c r="O46" s="142"/>
+      <c r="P46" s="142"/>
+      <c r="Q46" s="142"/>
+      <c r="R46" s="142"/>
+      <c r="S46" s="142"/>
+      <c r="T46" s="142"/>
+      <c r="U46" s="142"/>
+      <c r="V46" s="142"/>
+      <c r="W46" s="142"/>
+      <c r="X46" s="142"/>
+      <c r="Y46" s="142"/>
+      <c r="Z46" s="142"/>
+      <c r="AA46" s="142"/>
+      <c r="AB46" s="142"/>
+      <c r="AC46" s="142"/>
+      <c r="AD46" s="142"/>
     </row>
     <row r="47" spans="1:30" ht="16.8" thickBot="1">
       <c r="A47" s="50"/>
     </row>
     <row r="48" spans="1:30" ht="16.2" customHeight="1">
-      <c r="A48" s="131" t="s">
+      <c r="A48" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="B48" s="132"/>
-      <c r="C48" s="133"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="152"/>
     </row>
     <row r="49" spans="1:3" ht="16.2" customHeight="1">
       <c r="A49" s="42" t="s">
@@ -7963,482 +7919,528 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="31.2">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="B50" s="135">
+      <c r="B50" s="98">
         <v>0.1</v>
       </c>
-      <c r="C50" s="135">
+      <c r="C50" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="31.2">
-      <c r="A51" s="134" t="s">
+      <c r="A51" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="B51" s="135">
+      <c r="B51" s="98">
         <v>0.3</v>
       </c>
-      <c r="C51" s="135">
+      <c r="C51" s="98">
         <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="134" t="s">
+      <c r="A52" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="B52" s="135">
+      <c r="B52" s="98">
         <v>0.5</v>
       </c>
-      <c r="C52" s="136">
+      <c r="C52" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="16.2">
-      <c r="A69" s="114" t="s">
+      <c r="A69" s="142" t="s">
         <v>293</v>
       </c>
-      <c r="B69" s="114"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="114"/>
-      <c r="Q69" s="114"/>
-      <c r="R69" s="114"/>
-      <c r="S69" s="114"/>
-      <c r="T69" s="114"/>
-      <c r="U69" s="114"/>
-      <c r="V69" s="114"/>
-      <c r="W69" s="114"/>
-      <c r="X69" s="114"/>
-      <c r="Y69" s="114"/>
-      <c r="Z69" s="114"/>
-      <c r="AA69" s="114"/>
-      <c r="AB69" s="114"/>
-      <c r="AC69" s="114"/>
-      <c r="AD69" s="114"/>
+      <c r="B69" s="142"/>
+      <c r="C69" s="142"/>
+      <c r="D69" s="142"/>
+      <c r="E69" s="142"/>
+      <c r="F69" s="142"/>
+      <c r="G69" s="142"/>
+      <c r="H69" s="142"/>
+      <c r="I69" s="142"/>
+      <c r="J69" s="142"/>
+      <c r="K69" s="142"/>
+      <c r="L69" s="142"/>
+      <c r="M69" s="142"/>
+      <c r="N69" s="142"/>
+      <c r="O69" s="142"/>
+      <c r="P69" s="142"/>
+      <c r="Q69" s="142"/>
+      <c r="R69" s="142"/>
+      <c r="S69" s="142"/>
+      <c r="T69" s="142"/>
+      <c r="U69" s="142"/>
+      <c r="V69" s="142"/>
+      <c r="W69" s="142"/>
+      <c r="X69" s="142"/>
+      <c r="Y69" s="142"/>
+      <c r="Z69" s="142"/>
+      <c r="AA69" s="142"/>
+      <c r="AB69" s="142"/>
+      <c r="AC69" s="142"/>
+      <c r="AD69" s="142"/>
     </row>
     <row r="70" spans="1:30" ht="16.2" thickBot="1"/>
     <row r="71" spans="1:30" ht="16.2" customHeight="1">
-      <c r="A71" s="125" t="s">
+      <c r="A71" s="145" t="s">
+        <v>347</v>
+      </c>
+      <c r="B71" s="146"/>
+      <c r="C71" s="146"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="146"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="146"/>
+      <c r="H71" s="147"/>
+      <c r="I71" s="149" t="s">
         <v>348</v>
       </c>
-      <c r="B71" s="126"/>
-      <c r="C71" s="126"/>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="127"/>
-      <c r="I71" s="125" t="s">
-        <v>349</v>
-      </c>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="126"/>
-      <c r="M71" s="126"/>
-      <c r="N71" s="126"/>
-      <c r="O71" s="126"/>
-      <c r="P71" s="126"/>
-      <c r="Q71" s="126"/>
-      <c r="R71" s="126"/>
-      <c r="S71" s="127"/>
+      <c r="J71" s="146"/>
+      <c r="K71" s="146"/>
+      <c r="L71" s="146"/>
+      <c r="M71" s="146"/>
+      <c r="N71" s="146"/>
+      <c r="O71" s="146"/>
+      <c r="P71" s="146"/>
+      <c r="Q71" s="146"/>
+      <c r="R71" s="146"/>
+      <c r="S71" s="147"/>
     </row>
     <row r="72" spans="1:30" ht="16.2">
-      <c r="A72" s="151" t="s">
+      <c r="A72" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="143"/>
-      <c r="C72" s="143" t="s">
+      <c r="B72" s="144"/>
+      <c r="C72" s="144" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="143"/>
-      <c r="E72" s="146" t="s">
+      <c r="D72" s="144"/>
+      <c r="E72" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="F72" s="42" t="s">
+      <c r="F72" s="113" t="s">
         <v>297</v>
       </c>
-      <c r="G72" s="145" t="s">
+      <c r="G72" s="131" t="s">
         <v>305</v>
       </c>
-      <c r="H72" s="152"/>
-      <c r="I72" s="159" t="s">
-        <v>347</v>
-      </c>
-      <c r="J72" s="146" t="s">
+      <c r="H72" s="132"/>
+      <c r="I72" s="117" t="s">
         <v>346</v>
       </c>
-      <c r="K72" s="145" t="s">
+      <c r="J72" s="106" t="s">
+        <v>345</v>
+      </c>
+      <c r="K72" s="131" t="s">
         <v>331</v>
       </c>
-      <c r="L72" s="147"/>
-      <c r="M72" s="146" t="s">
+      <c r="L72" s="122"/>
+      <c r="M72" s="106" t="s">
         <v>335</v>
       </c>
-      <c r="N72" s="145" t="s">
+      <c r="N72" s="131" t="s">
         <v>330</v>
       </c>
-      <c r="O72" s="147"/>
-      <c r="P72" s="147"/>
-      <c r="Q72" s="147"/>
-      <c r="R72" s="147"/>
-      <c r="S72" s="152"/>
+      <c r="O72" s="122"/>
+      <c r="P72" s="122"/>
+      <c r="Q72" s="122"/>
+      <c r="R72" s="122"/>
+      <c r="S72" s="132"/>
     </row>
     <row r="73" spans="1:30" ht="31.8" customHeight="1">
-      <c r="A73" s="153" t="s">
+      <c r="A73" s="137" t="s">
         <v>300</v>
       </c>
-      <c r="B73" s="145"/>
-      <c r="C73" s="145" t="s">
+      <c r="B73" s="131"/>
+      <c r="C73" s="131" t="s">
         <v>301</v>
       </c>
-      <c r="D73" s="145"/>
-      <c r="E73" s="146" t="s">
+      <c r="D73" s="131"/>
+      <c r="E73" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="F73" s="92">
+      <c r="F73" s="114">
         <v>1.5</v>
       </c>
-      <c r="G73" s="147"/>
-      <c r="H73" s="152"/>
-      <c r="I73" s="153" t="s">
-        <v>344</v>
-      </c>
-      <c r="J73" s="165">
+      <c r="G73" s="122"/>
+      <c r="H73" s="132"/>
+      <c r="I73" s="148"/>
+      <c r="J73" s="109">
         <v>1</v>
       </c>
-      <c r="K73" s="145" t="s">
+      <c r="K73" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="L73" s="147"/>
+      <c r="L73" s="122"/>
       <c r="M73" s="36">
         <f>$F$73-$F$75</f>
         <v>1.3</v>
       </c>
-      <c r="N73" s="145" t="s">
-        <v>354</v>
-      </c>
-      <c r="O73" s="147"/>
-      <c r="P73" s="147"/>
-      <c r="Q73" s="147"/>
-      <c r="R73" s="147"/>
-      <c r="S73" s="152"/>
+      <c r="N73" s="131" t="s">
+        <v>353</v>
+      </c>
+      <c r="O73" s="122"/>
+      <c r="P73" s="122"/>
+      <c r="Q73" s="122"/>
+      <c r="R73" s="122"/>
+      <c r="S73" s="132"/>
     </row>
     <row r="74" spans="1:30" ht="31.8" customHeight="1">
-      <c r="A74" s="153" t="s">
+      <c r="A74" s="137" t="s">
         <v>303</v>
       </c>
-      <c r="B74" s="145"/>
-      <c r="C74" s="145" t="s">
+      <c r="B74" s="131"/>
+      <c r="C74" s="131" t="s">
         <v>304</v>
       </c>
-      <c r="D74" s="145"/>
-      <c r="E74" s="146" t="s">
+      <c r="D74" s="131"/>
+      <c r="E74" s="111" t="s">
         <v>333</v>
       </c>
-      <c r="F74" s="92">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G74" s="145" t="s">
+      <c r="F74" s="114">
+        <v>1</v>
+      </c>
+      <c r="G74" s="131" t="s">
         <v>306</v>
       </c>
-      <c r="H74" s="152"/>
-      <c r="I74" s="160"/>
-      <c r="J74" s="165">
+      <c r="H74" s="132"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="109">
         <v>2</v>
       </c>
-      <c r="K74" s="145" t="s">
+      <c r="K74" s="131" t="s">
         <v>338</v>
       </c>
-      <c r="L74" s="147"/>
+      <c r="L74" s="122"/>
       <c r="M74" s="36">
         <f>$F$74-$F$75</f>
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="N74" s="145" t="s">
-        <v>355</v>
-      </c>
-      <c r="O74" s="147"/>
-      <c r="P74" s="147"/>
-      <c r="Q74" s="147"/>
-      <c r="R74" s="147"/>
-      <c r="S74" s="152"/>
+        <v>0.8</v>
+      </c>
+      <c r="N74" s="131" t="s">
+        <v>354</v>
+      </c>
+      <c r="O74" s="122"/>
+      <c r="P74" s="122"/>
+      <c r="Q74" s="122"/>
+      <c r="R74" s="122"/>
+      <c r="S74" s="132"/>
     </row>
     <row r="75" spans="1:30" ht="31.8" customHeight="1">
-      <c r="A75" s="153" t="s">
+      <c r="A75" s="137" t="s">
         <v>329</v>
       </c>
-      <c r="B75" s="145"/>
-      <c r="C75" s="145" t="s">
+      <c r="B75" s="131"/>
+      <c r="C75" s="131" t="s">
         <v>307</v>
       </c>
-      <c r="D75" s="147"/>
-      <c r="E75" s="146" t="s">
+      <c r="D75" s="122"/>
+      <c r="E75" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="F75" s="92">
+      <c r="F75" s="114">
         <v>0.2</v>
       </c>
-      <c r="G75" s="145" t="s">
+      <c r="G75" s="131" t="s">
         <v>308</v>
       </c>
-      <c r="H75" s="152"/>
-      <c r="I75" s="159" t="s">
+      <c r="H75" s="132"/>
+      <c r="I75" s="117" t="s">
         <v>343</v>
       </c>
-      <c r="J75" s="149">
+      <c r="J75" s="108">
         <v>3</v>
       </c>
-      <c r="K75" s="162" t="s">
+      <c r="K75" s="133" t="s">
         <v>337</v>
       </c>
-      <c r="L75" s="162"/>
+      <c r="L75" s="133"/>
       <c r="M75" s="36">
         <f>$F$76</f>
-        <v>0.85</v>
-      </c>
-      <c r="N75" s="145" t="s">
-        <v>356</v>
-      </c>
-      <c r="O75" s="147"/>
-      <c r="P75" s="147"/>
-      <c r="Q75" s="147"/>
-      <c r="R75" s="147"/>
-      <c r="S75" s="152"/>
+        <v>2.4</v>
+      </c>
+      <c r="N75" s="131" t="s">
+        <v>355</v>
+      </c>
+      <c r="O75" s="122"/>
+      <c r="P75" s="122"/>
+      <c r="Q75" s="122"/>
+      <c r="R75" s="122"/>
+      <c r="S75" s="132"/>
     </row>
     <row r="76" spans="1:30" ht="31.8" customHeight="1">
-      <c r="A76" s="153" t="s">
+      <c r="A76" s="137" t="s">
         <v>326</v>
       </c>
-      <c r="B76" s="145"/>
-      <c r="C76" s="145" t="s">
+      <c r="B76" s="131"/>
+      <c r="C76" s="131" t="s">
         <v>310</v>
       </c>
-      <c r="D76" s="147"/>
-      <c r="E76" s="146" t="s">
+      <c r="D76" s="122"/>
+      <c r="E76" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="F76" s="92">
-        <v>0.85</v>
-      </c>
-      <c r="G76" s="147"/>
-      <c r="H76" s="152"/>
-      <c r="I76" s="163" t="s">
-        <v>345</v>
-      </c>
-      <c r="J76" s="148">
+      <c r="F76" s="114">
+        <v>2.4</v>
+      </c>
+      <c r="G76" s="122"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="125" t="s">
+        <v>344</v>
+      </c>
+      <c r="J76" s="107">
         <v>4</v>
       </c>
-      <c r="K76" s="145" t="s">
+      <c r="K76" s="131" t="s">
         <v>339</v>
       </c>
-      <c r="L76" s="147"/>
+      <c r="L76" s="122"/>
       <c r="M76" s="36">
         <f>$M$73-$F$80</f>
         <v>0.8</v>
       </c>
-      <c r="N76" s="145" t="s">
-        <v>357</v>
-      </c>
-      <c r="O76" s="147"/>
-      <c r="P76" s="147"/>
-      <c r="Q76" s="147"/>
-      <c r="R76" s="147"/>
-      <c r="S76" s="152"/>
+      <c r="N76" s="131" t="s">
+        <v>356</v>
+      </c>
+      <c r="O76" s="122"/>
+      <c r="P76" s="122"/>
+      <c r="Q76" s="122"/>
+      <c r="R76" s="122"/>
+      <c r="S76" s="132"/>
     </row>
     <row r="77" spans="1:30" ht="31.8" customHeight="1">
-      <c r="A77" s="153" t="s">
+      <c r="A77" s="137" t="s">
         <v>311</v>
       </c>
-      <c r="B77" s="145"/>
-      <c r="C77" s="145" t="s">
+      <c r="B77" s="131"/>
+      <c r="C77" s="131" t="s">
         <v>313</v>
       </c>
-      <c r="D77" s="147"/>
-      <c r="E77" s="146" t="s">
+      <c r="D77" s="122"/>
+      <c r="E77" s="111" t="s">
         <v>314</v>
       </c>
-      <c r="F77" s="92">
+      <c r="F77" s="114">
         <v>0.8</v>
       </c>
-      <c r="G77" s="147"/>
-      <c r="H77" s="152"/>
-      <c r="I77" s="164"/>
-      <c r="J77" s="148">
+      <c r="G77" s="122"/>
+      <c r="H77" s="132"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="107">
         <v>5</v>
       </c>
-      <c r="K77" s="145" t="s">
-        <v>351</v>
-      </c>
-      <c r="L77" s="147"/>
+      <c r="K77" s="131" t="s">
+        <v>350</v>
+      </c>
+      <c r="L77" s="122"/>
       <c r="M77" s="36">
         <f>$M$74-$F$80</f>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="N77" s="145" t="s">
-        <v>358</v>
-      </c>
-      <c r="O77" s="147"/>
-      <c r="P77" s="147"/>
-      <c r="Q77" s="147"/>
-      <c r="R77" s="147"/>
-      <c r="S77" s="152"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="N77" s="131" t="s">
+        <v>357</v>
+      </c>
+      <c r="O77" s="122"/>
+      <c r="P77" s="122"/>
+      <c r="Q77" s="122"/>
+      <c r="R77" s="122"/>
+      <c r="S77" s="132"/>
     </row>
     <row r="78" spans="1:30" ht="31.8" customHeight="1">
-      <c r="A78" s="153" t="s">
+      <c r="A78" s="137" t="s">
         <v>316</v>
       </c>
-      <c r="B78" s="145"/>
-      <c r="C78" s="150" t="s">
+      <c r="B78" s="131"/>
+      <c r="C78" s="141" t="s">
         <v>318</v>
       </c>
-      <c r="D78" s="150"/>
-      <c r="E78" s="146" t="s">
+      <c r="D78" s="141"/>
+      <c r="E78" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="F78" s="92">
+      <c r="F78" s="114">
         <v>0.3</v>
       </c>
-      <c r="G78" s="147"/>
-      <c r="H78" s="152"/>
-      <c r="I78" s="164"/>
-      <c r="J78" s="148">
+      <c r="G78" s="122"/>
+      <c r="H78" s="132"/>
+      <c r="I78" s="126"/>
+      <c r="J78" s="107">
         <v>6</v>
       </c>
-      <c r="K78" s="145" t="s">
+      <c r="K78" s="131" t="s">
         <v>342</v>
       </c>
-      <c r="L78" s="147"/>
+      <c r="L78" s="122"/>
       <c r="M78" s="36">
         <f>$F$81</f>
         <v>0.4</v>
       </c>
-      <c r="N78" s="147" t="s">
-        <v>350</v>
-      </c>
-      <c r="O78" s="147"/>
-      <c r="P78" s="147"/>
-      <c r="Q78" s="147"/>
-      <c r="R78" s="147"/>
-      <c r="S78" s="152"/>
+      <c r="N78" s="122" t="s">
+        <v>349</v>
+      </c>
+      <c r="O78" s="122"/>
+      <c r="P78" s="122"/>
+      <c r="Q78" s="122"/>
+      <c r="R78" s="122"/>
+      <c r="S78" s="132"/>
     </row>
     <row r="79" spans="1:30" ht="31.8" customHeight="1" thickBot="1">
-      <c r="A79" s="153" t="s">
+      <c r="A79" s="137" t="s">
         <v>328</v>
       </c>
-      <c r="B79" s="145"/>
-      <c r="C79" s="145" t="s">
+      <c r="B79" s="131"/>
+      <c r="C79" s="131" t="s">
         <v>322</v>
       </c>
-      <c r="D79" s="147"/>
-      <c r="E79" s="146" t="s">
+      <c r="D79" s="122"/>
+      <c r="E79" s="111" t="s">
         <v>323</v>
       </c>
-      <c r="F79" s="92">
+      <c r="F79" s="114">
         <v>1</v>
       </c>
-      <c r="G79" s="147"/>
-      <c r="H79" s="152"/>
-      <c r="I79" s="168"/>
-      <c r="J79" s="169">
+      <c r="G79" s="122"/>
+      <c r="H79" s="132"/>
+      <c r="I79" s="127"/>
+      <c r="J79" s="110">
         <v>7</v>
       </c>
-      <c r="K79" s="155" t="s">
-        <v>352</v>
-      </c>
-      <c r="L79" s="156"/>
+      <c r="K79" s="128" t="s">
+        <v>351</v>
+      </c>
+      <c r="L79" s="129"/>
       <c r="M79" s="58">
         <f>$M$78-$F$80</f>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="N79" s="155" t="s">
-        <v>353</v>
-      </c>
-      <c r="O79" s="156"/>
-      <c r="P79" s="156"/>
-      <c r="Q79" s="156"/>
-      <c r="R79" s="156"/>
-      <c r="S79" s="161"/>
+      <c r="N79" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="O79" s="129"/>
+      <c r="P79" s="129"/>
+      <c r="Q79" s="129"/>
+      <c r="R79" s="129"/>
+      <c r="S79" s="130"/>
     </row>
     <row r="80" spans="1:30" ht="31.8" customHeight="1">
-      <c r="A80" s="153" t="s">
+      <c r="A80" s="137" t="s">
         <v>327</v>
       </c>
-      <c r="B80" s="145"/>
-      <c r="C80" s="145" t="s">
+      <c r="B80" s="131"/>
+      <c r="C80" s="131" t="s">
         <v>324</v>
       </c>
-      <c r="D80" s="147"/>
-      <c r="E80" s="146" t="s">
+      <c r="D80" s="122"/>
+      <c r="E80" s="111" t="s">
         <v>325</v>
       </c>
       <c r="F80" s="36">
         <f>-$F$79*($F$78-$F$77)</f>
         <v>0.5</v>
       </c>
-      <c r="G80" s="147"/>
-      <c r="H80" s="152"/>
-    </row>
-    <row r="81" spans="1:8" ht="31.8" customHeight="1" thickBot="1">
-      <c r="A81" s="154" t="s">
+      <c r="G80" s="122"/>
+      <c r="H80" s="132"/>
+    </row>
+    <row r="81" spans="1:8" ht="31.8" customHeight="1">
+      <c r="A81" s="138" t="s">
         <v>340</v>
       </c>
-      <c r="B81" s="155"/>
-      <c r="C81" s="155" t="s">
+      <c r="B81" s="139"/>
+      <c r="C81" s="139" t="s">
         <v>341</v>
       </c>
-      <c r="D81" s="156"/>
-      <c r="E81" s="157" t="s">
+      <c r="D81" s="140"/>
+      <c r="E81" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="F81" s="158">
+      <c r="F81" s="116">
         <v>0.4</v>
       </c>
-      <c r="G81" s="167" t="s">
+      <c r="G81" s="135" t="s">
+        <v>358</v>
+      </c>
+      <c r="H81" s="136"/>
+    </row>
+    <row r="82" spans="1:8" ht="31.8" customHeight="1">
+      <c r="A82" s="134" t="s">
         <v>359</v>
       </c>
-      <c r="H81" s="166"/>
-    </row>
-    <row r="82" spans="1:8" ht="31.8" customHeight="1">
-      <c r="A82" s="130"/>
-      <c r="B82" s="130"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="142"/>
-      <c r="B83" s="142"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
+      <c r="B82" s="131"/>
+      <c r="C82" s="134" t="s">
+        <v>360</v>
+      </c>
+      <c r="D82" s="122"/>
+      <c r="E82" s="118" t="s">
+        <v>361</v>
+      </c>
+      <c r="F82" s="112">
+        <v>0.8</v>
+      </c>
+      <c r="G82" s="122"/>
+      <c r="H82" s="122"/>
+    </row>
+    <row r="83" spans="1:8" ht="42.6" customHeight="1">
+      <c r="A83" s="134" t="s">
+        <v>362</v>
+      </c>
+      <c r="B83" s="122"/>
+      <c r="C83" s="134" t="s">
+        <v>363</v>
+      </c>
+      <c r="D83" s="122"/>
+      <c r="E83" s="118" t="s">
+        <v>364</v>
+      </c>
+      <c r="F83" s="112">
+        <v>2</v>
+      </c>
+      <c r="G83" s="123"/>
+      <c r="H83" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="69">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A46:AD46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="D5:D14"/>
+    <mergeCell ref="K5:K14"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="A69:AD69"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:S72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:S73"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A74:B74"/>
     <mergeCell ref="I71:S71"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="N79:S79"/>
-    <mergeCell ref="N74:S74"/>
-    <mergeCell ref="N75:S75"/>
-    <mergeCell ref="N76:S76"/>
-    <mergeCell ref="N77:S77"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="G72:H72"/>
@@ -8455,57 +8457,30 @@
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:AD69"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:S72"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="N73:S73"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A46:AD46"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="D5:D14"/>
-    <mergeCell ref="K5:K14"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="L5:L14"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="N74:S74"/>
+    <mergeCell ref="N75:S75"/>
+    <mergeCell ref="N76:S76"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="N79:S79"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <conditionalFormatting sqref="M73:M74">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
-      <formula>$M$75</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="M76:M78">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>$M$75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M79">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>$M$75</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8562,13 +8537,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
@@ -8577,8 +8552,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="98"/>
-      <c r="B3" s="100" t="s">
+      <c r="A3" s="169"/>
+      <c r="B3" s="165" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -8592,8 +8567,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="100"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
@@ -8605,8 +8580,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="45" customFormat="1" ht="31.2">
-      <c r="A5" s="98"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="52" t="s">
         <v>216</v>
       </c>
@@ -8619,8 +8594,8 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" s="45" customFormat="1" ht="15.6">
-      <c r="A6" s="98"/>
-      <c r="B6" s="100"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="52" t="s">
         <v>218</v>
       </c>
@@ -8633,12 +8608,12 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15.6">
-      <c r="A7" s="98"/>
-      <c r="B7" s="100"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="165"/>
     </row>
     <row r="8" spans="1:6" ht="15.6">
-      <c r="A8" s="98"/>
-      <c r="B8" s="100" t="s">
+      <c r="A8" s="169"/>
+      <c r="B8" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -8652,8 +8627,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2">
-      <c r="A9" s="98"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
@@ -8665,8 +8640,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="39" customFormat="1" ht="31.2">
-      <c r="A10" s="98"/>
-      <c r="B10" s="100"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="48" t="s">
         <v>206</v>
       </c>
@@ -8678,8 +8653,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="39" customFormat="1" ht="15.6">
-      <c r="A11" s="98"/>
-      <c r="B11" s="100"/>
+      <c r="A11" s="169"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="48" t="s">
         <v>210</v>
       </c>
@@ -8691,8 +8666,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.2">
-      <c r="A12" s="98"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="169"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
@@ -8704,12 +8679,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="98"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="165"/>
     </row>
     <row r="14" spans="1:6" ht="15.6">
-      <c r="A14" s="98"/>
-      <c r="B14" s="100" t="s">
+      <c r="A14" s="169"/>
+      <c r="B14" s="165" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="40" t="s">
@@ -8723,8 +8698,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6">
-      <c r="A15" s="98"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="40" t="s">
         <v>162</v>
       </c>
@@ -8736,23 +8711,23 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6">
-      <c r="A16" s="98"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="165"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="98"/>
-      <c r="B17" s="100" t="s">
+      <c r="A17" s="169"/>
+      <c r="B17" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="100"/>
+      <c r="C17" s="165"/>
       <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="31.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="105" t="s">
+      <c r="A18" s="169"/>
+      <c r="B18" s="166" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -8766,8 +8741,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2">
-      <c r="A19" s="98"/>
-      <c r="B19" s="105"/>
+      <c r="A19" s="169"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="10" t="s">
         <v>103</v>
       </c>
@@ -8780,8 +8755,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" ht="31.2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="10" t="s">
         <v>101</v>
       </c>
@@ -8794,8 +8769,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" ht="31.2">
-      <c r="A21" s="98"/>
-      <c r="B21" s="105"/>
+      <c r="A21" s="169"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="10" t="s">
         <v>104</v>
       </c>
@@ -8808,20 +8783,20 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="15.6">
-      <c r="A22" s="98"/>
-      <c r="B22" s="100"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="165"/>
     </row>
     <row r="23" spans="1:6" ht="15.6">
-      <c r="A23" s="98"/>
+      <c r="A23" s="169"/>
     </row>
     <row r="24" spans="1:6" ht="15.6">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="168" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="100"/>
+      <c r="C24" s="165"/>
       <c r="D24" s="40" t="s">
         <v>168</v>
       </c>
@@ -8830,8 +8805,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.2">
-      <c r="A25" s="98"/>
-      <c r="B25" s="100" t="s">
+      <c r="A25" s="169"/>
+      <c r="B25" s="165" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="40" t="s">
@@ -8845,12 +8820,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6">
-      <c r="A26" s="98"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="169"/>
+      <c r="B26" s="165"/>
     </row>
     <row r="27" spans="1:6" ht="31.2">
-      <c r="A27" s="98"/>
-      <c r="B27" s="100" t="s">
+      <c r="A27" s="169"/>
+      <c r="B27" s="165" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="81" t="s">
@@ -8864,8 +8839,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="49" customFormat="1" ht="31.2">
-      <c r="A28" s="98"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="165"/>
       <c r="C28" s="81" t="s">
         <v>253</v>
       </c>
@@ -8878,8 +8853,8 @@
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="15.6">
-      <c r="A29" s="98"/>
-      <c r="B29" s="100"/>
+      <c r="A29" s="169"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="40" t="s">
         <v>191</v>
       </c>
@@ -8891,8 +8866,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6">
-      <c r="A30" s="98"/>
-      <c r="B30" s="100"/>
+      <c r="A30" s="169"/>
+      <c r="B30" s="165"/>
       <c r="C30" s="40" t="s">
         <v>178</v>
       </c>
@@ -8904,8 +8879,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="38" customFormat="1" ht="31.2">
-      <c r="A31" s="98"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="169"/>
+      <c r="B31" s="165"/>
       <c r="C31" s="40" t="s">
         <v>185</v>
       </c>
@@ -8918,8 +8893,8 @@
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="31.2">
-      <c r="A32" s="98"/>
-      <c r="B32" s="100"/>
+      <c r="A32" s="169"/>
+      <c r="B32" s="165"/>
       <c r="C32" s="40" t="s">
         <v>177</v>
       </c>
@@ -8931,12 +8906,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6">
-      <c r="A33" s="98"/>
-      <c r="B33" s="100"/>
+      <c r="A33" s="169"/>
+      <c r="B33" s="165"/>
     </row>
     <row r="34" spans="1:6" ht="31.2">
-      <c r="A34" s="98"/>
-      <c r="B34" s="100" t="s">
+      <c r="A34" s="169"/>
+      <c r="B34" s="165" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -8948,8 +8923,8 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" ht="31.2">
-      <c r="A35" s="98"/>
-      <c r="B35" s="100"/>
+      <c r="A35" s="169"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="13" t="s">
         <v>111</v>
       </c>
@@ -8960,8 +8935,8 @@
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" ht="31.2">
-      <c r="A36" s="98"/>
-      <c r="B36" s="100"/>
+      <c r="A36" s="169"/>
+      <c r="B36" s="165"/>
       <c r="C36" s="13" t="s">
         <v>112</v>
       </c>
@@ -8972,8 +8947,8 @@
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" ht="31.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="169"/>
+      <c r="B37" s="165"/>
       <c r="C37" s="13" t="s">
         <v>113</v>
       </c>
@@ -8984,16 +8959,16 @@
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A38" s="98"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="169"/>
+      <c r="B38" s="165"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="6"/>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="31.2">
-      <c r="A39" s="98"/>
-      <c r="B39" s="100" t="s">
+      <c r="A39" s="169"/>
+      <c r="B39" s="165" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -9007,8 +8982,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="31.2">
-      <c r="A40" s="98"/>
-      <c r="B40" s="100"/>
+      <c r="A40" s="169"/>
+      <c r="B40" s="165"/>
       <c r="C40" s="1" t="s">
         <v>69</v>
       </c>
@@ -9018,8 +8993,8 @@
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="31.2">
-      <c r="A41" s="98"/>
-      <c r="B41" s="100"/>
+      <c r="A41" s="169"/>
+      <c r="B41" s="165"/>
       <c r="C41" s="1" t="s">
         <v>70</v>
       </c>
@@ -9031,8 +9006,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.2">
-      <c r="A42" s="98"/>
-      <c r="B42" s="100"/>
+      <c r="A42" s="169"/>
+      <c r="B42" s="165"/>
       <c r="C42" s="1" t="s">
         <v>71</v>
       </c>
@@ -9042,8 +9017,8 @@
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="31.2">
-      <c r="A43" s="98"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="169"/>
+      <c r="B43" s="165"/>
       <c r="C43" s="1" t="s">
         <v>79</v>
       </c>
@@ -9055,8 +9030,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="31.2">
-      <c r="A44" s="98"/>
-      <c r="B44" s="100"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="165"/>
       <c r="C44" s="8" t="s">
         <v>97</v>
       </c>
@@ -9068,36 +9043,36 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.6">
-      <c r="A45" s="98"/>
-      <c r="B45" s="100"/>
+      <c r="A45" s="169"/>
+      <c r="B45" s="165"/>
     </row>
     <row r="46" spans="1:6" ht="15.6">
-      <c r="A46" s="98"/>
-      <c r="B46" s="100"/>
+      <c r="A46" s="169"/>
+      <c r="B46" s="165"/>
     </row>
     <row r="47" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A47" s="98"/>
+      <c r="A47" s="169"/>
     </row>
     <row r="48" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A48" s="98"/>
+      <c r="A48" s="169"/>
     </row>
     <row r="49" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A49" s="98"/>
+      <c r="A49" s="169"/>
     </row>
     <row r="50" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A50" s="98"/>
+      <c r="A50" s="169"/>
     </row>
     <row r="51" spans="1:6" ht="15.6">
-      <c r="A51" s="98"/>
+      <c r="A51" s="169"/>
     </row>
     <row r="52" spans="1:6" ht="15.6">
-      <c r="A52" s="98"/>
+      <c r="A52" s="169"/>
     </row>
     <row r="53" spans="1:6" ht="15.6">
-      <c r="A53" s="98" t="s">
+      <c r="A53" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="106" t="s">
+      <c r="B53" s="167" t="s">
         <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -9114,12 +9089,12 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="28" customFormat="1" ht="31.2">
-      <c r="A54" s="98"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="129" t="s">
+      <c r="A54" s="169"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="129" t="s">
+      <c r="D54" s="96" t="s">
         <v>298</v>
       </c>
       <c r="E54" s="28">
@@ -9130,8 +9105,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.6">
-      <c r="A55" s="98"/>
-      <c r="B55" s="100"/>
+      <c r="A55" s="169"/>
+      <c r="B55" s="165"/>
       <c r="C55" s="1" t="s">
         <v>81</v>
       </c>
@@ -9146,8 +9121,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="42.6" customHeight="1">
-      <c r="A56" s="98"/>
-      <c r="B56" s="100"/>
+      <c r="A56" s="169"/>
+      <c r="B56" s="165"/>
       <c r="C56" s="1" t="s">
         <v>19</v>
       </c>
@@ -9158,8 +9133,8 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="36" customHeight="1">
-      <c r="A57" s="98"/>
-      <c r="B57" s="100" t="s">
+      <c r="A57" s="169"/>
+      <c r="B57" s="165" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -9173,8 +9148,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.6">
-      <c r="A58" s="98"/>
-      <c r="B58" s="100"/>
+      <c r="A58" s="169"/>
+      <c r="B58" s="165"/>
       <c r="C58" s="40" t="s">
         <v>169</v>
       </c>
@@ -9186,11 +9161,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="31.2">
-      <c r="A59" s="98"/>
-      <c r="B59" s="100" t="s">
+      <c r="A59" s="169"/>
+      <c r="B59" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="100"/>
+      <c r="C59" s="165"/>
       <c r="D59" s="1" t="s">
         <v>44</v>
       </c>
@@ -9202,20 +9177,20 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.6">
-      <c r="A60" s="98"/>
-      <c r="B60" s="100" t="s">
+      <c r="A60" s="169"/>
+      <c r="B60" s="165" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.6">
-      <c r="A61" s="98"/>
-      <c r="B61" s="100"/>
+      <c r="A61" s="169"/>
+      <c r="B61" s="165"/>
       <c r="D61" s="15"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:6" s="11" customFormat="1" ht="31.2">
-      <c r="A62" s="98"/>
-      <c r="B62" s="100"/>
+      <c r="A62" s="169"/>
+      <c r="B62" s="165"/>
       <c r="C62" s="15" t="s">
         <v>118</v>
       </c>
@@ -9228,33 +9203,33 @@
       </c>
     </row>
     <row r="63" spans="1:6" s="11" customFormat="1" ht="15.6">
-      <c r="A63" s="98"/>
-      <c r="B63" s="100"/>
+      <c r="A63" s="169"/>
+      <c r="B63" s="165"/>
       <c r="D63" s="12"/>
       <c r="E63" s="6"/>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" ht="15.6">
-      <c r="A64" s="98"/>
-      <c r="B64" s="100"/>
+      <c r="A64" s="169"/>
+      <c r="B64" s="165"/>
     </row>
     <row r="65" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A65" s="98"/>
-      <c r="B65" s="102" t="s">
+      <c r="A65" s="169"/>
+      <c r="B65" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="102"/>
+      <c r="C65" s="121"/>
       <c r="D65" s="21" t="s">
         <v>135</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A66" s="98"/>
-      <c r="B66" s="102" t="s">
+      <c r="A66" s="169"/>
+      <c r="B66" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="102"/>
+      <c r="C66" s="121"/>
       <c r="D66" s="8" t="s">
         <v>92</v>
       </c>
@@ -9264,11 +9239,11 @@
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A67" s="98"/>
-      <c r="B67" s="102" t="s">
+      <c r="A67" s="169"/>
+      <c r="B67" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="100"/>
+      <c r="C67" s="165"/>
       <c r="D67" s="8" t="s">
         <v>95</v>
       </c>
@@ -9278,11 +9253,11 @@
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A68" s="98"/>
-      <c r="B68" s="102" t="s">
+      <c r="A68" s="169"/>
+      <c r="B68" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="100"/>
+      <c r="C68" s="165"/>
       <c r="D68" s="8" t="s">
         <v>137</v>
       </c>
@@ -9290,11 +9265,11 @@
       <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A69" s="98"/>
-      <c r="B69" s="101" t="s">
+      <c r="A69" s="169"/>
+      <c r="B69" s="171" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="100"/>
+      <c r="C69" s="165"/>
       <c r="D69" s="15" t="s">
         <v>126</v>
       </c>
@@ -9306,11 +9281,11 @@
       </c>
     </row>
     <row r="70" spans="1:6" s="39" customFormat="1" ht="36.6" customHeight="1">
-      <c r="A70" s="98"/>
-      <c r="B70" s="103" t="s">
+      <c r="A70" s="169"/>
+      <c r="B70" s="163" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="104"/>
+      <c r="C70" s="164"/>
       <c r="D70" s="48" t="s">
         <v>215</v>
       </c>
@@ -9322,35 +9297,35 @@
       </c>
     </row>
     <row r="71" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A71" s="98"/>
+      <c r="A71" s="169"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A72" s="98"/>
+      <c r="A72" s="169"/>
       <c r="C72" s="14"/>
       <c r="D72" s="13"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A73" s="98"/>
+      <c r="A73" s="169"/>
       <c r="C73" s="14"/>
       <c r="D73" s="13"/>
       <c r="E73" s="17"/>
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A74" s="98"/>
+      <c r="A74" s="169"/>
       <c r="C74" s="14"/>
       <c r="D74" s="13"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16"/>
     </row>
     <row r="75" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A75" s="98"/>
+      <c r="A75" s="169"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
       <c r="D75" s="13"/>
@@ -9358,21 +9333,21 @@
       <c r="F75" s="16"/>
     </row>
     <row r="76" spans="1:6" s="9" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A76" s="98"/>
+      <c r="A76" s="169"/>
       <c r="C76" s="14"/>
       <c r="D76" s="13"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" ht="15.6">
-      <c r="A77" s="98"/>
+      <c r="A77" s="169"/>
       <c r="B77" s="9"/>
     </row>
     <row r="78" spans="1:6" ht="15.6">
-      <c r="A78" s="98" t="s">
+      <c r="A78" s="169" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="99" t="s">
+      <c r="B78" s="170" t="s">
         <v>121</v>
       </c>
       <c r="C78" s="22" t="s">
@@ -9386,8 +9361,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.6">
-      <c r="A79" s="98"/>
-      <c r="B79" s="100"/>
+      <c r="A79" s="169"/>
+      <c r="B79" s="165"/>
       <c r="C79" s="15" t="s">
         <v>129</v>
       </c>
@@ -9399,26 +9374,26 @@
       </c>
     </row>
     <row r="80" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A80" s="98"/>
-      <c r="B80" s="100"/>
+      <c r="A80" s="169"/>
+      <c r="B80" s="165"/>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A81" s="98"/>
-      <c r="B81" s="100"/>
+      <c r="A81" s="169"/>
+      <c r="B81" s="165"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" ht="15.6">
-      <c r="A82" s="98"/>
-      <c r="B82" s="100"/>
+      <c r="A82" s="169"/>
+      <c r="B82" s="165"/>
     </row>
     <row r="83" spans="1:6" ht="15.6">
-      <c r="A83" s="98"/>
-      <c r="B83" s="99" t="s">
+      <c r="A83" s="169"/>
+      <c r="B83" s="170" t="s">
         <v>122</v>
       </c>
       <c r="C83" s="15" t="s">
@@ -9432,32 +9407,32 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.6">
-      <c r="A84" s="98"/>
-      <c r="B84" s="100"/>
+      <c r="A84" s="169"/>
+      <c r="B84" s="165"/>
       <c r="C84" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A85" s="98"/>
-      <c r="B85" s="100"/>
+      <c r="A85" s="169"/>
+      <c r="B85" s="165"/>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A86" s="98"/>
-      <c r="B86" s="100"/>
+      <c r="A86" s="169"/>
+      <c r="B86" s="165"/>
       <c r="C86" s="20"/>
       <c r="F86" s="16"/>
     </row>
     <row r="87" spans="1:6" ht="15.6">
-      <c r="A87" s="98"/>
-      <c r="B87" s="100"/>
+      <c r="A87" s="169"/>
+      <c r="B87" s="165"/>
     </row>
     <row r="88" spans="1:6" ht="15.6">
-      <c r="A88" s="98"/>
-      <c r="B88" s="99" t="s">
+      <c r="A88" s="169"/>
+      <c r="B88" s="170" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -9471,16 +9446,16 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6">
-      <c r="A89" s="98"/>
-      <c r="B89" s="100"/>
+      <c r="A89" s="169"/>
+      <c r="B89" s="165"/>
     </row>
     <row r="90" spans="1:6" ht="15.6">
-      <c r="A90" s="98"/>
-      <c r="B90" s="100"/>
+      <c r="A90" s="169"/>
+      <c r="B90" s="165"/>
     </row>
     <row r="91" spans="1:6" ht="15.6">
-      <c r="A91" s="98"/>
-      <c r="B91" s="99" t="s">
+      <c r="A91" s="169"/>
+      <c r="B91" s="170" t="s">
         <v>124</v>
       </c>
       <c r="C91" s="15" t="s">
@@ -9494,8 +9469,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="31.2">
-      <c r="A92" s="98"/>
-      <c r="B92" s="100"/>
+      <c r="A92" s="169"/>
+      <c r="B92" s="165"/>
       <c r="C92" s="26" t="s">
         <v>136</v>
       </c>
@@ -9504,61 +9479,48 @@
       </c>
     </row>
     <row r="93" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A93" s="98"/>
-      <c r="B93" s="100"/>
+      <c r="A93" s="169"/>
+      <c r="B93" s="165"/>
       <c r="C93" s="13"/>
       <c r="D93" s="20"/>
       <c r="F93" s="16"/>
     </row>
     <row r="94" spans="1:6" s="19" customFormat="1" ht="15.6">
-      <c r="A94" s="98"/>
-      <c r="B94" s="100"/>
+      <c r="A94" s="169"/>
+      <c r="B94" s="165"/>
       <c r="C94" s="13"/>
       <c r="D94" s="20"/>
       <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" ht="15.6">
-      <c r="A95" s="98"/>
-      <c r="B95" s="100"/>
+      <c r="A95" s="169"/>
+      <c r="B95" s="165"/>
     </row>
     <row r="96" spans="1:6" ht="15.6">
-      <c r="A96" s="98"/>
+      <c r="A96" s="169"/>
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" ht="15.6">
-      <c r="A97" s="98"/>
+      <c r="A97" s="169"/>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" ht="15.6">
-      <c r="A98" s="98"/>
+      <c r="A98" s="169"/>
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" ht="15.6">
-      <c r="A99" s="98"/>
+      <c r="A99" s="169"/>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" ht="15.6">
-      <c r="A100" s="98"/>
+      <c r="A100" s="169"/>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" ht="15.6">
-      <c r="A101" s="98"/>
+      <c r="A101" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A52"/>
     <mergeCell ref="A53:A77"/>
@@ -9575,8 +9537,21 @@
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9628,13 +9603,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
@@ -9643,8 +9618,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="98"/>
-      <c r="B3" s="108" t="s">
+      <c r="A3" s="169"/>
+      <c r="B3" s="174" t="s">
         <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -9658,8 +9633,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="100"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
@@ -9671,8 +9646,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2">
-      <c r="A5" s="98"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="48" t="s">
         <v>206</v>
       </c>
@@ -9684,8 +9659,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="39" customFormat="1" ht="15.6">
-      <c r="A6" s="98"/>
-      <c r="B6" s="100"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="48" t="s">
         <v>210</v>
       </c>
@@ -9697,8 +9672,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2">
-      <c r="A7" s="98"/>
-      <c r="B7" s="100"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
@@ -9710,8 +9685,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6">
-      <c r="A8" s="98"/>
-      <c r="B8" s="100" t="s">
+      <c r="A8" s="169"/>
+      <c r="B8" s="165" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="40" t="s">
@@ -9725,8 +9700,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6">
-      <c r="A9" s="98"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="40" t="s">
         <v>198</v>
       </c>
@@ -9738,30 +9713,30 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6">
-      <c r="A10" s="98"/>
-      <c r="B10" s="100" t="s">
+      <c r="A10" s="169"/>
+      <c r="B10" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="100"/>
+      <c r="C10" s="165"/>
       <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:6" ht="15.6">
-      <c r="A11" s="98"/>
+      <c r="A11" s="169"/>
     </row>
     <row r="12" spans="1:6" ht="15.6">
-      <c r="A12" s="98"/>
+      <c r="A12" s="169"/>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="98"/>
+      <c r="A13" s="169"/>
     </row>
     <row r="14" spans="1:6" ht="31.2">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="168" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -9775,8 +9750,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -9788,8 +9763,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="165"/>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -9801,8 +9776,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="169"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
@@ -9814,8 +9789,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="31.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="100"/>
+      <c r="A18" s="169"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
@@ -9827,16 +9802,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6">
-      <c r="A19" s="98"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="169"/>
+      <c r="B19" s="165"/>
     </row>
     <row r="20" spans="1:5" ht="15.6">
-      <c r="A20" s="98"/>
-      <c r="B20" s="100"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="165"/>
     </row>
     <row r="21" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="107" t="s">
+      <c r="A21" s="169"/>
+      <c r="B21" s="168" t="s">
         <v>171</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -9850,8 +9825,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2">
-      <c r="A22" s="98"/>
-      <c r="B22" s="100"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
@@ -9863,8 +9838,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.2">
-      <c r="A23" s="98"/>
-      <c r="B23" s="100"/>
+      <c r="A23" s="169"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
@@ -9876,8 +9851,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.8">
-      <c r="A24" s="98"/>
-      <c r="B24" s="100"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -9889,8 +9864,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="46.2" customHeight="1">
-      <c r="A25" s="98"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="169"/>
+      <c r="B25" s="165"/>
       <c r="C25" s="40" t="s">
         <v>179</v>
       </c>
@@ -9902,8 +9877,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.2">
-      <c r="A26" s="98"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="169"/>
+      <c r="B26" s="165"/>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
@@ -9915,8 +9890,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="38" customFormat="1" ht="46.8">
-      <c r="A27" s="98"/>
-      <c r="B27" s="100"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="82" t="s">
         <v>254</v>
       </c>
@@ -9928,24 +9903,24 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="38" customFormat="1" ht="15.6">
-      <c r="A28" s="98"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="165"/>
     </row>
     <row r="29" spans="1:5" s="38" customFormat="1" ht="15.6">
-      <c r="A29" s="98"/>
-      <c r="B29" s="100"/>
+      <c r="A29" s="169"/>
+      <c r="B29" s="165"/>
     </row>
     <row r="30" spans="1:5" s="38" customFormat="1" ht="15.6">
-      <c r="A30" s="98"/>
-      <c r="B30" s="100"/>
+      <c r="A30" s="169"/>
+      <c r="B30" s="165"/>
     </row>
     <row r="31" spans="1:5" s="32" customFormat="1" ht="15.6">
-      <c r="A31" s="98"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="169"/>
+      <c r="B31" s="165"/>
     </row>
     <row r="32" spans="1:5" s="32" customFormat="1" ht="31.2">
-      <c r="A32" s="98"/>
-      <c r="B32" s="100" t="s">
+      <c r="A32" s="169"/>
+      <c r="B32" s="165" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="40" t="s">
@@ -9959,8 +9934,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="32" customFormat="1" ht="15.6">
-      <c r="A33" s="98"/>
-      <c r="B33" s="100"/>
+      <c r="A33" s="169"/>
+      <c r="B33" s="165"/>
       <c r="C33" s="1" t="s">
         <v>84</v>
       </c>
@@ -9972,8 +9947,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="32" customFormat="1" ht="31.2">
-      <c r="A34" s="98"/>
-      <c r="B34" s="100"/>
+      <c r="A34" s="169"/>
+      <c r="B34" s="165"/>
       <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
@@ -9985,8 +9960,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="32" customFormat="1" ht="15.6">
-      <c r="A35" s="98"/>
-      <c r="B35" s="100"/>
+      <c r="A35" s="169"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="8" t="s">
         <v>89</v>
       </c>
@@ -9998,55 +9973,55 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="32" customFormat="1" ht="15.6">
-      <c r="A36" s="98"/>
-      <c r="B36" s="100"/>
+      <c r="A36" s="169"/>
+      <c r="B36" s="165"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" s="32" customFormat="1" ht="15.6">
-      <c r="A37" s="98"/>
+      <c r="A37" s="169"/>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:5" s="32" customFormat="1" ht="15.6">
-      <c r="A38" s="98"/>
+      <c r="A38" s="169"/>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:5" s="32" customFormat="1" ht="15.6">
-      <c r="A39" s="98"/>
+      <c r="A39" s="169"/>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:5" s="32" customFormat="1" ht="15.6">
-      <c r="A40" s="98"/>
+      <c r="A40" s="169"/>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:5" s="32" customFormat="1" ht="15.6">
-      <c r="A41" s="98"/>
+      <c r="A41" s="169"/>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:5" s="32" customFormat="1" ht="15.6">
-      <c r="A42" s="98"/>
+      <c r="A42" s="169"/>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="15.6">
-      <c r="A43" s="98"/>
+      <c r="A43" s="169"/>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.6">
-      <c r="A44" s="98"/>
+      <c r="A44" s="169"/>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="15.6">
-      <c r="A45" s="98"/>
+      <c r="A45" s="169"/>
     </row>
     <row r="46" spans="1:5" ht="31.2">
-      <c r="A46" s="98" t="s">
+      <c r="A46" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="100" t="s">
+      <c r="B46" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="100"/>
+      <c r="C46" s="165"/>
       <c r="D46" s="8" t="s">
         <v>94</v>
       </c>
@@ -10055,11 +10030,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A47" s="98"/>
-      <c r="B47" s="100" t="s">
+      <c r="A47" s="169"/>
+      <c r="B47" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="100"/>
+      <c r="C47" s="165"/>
       <c r="D47" s="1" t="s">
         <v>63</v>
       </c>
@@ -10068,33 +10043,33 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A48" s="98"/>
-      <c r="B48" s="110" t="s">
+      <c r="A48" s="169"/>
+      <c r="B48" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="110"/>
+      <c r="C48" s="173"/>
       <c r="D48" s="27" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15.6">
-      <c r="A49" s="98"/>
-      <c r="B49" s="102" t="s">
+      <c r="A49" s="169"/>
+      <c r="B49" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="102"/>
+      <c r="C49" s="121"/>
       <c r="D49" s="25" t="s">
         <v>135</v>
       </c>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A50" s="98"/>
-      <c r="B50" s="102" t="s">
+      <c r="A50" s="169"/>
+      <c r="B50" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="102"/>
+      <c r="C50" s="121"/>
       <c r="D50" s="12" t="s">
         <v>92</v>
       </c>
@@ -10103,8 +10078,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="32.4" customHeight="1">
-      <c r="A51" s="98"/>
-      <c r="B51" s="100" t="s">
+      <c r="A51" s="169"/>
+      <c r="B51" s="165" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="24" t="s">
@@ -10118,8 +10093,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A52" s="98"/>
-      <c r="B52" s="100"/>
+      <c r="A52" s="169"/>
+      <c r="B52" s="165"/>
       <c r="C52" s="40" t="s">
         <v>169</v>
       </c>
@@ -10131,11 +10106,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A53" s="98"/>
-      <c r="B53" s="109" t="s">
+      <c r="A53" s="169"/>
+      <c r="B53" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="100"/>
+      <c r="C53" s="165"/>
       <c r="D53" s="27" t="s">
         <v>143</v>
       </c>
@@ -10145,11 +10120,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="36.6" customHeight="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="103" t="s">
+      <c r="A54" s="169"/>
+      <c r="B54" s="163" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="164"/>
       <c r="D54" s="48" t="s">
         <v>213</v>
       </c>
@@ -10161,13 +10136,13 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A55" s="98"/>
+      <c r="A55" s="169"/>
     </row>
     <row r="56" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A56" s="98"/>
+      <c r="A56" s="169"/>
     </row>
     <row r="57" spans="1:6" ht="16.2" customHeight="1">
-      <c r="A57" s="98"/>
+      <c r="A57" s="169"/>
     </row>
     <row r="58" spans="1:6" ht="16.2" customHeight="1"/>
     <row r="59" spans="1:6" ht="16.2" customHeight="1"/>
@@ -10182,6 +10157,15 @@
     <row r="68" ht="16.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A45"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B21:B31"/>
     <mergeCell ref="A46:A57"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
@@ -10191,17 +10175,8 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A45"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B21:B31"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -10239,32 +10214,32 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="76.8" customHeight="1">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="176" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="113"/>
+      <c r="C2" s="177"/>
       <c r="D2" s="43" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="76.8" customHeight="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112" t="s">
+      <c r="A3" s="175"/>
+      <c r="B3" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="113"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="43" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="73.8" customHeight="1">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="175" t="s">
         <v>194</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -10275,8 +10250,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="73.8" customHeight="1">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="175"/>
+      <c r="B5" s="175"/>
       <c r="C5" s="43" t="s">
         <v>193</v>
       </c>
@@ -10285,8 +10260,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="73.8" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="175"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="43" t="s">
         <v>176</v>
       </c>
@@ -10295,8 +10270,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="97.8" customHeight="1">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111" t="s">
+      <c r="A7" s="175"/>
+      <c r="B7" s="175" t="s">
         <v>195</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -10307,8 +10282,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="83.4" customHeight="1">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="175"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="44" t="s">
         <v>187</v>
       </c>
@@ -10317,7 +10292,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" customHeight="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="175"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
@@ -10331,7 +10306,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -10392,7 +10367,7 @@
       <c r="A2" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="178" t="s">
         <v>271</v>
       </c>
       <c r="C2" s="82" t="s">
@@ -10421,7 +10396,7 @@
       <c r="A3" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="128"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="82" t="s">
         <v>269</v>
       </c>
@@ -10448,7 +10423,7 @@
       <c r="A4" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="178" t="s">
         <v>272</v>
       </c>
       <c r="C4" s="82" t="s">
@@ -10474,23 +10449,23 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="128"/>
+      <c r="B5" s="178"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="128"/>
+      <c r="B6" s="178"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="128"/>
+      <c r="B7" s="178"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="128"/>
+      <c r="B8" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B8"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10505,7 +10480,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/机制、系统、数值/数值系统.xlsx
+++ b/DesignDocuments/机制、系统、数值/数值系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="537" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="537" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全局参数" sheetId="11" r:id="rId1"/>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0" shapeId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="367">
   <si>
     <t>类别1</t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -1166,14 +1166,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>子类</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -2156,6 +2148,34 @@
       </rPr>
       <t>_A_AI</t>
     </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战连击额外伤害累增量</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程连击额外伤害累增量</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ComboExtraAccumulativeDMG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_Melee</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboExtraAccumulativeDMG_Distant</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -2949,7 +2969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3305,6 +3325,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3314,15 +3340,111 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment=